--- a/QA/新奥QA测试-14B蒸馏_answers.xlsx
+++ b/QA/新奥QA测试-14B蒸馏_answers.xlsx
@@ -483,7 +483,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -509,20 +509,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在需要解释磁镜约束的基本原理，从单粒子运动轨迹理论出发，还要讨论绝热不变量的作用和失效条件。这对我来说有点挑战，因为之前学的聚变物理知识有限，但我会尽力一步步理清楚。
-首先，我记得磁镜装置是一种利用磁场约束等离子体的设备，其基本结构是两个强磁场区域和中间的弱磁场区域。粒子在这样的磁场中运动时会受到约束，防止它们逃逸出去。这可能和磁场的梯度有关，或者与粒子的运动轨迹有关。
-接下来，单粒子运动轨迹理论应该是指分析一个带电粒子在磁场中的运动情况。带电粒子在磁场中会受到洛伦兹力的作用，这会影响它们的轨迹。我想，这可能涉及到磁镜效应，即粒子在磁场强度变化时会反射，从而被约束在磁场较强的区域。
-然后是绝热不变量的概念。我记得绝热不变量在等离子体物理中用于描述当系统缓慢变化时，某些量保持不变。例如，磁镜中的磁场变化如果足够缓慢，粒子的某些运动特性会保持不变，这有助于约束。但当变化过快时，绝热条件被破坏，粒子可能会逃逸。
-为了推导磁镜约束的基本原理，我应该考虑一个带电粒子在磁场梯度中的运动。洛伦兹力在磁场中的表达式是F = q(v × B)，其中q是电荷，v是速度，B是磁场。这个力会改变粒子的动量，从而影响轨迹。
-考虑粒子沿磁场线方向的运动，假设磁场有梯度，即磁场强度随位置变化。如果粒子从高磁场区域向低磁场区域运动，洛伦兹力会在垂直于运动方向施加力，导致粒子偏转。当粒子到达某个点时，磁场梯度足够大，洛伦兹力足以使粒子的速度方向改变，产生反射，从而被约束在高磁场区域。
-这可能涉及到运动积分，可能需要解粒子的轨迹方程。可能用到柱坐标系，因为磁场通常是对称的。假设磁场B(r)在径向r处，沿着轴向z方向。粒子的速度v可以分解为平行分量v||和垂直分量v⊥。绝热条件下的运动可以简化为只有平行运动，或者垂直运动受到约束。
-绝热不变量I通常表示为I = (mv_⊥²)/(2B)，其中m是粒子质量，v_⊥是垂直速度分量。当磁场变化缓慢时，I保持不变，这样粒子的垂直速度随B变化而调整，使得它们保持在磁场较强的地方，从而被约束。
-当绝热条件被破坏时，I不再保持，粒子可能会逃逸出去。这可能发生在磁场变化过快，或者粒子的速度过高的情况。这对应于无法满足绝热条件的情况，比如磁场梯度变化剧烈，或者粒子的能量高到足以克服磁场梯度。
-在设计聚变装置时，磁镜效应可以用来约束等离子体，但必须考虑到绝热条件的限制。实际装置中，可能需要优化磁场梯度和粒子能量，以确保大部分粒子处于绝热条件下，同时避免过多粒子逃逸导致约束效率降低。
-可能还需要讨论一些定量条件，比如磁场梯度的大小，粒子能量与磁场的关系，以及这些参数如何影响约束效果。比如，磁场梯度必须足够大以产生足够的反射，而粒子能量又不能过高，否则会破坏绝热条件。
-总结一下，我的思考过程是：从单粒子运动出发，分析洛伦兹力对轨迹的影响，导出磁镜效应的条件，引入绝热不变量的概念，分析其有效性和失效条件，最后结合聚变装置设计讨论其意义。
-&lt;/think&gt;
-### 磁镜约束的基本原理及其对聚变装置设计的意义
+          <t>### 磁镜约束的基本原理及其对聚变装置设计的意义
 #### 1. 核心结论
 磁镜约束利用磁场梯度将粒子约束在高磁场区域，基于单粒子运动轨迹理论和绝热不变量，其对聚变装置设计具有重要意义，但需考虑绝热条件失效的问题。
 #### 2. 背景与概念
@@ -546,7 +533,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -572,17 +559,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在得帮用户推导均匀磁化冷等离子体中平行传播的右旋和左旋圆偏振电磁波的色散关系。然后在典型托卡马克参数下估算电子和离子回旋频率，最后讨论ECRH和ICRH分别利用了哪些波的共振特性。
-首先，我得回忆一下色散关系的推导方法。对于磁化等离子体中的电磁波，通常使用Maxwell方程组和等离子体响应方程来求解。这里的等离子体是均匀、静止的，磁场是恒定的，方向是平行传播的，也就是z轴方向。
-我记得对于电磁波在等离子体中的传播，色散关系可以通过线性化Maxwell方程组和欧姆定律来推导。假设波动是小振幅的，可以用线性近似，然后得到波动方程。对于圆偏振波，右旋和左旋的区别在于磁场的旋转方向，这在色散关系中会有不同的解。
-然后，关于右旋（R波）和左旋（L波）的波，我需要分别考虑它们的极化特性。右旋波的电场和磁场在传播方向的旋转方向是相同的，而左旋波则相反。这可能会影响到色散关系中的符号，比如电子回旋频率的符号变化。
-推导过程中，我需要引入等离子体频率ω_p，电子回旋频率Ω_e，离子回旋频率Ω_i，以及波的传播常数k。然后，结合这些参数，写出色散方程。可能在推导过程中会用到一些近似，比如忽略离子的质量或者考虑冷等离子体的情况，这些都会影响最终的色散关系。
-接下来，在计算典型托卡马克参数下的电子和离子回旋频率时，我需要使用给定的参数：B0=2T，ne=5×10^19 m^-3。记得电子回旋频率Ω_e= (eB)/(m_e c)，离子回旋频率Ω_i= (eB)/(m_i c)，其中m_i是离子的质量，通常假设为质子的质量。
-计算完频率之后，需要讨论ECRH和ICRH的工作原理。ECRH主要用于加热高能量的电子，利用的是电子回旋共振，所以应该是利用R波或L波中的一种在电子回旋频率处的共振。而ICRH则用于离子加热，利用的是离子回旋频率处的共振，可能选择不同的波型。
-然后，我需要考虑在推导过程中是否正确地处理了波的极化问题，是否正确地得出了两种波的色散关系，以及在应用过程中是否正确地使用了参数和公式。
-最后，总结整个过程，确保每个步骤都正确无误，并且能够清晰地解释ECRH和ICRH的工作机制。
-&lt;/think&gt;
-### 色散关系的推导与应用
+          <t>### 色散关系的推导与应用
 #### 1. 核心结论  
 在均匀磁化冷等离子体中，右旋圆偏振波（R波）和左旋圆偏振波（L波）的色散关系分别为：
 \[
@@ -625,7 +602,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -651,19 +628,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在遇到了一个关于托卡马克等离子体电阻率的问题。问题是要估算Spitzer电阻率的值，并讨论经典电阻在环电压中的比例，从而引出反常电阻的概念。我对这个问题还不是很熟悉，所以需要一步步来分析。
-首先，我记得Spitzer电阻率是经典电阻率的一种，主要由电子-离子的库仑碰撞决定。那么，公式应该是怎样的呢？我记得它可能和温度、密度、电荷数等因素有关。具体来说，公式应该是ρ_spitzer = (ne * Te^(-3/2))乘以一个常数，可能涉及到电荷数Zeff和一些基本常数，比如电子电荷e、电子质量me、玻尔兹曼常数k_B等等。
-接下来，我需要代入给定的参数：Te=5keV，ne=1e20 m^-3，Zeff=2。那我要先把这些数值转换成标准单位。Te=5keV等于5e3 eV，而因为k_B=8.617e-5 eV/K，所以温度T=Te/(k_B)=5e3/(8.617e-5)=大约5.8e7 K？不对，等一下，温度是用电子温度Te来衡量的，而公式中的Te应该是以eV为单位还是以K为单位呢？可能我需要使用电子温度以eV为单位来代入公式。
-然后，我需要计算电阻率的表达式。假设公式已经知道，我现在需要计算各个部分。比如，计算Zeff^2/(ne * Te^(3/2))，再乘以常数项。常数项可能包括sqrt(2)*e^2/(me*k_B^(3/2)*sqrt(m_i))，不过这里可能需要更详细地推导公式。
-在推导公式时，可能需要用到等离子体的导电率和电阻率的关系。导电率σ可以由电子的贡献和离子的贡献组成，但这里主要考虑电子的部分，因为电子的迁移率通常比离子高很多。导电率σ= ne * e^2/(m_e) * τ，其中τ是碰撞时间。碰撞时间τ由库仑碰撞决定，可能与Te和ne有关。通过这些，我可以导出ρ_spitzer的表达式。
-现在，我需要具体计算数值。例如，计算Te的值，代入公式，计算各部分的数值。可能会用到一些物理常数，比如电子电荷e=1.6e-19 C，电子质量me=9.1e-31 kg，k_B=1.38e-23 J/K。我需要把这些数值带入公式中，逐步计算，确保每一步都没有错误。
-计算过程中可能会出现一些单位转换的问题。例如，Te是5keV，转换成J的话就是5e3 * 1.6e-19 C * V=8e-16 J。但其实更方便的是保留eV的单位，用相应的常数进行计算。此外，ne是1e20 m^-3，这个数值在等离子体中是挺高的，可能会导致较高的导电率，从而电阻率较低。
-计算完成后，我会得到ρ_spitzer的值。然后，需要讨论这个电阻率在环电压中的比例。我记得在托卡马克装置中，环电压主要包括纵场电压、等离子体电阻压降、以及动态过程电压（如MHD效应等）。经典电阻压降V_classical = R * ρ_classical * (dI/dt)，其中R是回路的电阻，ρ_classical是经典电阻率。但其实环电压V_loop可能与ρ乘以电流梯度有关。
-假设总环电压由经典和反常电阻组成，那么如果经典电阻贡献很小，就说明存在反常电阻，即比经典预测的电阻率大很多。这通常是由于等离子体中的湍流或其他微观机制导致的。
-接下来，我需要估算经典电阻压降占总环电压的比例。比如，假设总环电压V_loop=几伏特，而经典电阻导致的压降V_classical=I * R_loop * ρ_classical，那么比较这两个数值，就能看出比例。通常情况下，实验观测到的环电压远高于经典模型预测的值，说明存在反常电阻。
-最后，总结一下。Spitzer电阻率的计算结果是一个很小的数值，表明经典电阻的贡献相对较小。而实验中观察到的环电压远高于经典预期，说明需要引入反常电阻的概念，即由于等离子体中存在额外的散装机制，导致电阻率增加。
-&lt;/think&gt;
-### Spitzer电阻率的估算与反常电阻的引出
+          <t>### Spitzer电阻率的估算与反常电阻的引出
 #### 核心结论
 在给定参数下，Spitzer电阻率约为 $2.4 \times 10^{-4} \, \Omega \cdot \text{m}$。经典电阻的贡献通常仅占总环电压的很小比例（约 1% 至 5%），这引出了反常电阻的概念，表明等离子体中存在额外的电阻机制。
 #### 背景与概念
@@ -719,7 +684,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -745,16 +710,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好吧，我现在要回答的问题是关于反常输运以及离子温度梯度模（ITG）如何驱动反常输运的。首先，我得理解什么是反常输运。反常输运指的是在托卡马克等离子体中，热能和粒子的输运比经典理论预测的要高，这种现象是由微观不稳定性引起的。那ITG是什么？ITG是离子温度梯度模的一种，属于微不稳定的一种。
-首先，我需要解释反常输运的背景。在托卡马克中，经典的输运理论假设粒子沿着磁力线运动，输运速率较低。但实验中发现，实际输运远高于经典预测，这就引出了反常输运的概念。反常输运主要由两种机制引起：微观不稳定性（比如ITG）和宏观不稳定性（比如湍流）。
-接下来，我需要详细讨论ITG模的驱动机制。ITG模是离子梯度不稳定性的一种，主要发生在离子温度梯度较大，且与离子旋转速度梯度存在特定关系的情况下。这种不稳定性会通过波动传播，导致等离子体中的能量和粒子输运。
-在分析ITG的线性增长阶段时，我需要涉及到波动的激发和线性增长的条件。ITG的不稳定性通常通过求解离子的Vlasov方程和磁流体力学方程来分析。当满足某些条件时，比如离子温度梯度超过一个临界值，ITG就会开始增长，形成波动。这些波动会在等离子体中传播，进一步加剧不稳定性。
-然后是非线性饱和机制。当ITG波动增长到一定程度后，非线性效应开始发挥作用，导致不稳定性饱和。这通常涉及到波动之间的相互作用，比如自相位调制，或者与背景磁场的相互作用。饱和后的波动会保持一定幅度，从而持续驱动反常输运。
-我还得考虑ITG对聚变装置设计的影响。ITG的存在导致热能和粒子的输运增加，这对托卡马克的运行性能有很大影响。因此，在设计和优化托卡马克时，需要考虑如何抑制ITG的增长，比如通过调整等离子体参数，减少离子温度梯度，或者增加旋转速度梯度。
-最后，比较与拓展部分。除了ITG，还有其他微观不稳定性，如电子温度梯度模（ETG）和斜模（kinetic ballooning modes）。这些不稳定性在不同的参数条件下起主导作用，需要根据不同情况选择适当的控制策略。
-总的来说，反常输运是一个复杂的现象，涉及到多种微观不稳定性，而ITG作为其中一种，对等离子体的输运特性有重要影响。理解这些机制有助于优化聚变装置的性能，提高能源效率。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 反常输运是指在托卡马克等离子体中，由于微观不稳定性（如离子温度梯度模 ITG）引发的热能和粒子输运高于经典理论预测的现象。ITG 不稳定性通过特定的驱动条件（如较大的离子温度梯度和与离子旋转速度梯度的相互作用）导致反常输运的线性增长和非线性饱和机制，对聚变装置的热力学性能和等离子体控制具有重要意义。
 ---
 ### 背景与概念  
@@ -822,7 +778,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -848,16 +804,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好，我现在需要回答关于等离子体鞘层形成过程和主要特征，以及它在等离子体与壁相互作用和朗缪尔探针诊断中的角色的问题。我得先理清这些概念，确保自己理解正确。
-首先，鞘层的形成。等离子体是电离的气体，由电子和离子组成。在等离子体与固体壁接触的地方，电子会因为轻快而更容易被壁吸引，导致壁附近的电子密度增加。这样一来，电子迁移率比离子高，所以电子会在壁附近形成一个较高的浓度区域。这个浓度变化会形成一个电场，阻止更多的电子靠近壁，从而形成鞘层。
-接下来是鞘层的特征。鞘层可以分为德拜鞘层和预鞘层。德拜鞘层是靠近壁的一层薄层，这里的电场强度很高，德拜长度是描述电场衰减的特征长度，通常很小，只有几到几十微米。而预鞘层则是在德拜鞘层之外的一个过渡区，这里的电场梯度较小，离子的流动开始主导。
-德拜长度 λ_D 的计算公式是基于离子的浓度和温度，考虑到电荷的平方，所以即使在高离子浓度的情况下，德拜长度也相对较小。
-然后是鞘层在等离子体与壁相互作用（PMI）中的作用。鞘层中的电场会加速离子撞击壁，导致壁的侵蚀。这会影响聚变装置的材料寿命，因此研究鞘层对于材料保护和装置维护非常重要。
-在朗缪尔探针诊断中，鞘层的存在会影响探针的测量结果。探针测得的电流变化与其表面的鞘层电压有关。通过分析鞘层的特性，可以推断等离子体的参数如电子温度和密度，这对诊断技术的发展至关重要。
-总的来说，鞘层不仅是等离子体与壁之间的重要界面，还在诊断技术中起关键作用。理解鞘层的形成和特征有助于优化聚变装置的设计和运行，同时为准确测量等离子体参数提供依据。
-现在，我需要用规范的结构来组织这些思路，确保每个部分都清晰明了，符合用户的要求。
-&lt;/think&gt;
-# 等离子体鞘层的形成与特征
+          <t># 等离子体鞘层的形成与特征
 ## 1. 核心结论
 等离子体鞘层由电子浓积形成，包括德拜鞘层和预鞘层，分别具有陡峭和缓慢的电场梯度，对等离子体与壁相互作用及探针诊断至关重要。
 ## 2. 背景与概念
@@ -878,7 +825,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -904,21 +851,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答一个关于磁流体力学（MHD）近似适用条件及其局限性的问题，以及在哪些聚变等离子体现象中必须使用更复杂的模型。这个问题看起来挺专业的，我得慢慢理清楚思路。
-首先，我得理解MHD的基本概念。MHD是一种用来描述等离子体在强磁场中行为的模型，它把等离子体当作连续的流体来处理，同时考虑磁场的作用。这种模型在聚变研究中非常常用，比如在托卡马克装置中，MHD帮助我们理解许多基本现象，如等离子体的平衡、磁流体不稳定性等。
-接下来，我需要确定MHD近似的适用条件。这可能涉及到一些假设，比如忽略等离子体的微小尺度效应，假设等离子体是充分电离的，而且磁场对流体运动有主导作用。此外，可能需要忽略粒子的回旋运动，即假设离子和电子的运动可以被平均处理，不会出现快速振荡的影响。这些都是MHD成立的前提条件。
-然后，考虑MHD的局限性。这可能发生在当MHD的假设不再成立的时候。例如，当等离子体中的微小尺度现象变得重要，或者当磁场不足以主导流体运动时。此外，当涉及到粒子的回旋运动或高频率波现象时，MHD模型可能无法准确描述这些情况，这时候需要更精细的模型，如双流体模型或回旋动力学模型。
-现在，我需要具体列举哪些聚变等离子体现象必须超越MHD模型。可能的例子包括：
-1. **阿尔文波和磁流体波**：这些现象涉及到快速的磁流体波传播，可能需要考虑更高阶的效应，如波的色散和非线性相互作用。
-2. **不稳定性**：例如，漂移波和镜像模不稳定性可能在MHD模型中被简化处理，但更复杂的模型可以提供更准确的预测。
-3. **回旋动力学效应**：当粒子的回旋运动不能被平均处理时，如在低磁场或高能量密度的情况下，必须使用回旋动力学模型来描述等离子体的行为。
-4. **双流体效应**：当离子和电子的行为不能被平均处理时，特别是在涉及电流鞘、电荷分离等现象时，双流体模型能够提供更准确的描述。
-5. **高频率波现象**：如离子回旋波、电子回旋波等，这些现象需要考虑粒子的回旋运动，因此MHD模型可能不够准确。
-为了更具体地分析，我可以考虑一些典型的聚变装置，比如托卡马克和仿星器，看看在这些装置中哪些现象需要更复杂的模型。例如，在托卡马克中，边界等离子体中的湍流可能涉及到双流体效应，而在磁约束边缘，可能需要考虑回旋动力学。
-另外，我需要思考这些更复杂模型的优缺点。比如，双流体模型考虑了离子和电子的独立流动，能够更好地描述电流驱动和等离子体中的电流鞘现象，但计算成本较高。回旋动力学模型能够处理粒子的快速运动，但在处理大尺度现象时可能不太高效。
-最后，我需要总结MHD的适用范围，并指出在哪些情况下必须使用更复杂的模型，这有助于指导实际的聚变等离子体研究和装置设计。
-&lt;/think&gt;
-磁流体力学（MHD）近似是一种广泛应用于聚变等离子体研究的模型，它将等离子体视为连续的流体，并考虑磁场的作用。然而，MHD近似并非在所有情况下都适用，其适用条件及其局限性如下：
+          <t>磁流体力学（MHD）近似是一种广泛应用于聚变等离子体研究的模型，它将等离子体视为连续的流体，并考虑磁场的作用。然而，MHD近似并非在所有情况下都适用，其适用条件及其局限性如下：
 ### **1. MHD近似的适用条件**
 - **充分电离**：等离子体中的粒子（主要是离子和电子）必须充分电离，以确保电磁力主导粒子运动。
 - **低频现象**：MHD适用于低频现象，特别是当频率远低于离子回旋频率时，此时粒子的回旋运动可以被平均化处理。
@@ -944,7 +877,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -970,14 +903,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，用户让我解释等离子体中的朗道阻尼机制，为什么在无碰撞等离子体中波会发生阻尼，以及这对等离子体加热和电流驱动的影响。首先，我得回忆一下朗道阻尼的基本概念。朗道阻尼是等离子体中的一种波阻尼现象，它不同于碰撞阻尼，主要发生在没有显著碰撞的情况下。
-我应该从背景和概念开始，说明什么是无碰撞等离子体，解释朗道阻尼的基本原理，包括粒子如何与波相互作用。接下来，理论推导部分，可能需要用朗道方程，描述波的频率和阻尼率，以及涉及到的关键假设，比如弱波近似和相位平均。
-然后是定量估算，假设波的频率和等离子体频率的关系，给出阻尼率的具体数值，这可以帮助用户理解阻尼的强度。工程和实验意义部分，要说明朗道阻尼对聚变装置设计的影响，比如如何抑制阻尼或利用它来加热等离子体。
-最后，在比较与拓展部分，可以对比碰撞阻尼，分析各自的优缺点和适用条件，这样用户能更全面地理解。
-哦，对了，用户是聚变物理专家，所以语言应该专业，但避免过于复杂的术语。可能还需要解释一些关键方程中的符号，确保他们能清晰理解推导过程。
-总之，我得按照用户提供的结构，一步步详细解释朗道阻尼机制，确保每个部分都覆盖到，同时保持逻辑清晰，让用户能够顺畅理解。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 朗道阻尼是等离子体中的一种无碰撞波阻尼机制，由等离子体中的微观粒子通过与波的频率和相位匹配吸收波能而导致。这种机制在无碰撞等离子体中起主导作用，对等离子体加热和电流驱动具有重要影响。
 ### 背景与概念  
 等离子体是由大量带电粒子（电子和离子）组成的导电介质，其行为受电磁力支配。在无碰撞等离子体中，粒子间的碰撞可以忽略不计，粒子的动力学行为主要由电磁波和集体效应主导。  
@@ -1019,7 +945,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1045,17 +971,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好的，我现在需要讨论E×B漂移在等离子体约束和输运中的双重作用，并以霍尔推进器或磁控溅射为例，分析闭合E×B漂移系统中的反常电子输运机制，如玻姆扩散和近壁电导。
-首先，我需要明确E×B漂移的基本概念。E×B漂移是指在磁场中，由于电场的存在，等离子体中的带电粒子发生的一种漂移运动。这种运动可以用来约束等离子体，比如在托卡马克装置中，利用强磁场来限制等离子体的运动。然而，当E×B漂移路径闭合时，可能会出现一些问题，比如粒子的大量输运，导致约束失效。
-接下来，我需要分析E×B漂移在约束中的作用。E×B漂移在磁场中的方向是与等离子体流的方向垂直的，这样可以有效限制等离子体的运动，防止其逃脱磁场的约束。特别是在磁镜或托卡马克装置中，强磁场可以显著降低等离子体的垂直输运，提高约束效率。
-然后，讨论E×B漂移在输运中的作用。当E×B漂移路径闭合时，可能会形成环流，导致粒子在闭合路径上循环运动。这会引发反常输运现象，比如玻姆扩散。玻姆扩散是指在某些条件下，等离子体的输运率远高于经典预测，这种现象通常是由于漂移运动的不稳定性和波动引起的。此外，近壁电导也是一个重要的反常输运机制，特别是在靠近装置壁的区域，电导率的变化会影响等离子体的行为。
-以霍尔推进器为例，这是一种利用E×B漂移来加速离子的推进装置。在霍尔推进器中，强磁场和环形电场共同作用，使得离子沿着E×B方向加速，从而产生推力。然而，在这种结构中，闭合的E×B漂移路径可能导致电子的反常输运，影响整体性能。如果电子的输运过于强烈，可能会导致能量损失，降低推进效率。
-在磁控溅射装置中，E×B漂移同样起着关键作用。磁控溅射通常利用磁场来约束等离子体，促进靶材的溅射。然而，在这种装置中，闭合的E×B漂移路径可能会导致电子在靠近壁的区域积累，引发近壁电导现象。这会影响等离子体的密度分布和溅射效率，进而影响薄膜沉积的质量。
-我还需要进一步探讨玻姆扩散和近壁电导的具体机制。玻姆扩散通常发生在等离子体的温度梯度较大时，由于粒子的热运动和波动的相互作用，导致输运率增加。而近壁电导则与等离子体靠近装置壁时的电导率变化有关，特别是在高密度或高电场的条件下，电子的输运受到壁的影响，导致局部电流密度增大。
-最后，我需要总结E×B漂移的双重作用。在适当的设计下，E×B漂移可以有效地约束等离子体，提高装置的性能；然而，当闭合路径形成时，可能会引发反常输运，影响等离子体的行为。因此，在设计霍尔推进器和磁控溅射等装置时，需要仔细考虑E×B漂移的影响，合理设计磁场和电场的分布，以优化等离子体的约束和输运性能。
-在分析过程中，我需要确保各部分逻辑清晰，理论与实际应用相结合，并使用具体的例子来说明问题。同时，要注意用词准确，避免模糊不清的描述，确保读者能够理解复杂的物理过程。
-&lt;/think&gt;
-**E×B漂移的双重作用及其在霍尔推进器和磁控溅射中的应用**
+          <t>**E×B漂移的双重作用及其在霍尔推进器和磁控溅射中的应用**
 **1. 核心结论**
 E×B漂移在等离子体约束中起到关键作用，但在闭合系统中可能导致玻姆扩散和近壁电导等反常电子输运，影响装置性能。
 **2. 背景与概念**
@@ -1077,7 +993,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -1103,17 +1019,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好的，我现在需要回答如何通过实验手段测量等离子体的基本参数，包括电子温度（Te）、离子温度（Ti）、电子密度（ne）和等离子体电流（Ip）。用户要求列举至少三种不同的诊断技术，并说明它们的原理。
-首先，我得确定哪些诊断技术适用于测量这些参数。常见的诊断技术有光谱诊断、干涉仪/极光仪、微波诊断和磁诊断等。每种技术都有其特定的测量对象和原理。
-光谱诊断方面，包括平衡辐射光谱和离子光谱。电子温度可以通过平衡辐射光谱中的连续辐射分布来测量，而离子温度则由离子光谱线的宽度反映。这种方法的基本原理是通过分析光谱线的宽度和位置来推断温度。
-干涉仪和极光仪主要用于测量电子密度。干涉仪基于光干涉原理，通过检测激光束穿过等离子体后的相位变化来确定电子密度。极光仪则通过测量入射光和散射光的强度比来计算密度，特别是适用于高密度区域。
-微波诊断，如反射计和衰减计，利用微波在等离子体中的传播特性。反射计通过测量反射波的相位或幅度变化来确定密度，适用于较高密度区域。衰减计则测量微波信号通过等离子体后的衰减情况，适用于较宽的密度范围。
-磁诊断方面，尤其是磁平衡重构，用于测量等离子体电流。通过放置环形磁探头检测磁通量变化，结合等离子体的平衡条件，计算出环向电流。
-接下来，我需要为每种技术详细阐述背景、原理、定量关系、优缺点以及应用实例。例如，光谱诊断需要说明光谱线的宽度与温度的关系，以及如何通过洛伦兹线形或多普勒效应来推导温度。干涉仪则涉及相位变化与电子密度的数学关系，及其适用的密度范围。
-此外，还要比较这些技术的优缺点，比如光谱诊断适用于较低密度，而干涉仪和极光仪适用于较高密度。微波诊断在中高密度下表现良好，磁诊断则在测量电流时提供全局信息。
-最后，总结要点，强调根据等离子体条件选择合适的诊断技术，并在实际应用中结合多种方法以提高测量精度和全面性。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 等离子体基本参数（电子温度 $T_e$、离子温度 $T_i$、电子密度 $n_e$ 和等离子体电流 $I_p$）可以通过多种实验诊断技术测量，包括光谱诊断、干涉仪/极光仪和磁诊断。
 ---
 ### 2. 背景与概念  
@@ -1179,7 +1085,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -1205,22 +1111,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于托卡马克放电过程不同阶段中主导的等离子体物理过程的问题。我需要先理解整个托卡马克放电的各个阶段，然后分析每个阶段的主要物理现象。
-首先，等离子体的放电过程通常分为几个阶段：击穿、电流爬升、稳态（平顶）和破裂。每个阶段都有不同的物理机制在起作用。
-击穿阶段是等离子体开始形成的时候。这个阶段，气体被电离，从中性气体转变为等离子体。主要的物理过程是电离，可能涉及场致发射或者微波电离等方式。在这个阶段，等离子体的密度较低，主要的主导过程是电离和电子加热。
-接下来是电流爬升阶段，托卡马克中的等离子体电流迅速增加。这个阶段，初级电子的产生和电离继续进行，但随着电流的增加，更多的能量被注入到等离子体中。这导致等离子体的温度和密度升高，同时磁场也增强。在这个阶段，除了电离，输运过程变得重要，包括电子的热传导和离子的对流。此外，等离子体的稳定性和平衡开始受到关注，可能会出现一些不稳定性，如磁流体力学（MHD）不稳定性，这可能会影响电流的上升。
-稳态阶段，也就是平顶阶段，等离子体的电流达到峰值并维持一段时间。这个阶段，能量注入和加热达到平衡，等离子体的温度和密度保持相对稳定。主导的物理过程包括加热、输运和约束，同时核聚变反应在这个阶段开始显著发生。能量的损失主要通过辐射（尤其是轫致辐射）和输运过程，如经典和非经典的热传导。此外，等离子体的不稳定性如 tearing 模和锯齿模可能在这个阶段更为明显，影响等离子体的稳定性和性能。
-最后是破裂阶段，等离子体的约束被破坏，电流迅速下降。在这个阶段，主导的物理过程是不稳定性的发展，如磁流体力学不稳定性，导致磁位形的变化和能量的快速释放。破裂可能导致等离子体与壁的接触，产生高热负荷，对装置材料造成损害。破裂的机制可能涉及多种因素，如电流的过载、等离子体内部压力的变化或者外部触发条件。
-总结一下，每个阶段的主导过程可以归纳为：
-1. **击穿阶段**：电离和电子加热。
-2. **电流爬升阶段**：初级电子产生、电离、输运和初步的磁场配置。
-3. **稳态阶段**：能量平衡、输运、辐射和核聚变。
-4. **破裂阶段**：磁流体力学不稳定性、能量释放和位形变化。
-需要注意的是，这些过程之间存在相互作用和影响，不同的阶段可能交叉或重叠。例如，在稳态阶段，不稳定性可能随时出现，影响等离子体的性能，甚至导致破裂。此外，等离子体的诊断和控制手段在每个阶段都起着关键作用，以维持等离子体的稳定性和优化聚变反应条件。
-在实际操作中，托卡马克装置的设计需要综合考虑各个阶段的物理过程，优化参数以提高等离子体的性能，减少破裂的风险，并延长稳态阶段的时间，以实现高效的聚变能输出。
-总的来说，理解每个阶段的主导物理过程对于优化托卡马克装置的运行至关重要。这不仅有助于提高聚变反应的效率，还能减少对装置材料的损害，延长装置的使用寿命。
-&lt;/think&gt;
-### 托卡马克放电过程各阶段的主导等离子体物理过程
+          <t>### 托卡马克放电过程各阶段的主导等离子体物理过程
 #### 1. **击穿阶段**
 - **主导过程**：电离和电子加热。
 - **详细描述**：在这个阶段，中性气体被高电压电场或微波电离，形成等离子体。电子从电极或中性气体中原子中被加速和电离，导致等离子体密度增加。加热过程主要是电子加热，温度相对较低。
@@ -1295,7 +1186,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1321,62 +1212,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好的，我现在要回答关于汤姆逊散射诊断测量等离子体电子温度和电子密度的基本原理，以及当电子温度Te=10keV时，散射光谱的特征多普勒展宽Δλ的估算，以及这对诊断系统光谱仪分辨率的要求。
-首先，汤姆逊散射是一种通过激光与等离子体中的自由电子相互作用来诊断等离子体参数的方法。入射激光的光子与电子发生弹性散射，根据散射光的频率变化和强度变化，可以推断出电子的温度和密度。散射光的频率变化主要由多普勒效应引起，而强度变化则与散射电子的密度有关。
-接下来，我需要估算多普勒展宽Δλ。已知入射激光波长λ0=1μm，散射角θ=90度，电子温度Te=10keV。
-多普勒展宽与电子的热速度有关。首先计算电子的热速度v_th。电子温度Te=10keV转换成电子伏特为10,000 eV，然后转换成温度单位：
-Te (K) = 10,000 eV * (8.617×10^-5 eV/K) ≈ 8.617×10^7 K。
-然后，电子的热速度v_th = sqrt(3k_B Te / m_e)。计算这个值：
-k_B = 1.38×10^-23 J/K
-m_e = 9.11×10^-31 kg
-v_th = sqrt(3 * 1.38×10^-23 J/K * 8.617×10^7 K / 9.11×10^-31 kg)
-≈ sqrt(3 * 1.38×10^-23 * 8.617×10^7 / 9.11×10^-31)
-≈ sqrt( (3 * 1.38 * 8.617) × 10^( -23 +7 ) / 10^-31 )
-≈ sqrt( (3 * 1.38 * 8.617) × 10^(-16) / 10^-31 )
-≈ sqrt( (3 * 1.38 * 8.617) × 10^15 )
-≈ sqrt( 3 * 1.38 * 8.617 ) * 10^7.5
-≈ sqrt(35.6) * 10^7.5
-≈ 5.97 * 10^7.5 ≈ 5.97 * 3.16×10^7 ≈ 1.88×10^8 m/s
-接下来，计算多普勒频率展宽Δν。Δν = (v_th / c) * ν0，其中c是光速，ν0= c / λ0。
-ν0 = 3×10^8 m/s / 1×10^-6 m = 3×10^14 Hz
-Δν = (1.88×10^8 m/s / 3×10^8 m/s) * 3×10^14 Hz ≈ 0.627 * 3×10^14 ≈ 1.88×10^14 Hz
-然后，转换成波长展宽Δλ。Δλ = (Δν / ν0) * λ0 = (v_th / c) * λ0 ≈ (1.88×10^8 / 3×10^8) * 1×10^-6 ≈ 0.627×10^-6 m ≈ 0.627 μm
-但是，这个结果似乎太大了，可能哪里计算错了。让我再检查一下。
-哦，可能在计算v_th时，Te=10keV转换成温度是否正确？或者在计算v_th时，是否有单位错误？
-Te=10keV，转换成温度是正确的。但计算v_th的时候，可能需要重新计算：
-v_th = sqrt(3k_B Te / m_e) = sqrt(3 * 1.38e-23 * 10^4 eV * (1 J / (eV * C)) * ... )
-其实，更简单的方法是使用公式v_th = sqrt(2k_B Te / m_e)，但这里使用的是最概速度，平均速度是sqrt(8k_B Te/(π m_e))，而rms速度是sqrt(3k_B Te/m_e)。
-不过，通常在汤姆逊散射中，使用的是rms速度，所以v_th ≈ sqrt(3k_B Te / m_e)。
-现在，重新计算：
-k_B = 1.38e-23 J/K
-Te = 10 keV = 10,000 eV
-1 eV = 1.602e-19 J，所以Te = 10,000 * 1.602e-19 J = 1.602e-15 J
-v_th = sqrt(3 * 1.38e-23 * 1.602e-15 / 9.11e-31)
-= sqrt( (3 * 1.38e-23 * 1.602e-15) / 9.11e-31 )
-= sqrt( (6.59e-38) / 9.11e-31 )
-= sqrt(7.23e-8)
-≈ 8.506e-4 m/s
-这显然不对，因为电子温度10keV对应的速度应该在1e8 m/s左右，所以这里可能在单位转换上有错误。
-哦，对了，我可能混淆了温度单位。Te=10keV，它不是温度K，而是能量。因此，正确的做法是将Te作为能量使用，而不是转换成温度。
-因此，v_th = sqrt(3 * Te / m_e)
-Te=10keV = 10,000 eV = 10,000 * 1.602e-19 J = 1.602e-15 J
-v_th = sqrt(3 * 1.602e-15 J / 9.11e-31 kg)
-= sqrt(3 * 1.602e-15 / 9.11e-31)
-= sqrt( (4.806e-15) / 9.11e-31 )
-= sqrt(5.276e15)
-≈ 2.296e7.78 m/s
-≈ 2.296e7.78 ≈ 2.296e7 m/s（因为7.78≈7.78）
-这大约是7.7e7 m/s，或者7.7e7 m/s？或者更准确地说，计算：
-5.276e15的平方根是大约7.26e7 m/s。这更合理，因为电子在高温等离子体中的速度确实很高。
-现在，重新计算Δλ：
-Δλ = (v_th / c) * λ0 = (7.26e7 / 3e8) * 1e-6 ≈ (0.242) * 1e-6 ≈ 2.42e-7 m = 0.242 nm
-这似乎更合理。因此，Δλ≈0.242 nm。
-接下来，光谱仪需要有足够高的分辨率来分辨这个展宽。通常，光谱仪的分辨率Δλ_res可以表示为Δλ_res = λ0 / R，其中R是分辨率。
-为了覆盖Δλ=0.242 nm，需要Δλ_res ≤ Δλ，所以R≥λ0 / Δλ = 1e-6 m / 2.42e-9 m ≈ 413。
-所以，光谱仪的分辨率R至少要413，即分辨率为1e-6 m / 413 ≈ 2.42e-9 m，即0.242 nm。
-总结一下，汤姆逊散射通过测量散射光的频率变化和强度变化来确定电子温度和密度。多普勒展宽Δλ≈0.242 nm，要求光谱仪的分辨率至少为413。
-&lt;/think&gt;
-### 汤姆逊散射诊断测量电子温度和密度的基本原理
+          <t>### 汤姆逊散射诊断测量电子温度和密度的基本原理
 1. **核心结论**  
 汤姆逊散射通过测量激光与等离子体电子散射后的频率和强度变化，分别用于确定电子温度和密度。
 2. **背景与概念**  
@@ -1402,7 +1238,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1428,19 +1264,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好，我现在需要回答关于激光干涉和偏振测量诊断等离子体密度和磁场的问题，特别是为什么在大型装置如ITER中采用多弦或远红外激光系统，以及振动补偿和长光程对准的挑战。虽然我之前已经给出了一个详细的回答，但作为思考过程，我需要更详细地分解每个部分。
-首先，核心结论是激光干涉测量用于密度，而偏振测量用于磁场。这涉及到基本的物理原理，我需要回顾一下。
-在背景部分，我需要明确什么是激光干涉测量和偏振测量，它们在等离子体诊断中的应用。等离子体由自由电子和离子组成，其中自由电子的浓度决定了许多性质，比如密度。磁场在聚变装置中也很重要，用于约束等离子体。
-接下来，原理与推导部分。对于干涉测量，激光束通过等离子体时，由于等离子体的折射率变化，会导致光波的相位变化。根据等离子体的等效折射率公式，n=1 - (ω_p^2)/(ω^2)。当激光频率接近等离子体频率时，折射率会下降，甚至变为负值，导致反射。利用干涉测量，可以检测到相位变化，从而计算出等离子体的电子密度。
-偏振测量方面，当线偏振光通过等离子体中的磁场时，由于塞曼效应或法拉第效应，光的偏振态会发生改变。例如，法拉第旋转效应中，光的偏振平面会旋转，旋转角与磁场强度、光程长度和波长有关。通过测量偏振态的变化，可以推断出磁场的强度和方向。
-在定量估算部分，我需要给出具体的公式。对于干涉测量，相位变化Δφ与光程长度L和电子密度n_e有关，Δφ= (2ω_p^2 L)/(c(ω^2 - ω_p^2))。假设一个典型的激光频率，比如远红外光的频率，假设等离子体频率较低，那么可以通过相位变化计算密度。
-对于偏振测量，旋转角θ= (n_e B L)/(c (ω^2 - ω_p^2))，其中B是磁场，L是光程长度。通过测量θ，可以解出B。
-工程意义方面，多弦系统能够提供空间分辨的密度和磁场分布，这对于控制和优化等离子体状态非常重要。远红外激光在等离子体中的穿透更深，适合大型装置。然而，振动补偿和长光程对准是非常大的挑战，因为任何微小的振动都会影响干涉测量的准确性，而长光程需要极高的对准精度，否则信号会不稳定。
-接下来，比较与拓展部分，可以讨论不同的激光系统，比如可见光和远红外的优缺点。远红外的优势在于穿透更深，但可能需要更复杂的激光器和光学系统。
-最后，总结需要强调多弦和远红外系统的必要性，以及振动补偿和对准的重要性。
-现在，我需要确保每个部分都覆盖了所有必要的内容，并且逻辑清晰。可能需要检查公式是否正确，参数的假设是否合理，以及实际应用中的挑战是否被充分说明。
-&lt;/think&gt;
-# 激光干涉和偏振测量诊断等离子体的原理及其应用
+          <t># 激光干涉和偏振测量诊断等离子体的原理及其应用
 ## 1. 核心结论
 激光干涉测量用于诊断等离子体电子密度，而偏振测量用于诊断磁场或电流密度。大型装置如ITER常用多弦或远红外激光系统以提升空间分辨率和穿透能力，同时面临振动补偿和长光程对准的挑战。
 ## 2. 背景与概念
@@ -1506,7 +1330,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1532,15 +1356,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在得描述电子回旋发射（ECE）诊断测量电子温度剖面的物理基础。好的，我记得ECE是利用电子回旋共振的概念，对吗？当电子在磁场中回旋时，会发射出微波辐射。这些辐射的频率和电子的回旋频率有关，而回旋频率又取决于磁场的强度和电子的温度。所以，通过测量不同位置的辐射频率，可以推断出电子温度的分布。
-接下来，问题提到ECE诊断在不同光学厚度条件下的应用有何区别。光学厚度决定了辐射是来自整个等离子体还是表面。当光学厚度很大时，辐射主要来自深处，这样可以用来测量整个等离子体的温度；而当光学厚度较小时，辐射来自表面，适合测量表面温度。这部分我应该详细解释，光学厚度的定义以及它对测量的影响。
-然后，问题讨论ECE系统在强电子回旋共振加热（ECRH）环境下，尤其是存在超热电子时可能遇到的问题及解决方案。超热电子会导致辐射背景增加，影响测量精度。这可能是因为超热电子的运动会产生额外的辐射，干扰正常的ECE信号。解决方案可能包括优化频率选择，避开超热电子的辐射频段，或者使用更高灵敏度的探测器。
-我还需要考虑这些解决方案的具体实施，比如如何选择频率，或者在工程上如何改进探测器的灵敏度。此外，可能还有其他影响，比如超热电子对等离子体整体温度分布的影响，是否会影响ECE诊断的准确性。
-在总结时，我需要强调ECE诊断的重要性，特别是在不同光学厚度下的应用，以及在强ECRH环境中的挑战和应对策略。这有助于读者全面理解ECE诊断的工作原理及其在实际中的应用限制和优化方法。
-哦，对了，可能还有其他因素，比如磁场的不均匀性，是否会影响ECE信号的测量。还有，温度测量的分辨率和准确性如何，尤其是在超热电子存在的情况下。这些都是需要考虑的点，但可能在当前问题中不是主要的，所以可能不需要深入展开。
-总的来说，我需要按照问题要求的结构，一步步展开，确保每个部分都清晰明了，并且涵盖所有关键点。可能还需要引用一些公式，比如电子回旋频率的表达式，以及光学厚度的定义，这样可以让回答更严谨。
-&lt;/think&gt;
-### 电子回旋发射（ECE）诊断测量电子温度剖面的物理基础
+          <t>### 电子回旋发射（ECE）诊断测量电子温度剖面的物理基础
 #### 核心结论
 ECE诊断通过测量等离子体中电子回旋共振产生的微波辐射频率，推断电子温度的径向分布。
 #### 背景与概念
@@ -1611,7 +1427,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1637,15 +1453,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好的，我来想一下用户的问题。他问的是聚变中子诊断在D-T聚变等离子体研究中的重要性，还要求列举至少三种中子诊断技术，并说明它们的关键物理信息。
-首先，核心结论部分，我应该直接点明中子诊断的重要性。然后背景部分，需要解释为什么在D-T反应中中子诊断这么重要，D-T反应释放的中子及其作用。
-接下来，原理与推导部分，得详细说明中子是如何被产生的，能量分布与什么相关，还有中子通量的意义。
-定量估算或示例，可能需要给出一些典型数据，比如中子通量的范围，或者能谱的情况。工程意义部分，应该讲讲这些诊断手段如何帮助装置设计和优化。
-比较与拓展，可能需要比较不同中子诊断技术的优缺点，适用条件是什么。
-最后，要点总结部分，再次强调关键点和建议。
-思考过程中，我需要确保每个部分都覆盖了用户的问题，并且按照规范来组织内容。同时，语言要准确，使用合适的术语和单位，确保逻辑清晰。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 聚变中子诊断是研究D-T聚变等离子体的关键工具，能够提供聚变功率、离子温度、燃料离子比例和α粒子行为等关键物理信息，从而验证聚变反应的效率和等离子体的热性能。
 ---
 ### 2. **背景与概念**  
@@ -1696,7 +1504,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -1722,17 +1530,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于光谱诊断在聚变等离子体研究中的广泛应用的问题。这个问题涉及可见光、紫外和X射线光谱技术，具体包括测量杂质种类和浓度、离子温度和旋转速度，以及电荷交换复合光谱（CXRS）的原理与应用。
-首先，我需要理解光谱诊断的基本概念。光谱诊断利用等离子体发出的光辐射来分析其特性，不同波长的光对应不同的粒子运动状态，比如电子温度、离子温度、密度、杂质种类和浓度等。
-接下来，我应该分点讨论各个应用领域。首先是测量杂质种类和浓度。等离子体中的杂质原子会发射特定的谱线，通过光谱分析可以识别出杂质的种类，同时谱线的强度变化可以用来计算杂质的浓度。这涉及到原子物理学的知识，包括跃迁概率、离子化平衡等。
-然后是测量离子温度和旋转速度。离子的热运动会产生多普勒效应，使得谱线发生展宽或位移。展宽主要反映离子的温度，而位移则可能与旋转速度有关。需要考虑的是离子的分布函数以及如何从谱线形状中提取这些信息。
-最后是电荷交换复合光谱（CXRS）。CXRS的原理是高速离子与背景气体中的原子发生电荷交换，导致离子失去一个或多个电子，进而发出光辐射。这种过程的效率与离子的能量和种类有关，因此通过CXRS光谱可以推断离子的能量分布。
-在讨论每个部分时，我还需要考虑光谱诊断在不同波长区域的适用性。例如，可见光和紫外光谱更多用于低能量或中等能量的粒子诊断，而X射线光谱则适用于高温等离子体，比如在惯性约束聚变中的应用。
-此外，我需要考虑光谱诊断在实验中的实际应用，例如如何配置诊断设备，如何处理光谱数据，以及在不同聚变装置（如托卡马克、仿星器）中的具体应用情况。
-可能会遇到的问题包括：如何区分不同杂质的谱线？如何从多普勒展宽中准确提取温度信息？CXRS信号如何与其他背景辐射区分开来？这些问题需要结合具体的实验条件和理论模型来解决。
-总的来说，我需要系统地梳理光谱诊断的各个应用，从基本原理到实际操作，确保每个点都清晰明了，同时结合实例说明其在聚变研究中的重要性。
-&lt;/think&gt;
-### 光谱诊断在聚变等离子体研究中的广泛应用
+          <t>### 光谱诊断在聚变等离子体研究中的广泛应用
 光谱诊断技术利用等离子体发出的光辐射，分析其特性，广泛应用于聚变研究，包括测量杂质种类、浓度、离子温度、旋转速度以及CXRS应用。以下是详细阐述：
 #### 1. 杂质种类和浓度的测量
 - **原理**：杂质原子在等离子体中会被激发，发射特定波长的光谱线。不同元素具有独特的光谱线，通过识别这些谱线可确定杂质种类。谱线强度与杂质浓度相关，需结合原子物理模型计算浓度。
@@ -1749,7 +1547,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -1775,14 +1573,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>好，我现在要解决的问题是关于磁诊断在测量等离子体参数以及长脉冲运行对磁诊断积分器的要求。首先，我需要明确磁诊断的基本原理，包括磁探针、通量环和罗氏线圈的工作机制。这些工具用于测量等离子体的电流、位置、形状、储能以及MHD不稳定性。
-我知道磁探针通过放置在等离子体内的导体来测量磁场。通量环则是环形线圈，用于测量穿过其平面的磁通量，从而计算电流。罗氏线圈则利用法拉第电磁感应定律，测量随时间变化的磁场。
-接下来，我需要详细说明每个诊断工具的原理。例如，磁探针的测量结果涉及磁场强度，这与等离子体的电流分布有关。通量环的测量基于磁通量的变化，而罗氏线圈则关注磁场的变化率。
-在长脉冲运行中，积分器需要能够长时间稳定工作，这意味着低噪声和高精度是关键。长期运行还可能导致信号漂移，因此需要自动校准或补偿机制。此外，积分器应具备足够的动态范围，以适应等离子体参数的快速变化，同时保持系统稳定性，避免信号失真。
-在工程应用中，选择合适的积分器设计至关重要。这可能包括使用高质量的运算放大器和精密电阻，以确保低噪声和高精度。同时，设计中需要考虑温度补偿和抗干扰措施，以减少外界因素对测量结果的影响。
-总结一下，磁诊断的基本原理依赖于测量磁场的变化，而长脉冲运行对积分器的要求集中在稳定性、低噪声和动态范围等方面。这些设计要点将直接影响诊断系统的准确性和可靠性，从而为聚变装置的设计和运行提供可靠的数据支持。
-&lt;/think&gt;
-### 磁诊断的基本原理和应用
+          <t>### 磁诊断的基本原理和应用
 #### 核心结论
 磁诊断通过测量磁场分布，提供等离子体电流、位置、形状、储能及MHD不稳定性信息，对聚变装置运行至关重要。
 #### 背景与概念
@@ -1842,7 +1633,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -1868,15 +1659,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好的，我现在需要回答关于朗缪尔探针和球形探针在聚变等离子体边界参数测量中的工作原理、可测量的参数以及在强磁场、高热流密度环境下的挑战和局限性。首先，我得先回顾这两种探针的基本工作原理。
-朗缪尔探针是一种金属探针，通过施加不同的电压，测量电流变化来确定等离子体的参数。当探针电压等于等离子体的逸出功时，电流达到峰值，这可以帮助测量电子温度和密度。而球形探针则通常在更低电压下工作，测量的是离子电流，因为离子在强磁场中移动受限，主要沿着磁场线运动，所以球形探针可以测量离子密度、温度和速度。
-接下来，我需要详细列出这两种探针能够测量的具体参数，比如电子温度、电子密度、离子密度、离子温度、离子速度等。同时，还要考虑到它们在特定条件下可能面临的挑战。比如，在强磁场环境中，磁控作用可能导致探针测量结果失真，特别是在极端条件下，如高热流密度，这会影响探针的冷却和耐久性。
-在思考过程中，我可能会考虑到两种探针在测量上的互补性，比如朗缪尔探针适合测量电子参数，而球形探针适合离子参数。在实际应用中，可能需要结合两者使用，以获得更全面的数据。但同时，这也带来了操作和数据分析上的复杂性。
-此外，误差和干扰也是不可忽视的问题。比如，探针表面的状态、杂质离子的影响以及温度梯度等因素，都可能影响测量的准确性。在极端的聚变环境中，这些因素的影响可能会被放大，导致测量结果的不准确。
-最后，我需要总结这两种探针在工程应用中的意义，比如它们如何帮助设计和优化聚变装置的边界层，改善等离子体的约束性能，以及如何在诊断中发挥作用。同时，也要指出它们的局限性，比如在特定参数范围内的测量准确性问题，以及对环境条件的敏感性，这可能限制它们的应用范围。
-总之，朗缪尔探针和球形探针在测量等离子体边界参数方面各有优劣，结合使用可以提供更全面的信息，但在强磁场和高热流的聚变环境中，仍需克服诸多挑战以确保测量的准确性和可靠性。
-&lt;/think&gt;
-朗缪尔探针和球形探针是研究等离子体边界参数的重要工具。以下是它们的工作原理、可测量的参数以及在强磁场、高热流密度聚变边界等离子体中应用时面临的挑战和局限性。
+          <t>朗缪尔探针和球形探针是研究等离子体边界参数的重要工具。以下是它们的工作原理、可测量的参数以及在强磁场、高热流密度聚变边界等离子体中应用时面临的挑战和局限性。
 ---
 ### 一、工作原理
 #### 1. 朗缪尔探针
@@ -1940,7 +1723,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -1966,16 +1749,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好的，我现在需要回答关于ITER等未来聚变装置诊断系统中关键部件所面临的辐照损伤效应及应对策略的问题。首先，我要理解问题的背景：ITER是一个大型托卡马克装置，用于研究核聚变，其诊断系统需要在极端环境中工作，包括强中子和γ辐照、高热负荷、长脉冲等。
-我应该先分析每个关键部件，了解它们各自面临的主要辐照损伤效应。例如，光学窗口可能面临材料活化和结构损伤，反射镜可能会有表面退化，光纤和电缆可能因为辐照导致性能下降，探测器则可能遭受辐射导致的噪声增加或灵敏度下降。
-接下来，我需要考虑应对这些损伤的策略。这可能包括选择抗辐照材料，使用屏蔽材料，进行材料改性，优化设计以减少辐照影响，以及开发冗余或可更换的部件。此外，远程维护也是一个重要方面，因为装置内部的高辐射环境限制了人类进入。
-在写回答时，我需要确保结构清晰，分点讨论每个关键部件的问题及解决方案。同时，要引用相关的物理原理，如中子辐照引起材料活化，γ辐照导致材料退化等。还要考虑工程上的实际应用，比如材料的选择、设计上的优化等。
-我还需要注意，回答需要符合用户提供的格式要求，包括核心结论、背景与概念、原理与推导、定量估算、工程意义等部分。因此，我需要确保每个部分都包含必要的信息，例如在辐照效应部分详细说明每个效应，而在应对策略部分提供具体的方法和实例。
-此外，我应该检查是否有遗漏的关键部件，比如是否还有其他诊断设备需要考虑，或者是否有其他环境因素可能影响这些部件的性能。同时，考虑到ITER的长脉冲运行，热负荷和辐照效应可能叠加，导致更严重的材料损伤，这一点也需要在回答中提及。
-最后，总结部分需要强调最重要的点，比如材料选择和设计优化的重要性，以及远程维护和冗余设计的必要性。这将帮助读者快速抓住问题的核心，了解如何有效应对辐照损伤，确保诊断系统的可靠性和稳定性。
-总的来说，我需要系统地分析每个关键部件，明确其面临的辐照损伤，然后提出具体的应对策略，结合物理原理和工程实践，提供一个全面且结构清晰的回答。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 聚变装置诊断系统的光学窗口、反射镜、光纤、电缆和探测器等关键部件在强辐照、高热和极端环境下面临材料活化、结构退化、性能下降等问题。应对策略包括选用抗辐照材料、优化结构设计、增强屏蔽保护和实施远程维护。  
 ---
 ### 背景与概念  
@@ -2035,7 +1809,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2061,19 +1835,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，今天收到一个关于ITER诊断系统中“诊断第一壁”和“端口插件”的问题，看来需要详细解释它们的作用以及如何满足真空密封、结构强度和辐射屏蔽的要求。
-首先，我得回忆一下ITER的整体结构。ITER是一个大型托卡马克装置，用于核聚变研究。它的设计涉及很多关键部件，包括第一壁和端口插件。诊断系统在其中起着至关重要的作用，因为需要监测等离子体的各种参数，如温度、密度、分布等。
-“诊断第一壁”听起来像是直接面对等离子体的第一层壁，用于保护装置并提供诊断功能。它应该能够承受高热流、高辐射，同时允许诊断仪器安装。而“端口插件”可能是指连接到真空室的端口上的装置，用于容纳诊断设备，这些设备可能需要插入或移除以进行维护或更换。
-接下来，问题是如何在满足诊断视窗要求的同时，确保真空密封、结构强度和足够的辐射屏蔽。这意味着设计时需要考虑多个因素：视窗的材料和结构必须允许有效的诊断信号通过，同时不泄漏真空，能够承受机械应力，以及有效阻挡辐射以保护设备和人员。
-首先，诊断视窗材料的选择至关重要。材料必须具有高透过性，适合诊断使用的波段，比如可见光、红外或X射线。常见的材料可能包括石英、蓝宝石或其他高科技陶瓷。这些材料不仅要坚固，还要耐高温和辐射损伤。
-结构设计方面，可能需要使用多层结构，每一层有不同的功能。例如，外层可能作为主要的辐射屏蔽，内层则提供结构支撑。同时，密封设计必须可靠，可能采用金属密封环或其他高真空密封技术，以确保在极端条件下不泄漏。
-机械强度和热管理也是关键。诊断插件可能暴露在极高的温度和热流中，因此需要使用轻质高强度材料，如碳纤维复合材料，或者优化结构设计以分散应力。热管理可能涉及冷却系统，如水冷或气冷，确保设备在安全温度范围内运行。
-辐射屏蔽方面，可能需要使用高密度材料，如钨或铅，放置在诊断设备和等离子体之间，以吸收中子和其他辐射。这需要权衡屏蔽效果和对诊断信号的影响，确保屏蔽层不会阻挡太多有用的信号。
-另外，安装和集成设计也很重要。诊断插件可能需要定期维护和更换，因此设计时应考虑易拆卸性，同时不影响整体系统的密封性和安全性。可能需要使用快速拆卸法兰或其他机制，以便在不破坏真空的情况下进行维护。
-最后，验证和测试是确保这些系统性能的关键。在安装到ITER之前，每个诊断插件都应经过严格的测试，模拟实际运行条件下的性能，包括极端温度、辐射暴露和机械应力。
-总结一下，设计诊断第一壁和端口插件需要综合考虑材料选择、结构设计、密封技术、辐射屏蔽和热管理等多个方面。每个部分都需要在满足诊断功能的同时，确保系统的安全性和可靠性。这可能涉及到多学科的合作，包括材料科学、机械工程、核物理和诊断技术等。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 诊断第一壁和端口插件在ITER诊断系统中分别承担等离子体面测量和灵活诊断设备集成的功能。设计中需通过优化材料选择、结构设计和屏蔽布局，同时满足诊断视窗性能、真空密封、结构强度和辐射屏蔽要求。
 ### 背景与概念  
 在ITER托卡马克装置中：  
@@ -2126,7 +1888,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -2152,13 +1914,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于托卡马克运行中的实时监测和反馈控制，涉及诊断信号及其时间分辨率和可靠性要求。首先，我需要确定用户的身份，可能是一名聚变物理或工程领域的学生或研究人员，对诊断系统不太熟悉，想深入了解相关技术。
-核心结论应该是列举常用的诊断信号，并说明对它们的要求。背景部分需要解释托卡马克运行中的位形控制、不稳定性控制和破裂预警的重要性，这样读者能理解为什么诊断信号如此关键。
-然后，我需要分三个部分讨论诊断信号：位形控制、不稳定性控制和破裂预警。每个部分都要详细说明使用的诊断类型，比如ECE、MHD传感器等，并解释它们的工作原理和关键因素。接下来，分析时间分辨率和可靠性要求，指出每个诊断信号所需的时间尺度和可靠性水平，以及这些参数如何影响系统性能。
-工程或实验意义部分，要说明诊断系统的优化对装置运行稳定性的影响，帮助设计者和运行人员做出改进。比较与拓展部分，可以提到在不同托卡马克中的适用情况，比如EAST和JET的不同选择，帮助用户理解实际应用中的多样性。
-最后，总结要点，强调诊断系统的双重需求，即高分辨率和高可靠性，提醒用户根据具体需求选择诊断方法。整个思考过程中，要确保逻辑清晰，信息全面，同时用词专业但不失通俗易懂。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 现代托卡马克运行中常用的诊断信号包括边缘极化场（ECE）和电场天线（EFDA）用于等离子体位形控制，磁流体动力学（MHD）传感器用于不稳定性（如NTM）控制，以及软X射线和超声诊断用于破裂预警。这些系统的典型时间分辨率在微秒至毫秒级，可靠性要求接近100%。
 ---
 ### 2. **背景与概念**  
@@ -2262,7 +2018,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2288,15 +2044,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好，我现在需要讨论托卡马克真空室的主要设计要求和功能。首先，真空室的作用是什么？它应该为等离子体提供一个超真空环境，避免与杂质接触，这很重要，因为杂质会影响等离子体的性能。此外，真空室还需要承受各种载荷，比如外部的大气压，内部的高温和电磁力。
-接下来，载荷方面。大气压在常压下大约是101,325帕，这会使真空室受到向外的压力，设计时需要考虑结构强度。内部过压可能由等离子体的活动引起，比如突发性压力增加，这需要结构有足够的韧性。热应力方面，真空室内部可能达到几百摄氏度，材料的选择和冷却系统需要能有效处理这些热量。电磁力，尤其是环向电磁力，会在垂直和环向上施加力，这对结构设计提出了额外的要求。
-材料选择方面，不锈钢是常见的选择，因为它具备良好的耐高温和耐腐蚀性能，同时易于加工。低活化钢则适用于未来可能的聚变反应堆，因为它们在受到中子辐照后产生的放射性较低，但这类材料可能不如不锈钢成熟，需要更多的研发和测试。
-冷却策略主要是水冷，通过循环水带走热量，维持结构的温度在可控范围内。这不仅帮助处理热应力，还防止材料因高温而退化。
-此外，真空室的设计还应考虑可维护性和诊断接口，方便未来的维修和监测设备的安装。屏蔽材料的使用也是为了减少中子和γ射线对周围设备和人员的辐射影响，这也是设计中的一个重要方面。
-最后，制造工艺的复杂性也是一个挑战，需要确保材料的焊接和密封达到高标准，以避免泄漏，从而保持必要的真空环境。
-综合来看，托卡马克真空室的设计是一个多方面的工程，需要在材料选择、载荷承受、冷却系统、屏蔽设计以及制造工艺等多个方面进行综合考虑和优化，以确保装置的稳定运行和安全。
-&lt;/think&gt;
-### 托卡马克真空室的设计要求和功能
+          <t>### 托卡马克真空室的设计要求和功能
 #### 1. 核心结论
 托卡马克真空室的主要设计要求是提供超真空环境以维持等离子体稳定运行，同时承受大气压、电磁力、热应力和内部过压等多重载荷。材料选择和冷却策略需兼顾结构强度、耐辐射性和热管理。
 ---
@@ -2336,7 +2084,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2362,13 +2110,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，用户问的是仿星器的三维线圈和真空室带来的工程挑战，以及QUADCOIL这样的工具如何帮助平衡物理和工程。首先，我得理清仿星器的基本结构，三维线圈复杂，所以工程设计肯定有难度。
-然后，制造方面，三维线圈可能需要复杂的加工技术，可能很难找到合适的材料，而且装配起来也是个大问题，精度要求高，线圈之间的间隙小，可能导致磁力线偏移，影响性能。真空室的话，形状复杂，材料选择和加工工艺也是难点。
-接下来，物理性能方面，仿星器的等离子体稳定性可能不如托卡马克，粒子和热量的处理也有问题，诊断设备怎么安排也是个麻烦。这些都是工程和物理之间的平衡点。
-然后，用户提到QUADCOIL，这类设计工具应该在多目标优化、多物理场模拟和自动化设计上发挥作用。优化方面，可能需要处理几何、磁场、结构和成本等多个因素；多物理场模拟可能结合电磁、热和应力分析，确保装置可靠；自动化设计加快设计流程，减少试错。
-最后，未来可能需要更智能的工具，比如AI驱动的算法，结合更多物理因素，提升仿星器的性能。总体来说，QUADCOIL这样的工具在平衡物理和工程上起到了关键作用。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 仿星器的三维复杂线圈和真空室设计带来了制造精度、材料应力、装配难度和磁场精确性等多方面的独特工程挑战，而QUADCOIL等先进设计工具通过多目标优化和多物理场模拟，显著提升了设计效率和可行性。
 ---
 ### 2. **背景与概念**  
@@ -2408,7 +2150,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2434,21 +2176,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我需要阐述ITER遥操作系统的主要组成部分及其功能，还有在ITER的强辐射和空间受限环境下面临的关键挑战。首先，我得弄清楚ITER的遥操作系统是做什么的。ITER是一个大型的核聚变实验装置，使用托卡马克设计，产生高温等离子体来实现聚变反应。在这个过程中，装置内部会受到高能粒子和辐射的影响，这使得维护和更换部件变得非常困难，所以需要遥操作系统来完成这些任务。
-首先，主要组成部分有偏滤器RH、包层RH、中性束RH、料盒与端口插件RH。我需要分别了解每个部分的功能。
-偏滤器RH，也就是偏滤器远程操作系统，主要负责维护和更换偏滤器组件。偏滤器在托卡马克中起到约束等离子体和排出杂质的作用，但由于等离子体与壁的相互作用，偏滤器会受到高热负荷和高辐射的影响，因此需要频繁更换和维修。偏滤器RH需要能够在高温、高辐射的环境下操作，精确地拆除和安装部件。
-包层RH则是指维护和更换包层组件。包层在ITER中用来吸收中子，并为未来的聚变堆提供测试环境。包层同样会受到高辐射和高能中子的轰击，导致材料的辐照损伤和退化。因此，包层RH需要能够在极端条件下工作，确保能够安全地更换和维修这些部件。
-中性束RH，负责中性束注入系统的维护和更换。中性束注入是ITER用来加热等离子体的重要手段。中性束系统位于高温、高辐射的区域，因此需要远程操作来维护和更换相关部件，如束源、加速器等。
-料盒与端口插件RH，用于更换和维护料盒以及端口插件。料盒通常用于装载和更换固体靶材料，端口插件则是连接各种诊断和测量设备的接口。由于ITER的内部环境极其恶劣，这些部件的更换必须在远程操作下进行，确保工作人员的安全。
-接下来，考虑在ITER的强辐射和空间受限环境下，遥操作面临哪些关键挑战。首先，强辐射会直接影响遥操作设备的材料和电子元件，导致辐射损伤和性能下降。设备需要具备抗辐射的能力，可能需要使用特殊的材料或屏蔽技术。
-其次，空间受限使得操作难度增加。ITER内部的空间非常有限，设备需要设计得紧凑且灵活，以便在有限的空间内完成各种操作任务。同时，操作设备需要高精度和高灵活性，以确保在狭小空间内的操作准确性。
-高热负荷也是一个挑战。ITER内部会产生极高的温度，遥操作设备需要能够承受高温而不损坏，这可能需要高效的冷却系统和耐高温材料。
-此外，高真空和高磁场环境也增加了操作的复杂性。在高真空环境中，传统液压或气动驱动可能无法正常工作，因此需要开发适合真空环境的驱动系统。同时，高磁场可能会影响设备的电磁兼容性，需要采取相应的屏蔽措施。
-远程控制的精确性和可靠性也是关键挑战。由于操作必须远程进行，任何控制系统的延迟或故障都可能导致任务失败或设备损坏，因此控制系统需要高度可靠，具备冗余设计和故障诊断能力。
-维护和更换的频繁性也是一个问题。由于内部环境的恶劣，ITER的许多部件需要频繁更换，这使得遥操作系统的效率和耐用性变得至关重要。系统需要能够快速、高效地完成维护任务，减少停机时间。
-总结一下，主要挑战包括：强辐射导致材料和设备的损伤，空间受限导致操作复杂，高热负荷要求耐高温设计，高真空和高磁场的环境影响，远程控制的精确性和可靠性，以及频繁的维护和更换任务带来的效率要求。针对这些挑战，需要开发具有抗辐射、紧凑灵活、耐高温、适用于特殊环境、高可靠性和高效能的遥操作系统。同时，设计时必须考虑到所有这些因素的综合作用，以确保系统的稳定运行和维护工作的顺利进行。
-&lt;/think&gt;
-### ITER遥操作系统的主要组成部分及其功能
+          <t>### ITER遥操作系统的主要组成部分及其功能
 1. **偏滤器RH（Remote Handling）**：
    - **功能**：负责偏滤器组件的维护、更换及修复。偏滤器在ITER中承担等离子体约束和杂质排出的关键角色，由于承受高热负荷和高辐射，需定期更换和维护。
 2. **包层RH**：
@@ -2482,7 +2210,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2508,19 +2236,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，这个问题是在讨论先进制造技术在聚变堆关键部件中的应用和优势，比如激光焊接、电子束焊接、增材制造和热等静压HIP。首先，我需要明确这些部件是什么，比如真空室扇段、偏滤器模块、包层模块，它们在聚变堆中的作用是什么，制造它们时面临哪些挑战。
-这些部件通常由高性能材料制成，比如低活化钢或者其他特殊合金，这些材料在高温、高辐射环境下需要保持性能稳定。制造这些部件的传统方法可能效率不高，成本高，或者难以满足复杂的几何结构要求。所以，采用先进制造技术可能在质量、成本和时间上带来改进。
-先考虑激光焊接。激光焊接的优点包括高精度、深宽比高，适合焊接薄壁结构，而且热影响区小，变形少。这对于真空室扇段的制造可能很重要，因为扇段可能有复杂的结构，需要高精度的焊接。另外，激光焊接可以实现自动化，提高效率，减少人工成本。
-电子束焊接也是一种高能束技术，适用于厚壁或高密度材料的焊接，可能在偏滤器模块的制造中有应用。电子束焊接的深穿透能力可以处理复杂的焊接接头，保证结构的完整性和强度。同时，电子束焊接的自动化水平高，可以提高生产速度，降低制造时间。
-增材制造，也就是3D打印，特别适合制造复杂结构，比如内部冷却通道、复杂的支撑结构等。对于包层模块，可能需要复杂的冷却系统来处理聚变反应产生的热量，增材制造可以一体成型这些结构，减少装配步骤，降低泄漏风险，并提高热传导效率。此外，增材制造可以减少材料浪费，降低成本。
-热等静压（HIP）处理通常用于消除材料中的孔隙，提高材料的致密度和力学性能。对于使用增材制造或铸造的部件，HIP可以进一步优化材料性能，提高部件的耐久性和可靠性。例如，真空室扇段可能需要承受高应力，HIP处理可以增强材料的强度，延长使用寿命。
-接下来，思考这些技术如何具体提高部件质量。比如，激光和电子束焊接通过减少热变形，提高接头强度和可靠性；增材制造通过复杂结构设计提高热管理效率；HIP通过提高材料均匀性，减少缺陷。
-在制造周期方面，这些技术通常比传统方法更快。自动化和高效率的加工过程减少了生产时间。例如，增材制造可以快速生产复杂部件，而不需要复杂的模具，缩短了设计到生产的周期。
-成本方面，增材制造减少了材料浪费，避免了模具费用；激光和电子束焊接减少了返工和修正的成本；HIP处理提高了材料利用率，减少了报废率。总体来看，这些技术可能在中长期降低制造成本，尽管初期设备投资较高。
-还需要考虑这些技术的局限性。例如，增材制造的材料选择有限，可能影响部件性能；高能束焊接对设备和环境要求较高，需要特定的保护气体；HIP设备昂贵，处理时间较长。此外，工艺参数的优化可能需要时间和资源，以确保部件的性能符合要求。
-最后，综合来看，这些先进制造技术在聚变堆部件制造中具有明显优势，但同时也需要考虑其适用性和成本效益，结合实际需求选择最合适的技术组合，以实现最佳的制造效果。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 先进制造技术如激光焊接、电子束焊接、增材制造和热等静压（HIP）显著提高了聚变堆关键部件的质量，缩短了制造周期，并降低了成本，尤其在高精度、复杂结构和高性能材料的处理方面表现突出。
 ---
 ### 背景与概念
@@ -2572,7 +2288,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -2598,18 +2314,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答用户的问题，关于聚变装置特别是像ITER这样的大型项目中，QA和QC体系的建立和实施，以及关键的检验和测试环节。我得先理清楚QA和QC的区别，然后考虑ITER项目的特点，再分析可能涉及的环节。
-首先，QA质量保证，主要是确保整个过程按照既定的标准和程序进行。QC质量控制，是通过具体的测试和检查来确保产品符合质量要求。在大型项目中，特别是国际合作项目，QA和QC的重要性不言而喻，因为任何小错误都可能导致巨大的损失，甚至影响国际合作的进程。
-接下来，我需要思考ITER项目的具体情况。ITER是一个大型的托卡马克装置，涉及多个成员国，建设过程复杂，包含许多关键部件，如超导磁体、真空容器、加热系统等。每个部件的质量直接影响整个装置的性能和运行安全。
-在建立QA/QC体系时，可能会涉及标准的制定、流程的设计、人员的培训以及文档的管理。ITER项目可能需要一个综合性的质量管理体系，可能参照国际标准，比如ISO 9001，但可能还有更具体的要求，因为涉及核安全和高技术设备。
-关键的检验和测试环节可能包括原材料检查、制造过程中的质量控制、部件的组装测试、系统集成测试，以及最终的运行前测试。例如，超导磁体需要在低温下测试其性能，真空容器需要进行泄漏测试，加热系统需要测试其功率输出等。
-可能还需要考虑无损检测技术，如超声波检测、射线检测等，用于检查部件是否有内部缺陷。这些都是关键步骤，确保每个部件在装配前都符合质量要求。
-此外，由于ITER是一个国际合作项目，不同成员国提供的部件可能来自不同的供应商，因此QA/QC体系需要协调各成员国的标准和流程，确保整个项目的统一性和一致性。这可能涉及到质量协议的制定，各成员国之间的质量监督和互认机制。
-在实施过程中，可能需要详细的记录系统，追踪每个部件的历史，从原材料采购到最终的装配，确保可追溯性。这在出现问题时，可以快速找到原因并采取措施。
-最后，定期的内部和外部审核也是质量体系的一部分，确保体系的有效性，并不断改进。
-总结一下，QA/QC体系需要涵盖标准制定、流程设计、人员培训、文档管理、供应商管理、测试流程、审核和改进等方面。关键的检验和测试环节包括原材料检查、制造过程控制、无损检测、系统集成测试和运行前测试。这对于确保ITER的成功建设和安全运行至关重要。
-&lt;/think&gt;
-### 质量保证（QA）和质量控制（QC）体系的建立与实施
+          <t>### 质量保证（QA）和质量控制（QC）体系的建立与实施
 #### 1. 背景与概念
 在聚变装置建造和装配过程中，确保工程质量和系统性能是关键任务。质量保证（QA）旨在通过建立标准化流程、人员培训和文档管理来预防问题；质量控制（QC）则通过具体测试和检验来确保产品符合质量要求。在ITER等大型项目中，这些体系尤为重要，涉及多国合作、复杂系统和高技术标准。
 #### 2. QA/QC体系的建立
@@ -2635,7 +2340,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -2661,15 +2366,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，用户的问题是关于从现有的中小型聚变装置，比如像中国的 EAST 或者欧洲的 JET，到 ITER，再到未来的 DEMO 电站，装置规模和复杂性的急剧增加会带来哪些主要的工程放大挑战。特别是集中在部件制造、现场装配、系统集成和项目管理方面。
-首先，我需要明确这些装置的规模差异。ITER 的体积和功率比现有的装置大很多，而 DEMO 又比 ITER 更大，甚至接近商业电站的规模。所以，从制造到集成，每一步都会面临更大的挑战。
-在部件制造方面，ITER 使用的部件材料是现有的装置的几倍甚至几十倍，比如 ITER 的 TF 线圈比 EAST 大很多，而且制造这些超导线圈需要更高的技术。同时，ITER 的装配精度要求更高，因为设备更大，微米级的误差可能在整体上造成更大的影响。另外，ITER 的真空容器和屏蔽包层都是超大部件，制造和运输都是难题。
-接下来是现场装配。超大部件的现场装配需要更先进的工具和技术，因为传统的吊装设备可能无法应对如此大的重量和尺寸。同时，现场的协调和管理也变得更加复杂，因为有更多的人和设备在现场工作，增加了安全风险和时间成本。
-系统集成方面，ITER 有更复杂的系统，比如冷却系统、加热系统和诊断系统，这些系统的集成需要更高的协调性。系统的复杂性和集成度提高，可能导致调试和运行的难度增加，需要更复杂的控制和管理系统。
-项目管理方面，ITER 涉及多个国家和机构，协调各国的资源和技术是一个巨大的挑战。同时，项目的成本控制和进度管理变得更为困难，因为规模和复杂性都大幅增加，任何延误或超支都会对整个项目产生重大影响。
-总结一下，从制造到集成，再到管理，每个环节都面临着前所未有的挑战，需要创新的技术和高效的管理来应对。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 聚变装置从中小规模向大型（如ITER和DEMO）的工程放大过程中，将面临部件制造难度增加、现场装配复杂度上升、系统集成需求提升以及项目管理难度加大的主要挑战。
 ---
 ### 背景与概念  
@@ -2718,7 +2415,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -2744,17 +2441,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好，我现在需要回答关于聚变堆总体布局和系统集成的关键因素。首先，问题提到了几个子系统，比如磁体、真空、冷却、加热、诊断、燃料循环和遥操作。这些都是聚变堆的重要组成部分，但如何把它们整合在一起呢？
-我应该从总体原则开始考虑。布局应该满足聚变等离子体运行的需求，这可能涉及到高温、高压以及强大的磁场环境。此外，还需要确保各个子系统在设计上是兼容的，并且考虑到维护和升级的需求。
-接下来，各个子系统的特点是什么？例如，磁体系统需要提供强大的磁场来约束等离子体，这可能涉及到超导磁体的设计。冷却系统则需要处理大量的热量，可能使用液氮或氦这样的冷却剂。加热系统可能需要射频或者中性束注入。燃料循环涉及到氚和氘的处理，需要安全可靠的循环系统。诊断系统需要各种传感器，可能需要预留空间和接口。遥操作系统用于维护，因为高辐射环境不适合人类操作。
-空间分配方面，应该将核心装置放在中心，周围布置辅助系统。需要考虑设备的尺寸、重量以及空间的利用率。此外，维护通道的预留也很重要，以便未来能够进行维修和更换部件。
-接下来是关键接口设计。比如，磁体和真空容器之间的接口需要考虑热膨胀和电磁干扰。冷却系统与磁体之间的接口需要高效的热传递。燃料循环与真空系统之间的接口需要防止泄漏。诊断系统需要与等离子体区域有良好的观察通道，同时不影响其他系统的运行。
-安全与防护也是关键因素。高辐射区域需要有屏蔽，操作人员的安全必须得到保障。此外，故障分析和应对措施也需要提前规划，以防止系统故障导致的严重后果。
-工程实施方面，材料选择非常重要。聚变堆需要耐高温、耐辐照的材料，比如低活化钢。制造工艺则需要高精度，特别是大型部件的组装。系统集成测试和调试是确保所有系统协同工作的重要步骤。
-比较与拓展部分，可以考虑不同堆型的布局特点。比如，托卡马克和仿星器在磁体结构和空间布局上有不同之处。固体燃料和液体燃料聚变堆在燃料循环系统的设计上也会有差异，这可能影响整体布局。
-最后，总结一下，总体布局和系统集成需要综合考虑物理需求、技术可行性和工程实施，确保各个子系统高效协同，同时满足安全和维护的需求。
-&lt;/think&gt;
-### 聚变堆总体布局和系统集成的关键因素
+          <t>### 聚变堆总体布局和系统集成的关键因素
 #### 1. **核心结论**
 聚变堆的总体布局和系统集成需综合考虑物理需求、技术可行性、空间优化、安全防护及未来维护，确保各子系统协同高效运行。
 ---
@@ -2815,7 +2502,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -2841,13 +2528,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好的，我现在需要描述 ITER 偏滤器部件的制造和测试过程，特别是钨/铜等离子体面向部件（PFCs）与冷却结构的键合方法，以及高热负荷测试设施的作用。
-首先，关于钨/铜PFCs与冷却结构的键合，我想到可能的连接方式主要有三种：钎焊、扩散焊和热压扩散焊。钎焊使用钎料，能够在较低温度下连接不同金属，适合钨和铜，但需要考虑钎料的高温性能。扩散焊则不需要钎料，通过原子扩散实现连接，适合在高温下使用，但工艺要求较高。热压扩散焊结合了扩散焊和压力，可以在较低温度下实现高质量连接。
-接下来，冷却结构的设计对键合过程至关重要。冷却结构通常采用铜合金，因为铜具有良好的导热性。流道设计影响冷却效率，需要考虑流动阻力和换热面积。制造过程中，可能需要使用精密铸造或机加工来确保流道的精确性。为了提高导热性，可能需要进行表面处理，如抛光或镀层，以减少热阻。
-在高热负荷测试设施方面，如GLADIS和Divertor Test Facility，这些设施的作用是模拟ITER运行条件下的极端热负荷，以验证PFCs的性能。例如，GLADIS可以施加强脉冲热负荷，测试PFCs在极端条件下的热疲劳和热冲击性能。这些测试帮助工程师了解PFCs在实际运行中的表现，并根据测试结果优化设计。
-总结一下，制造过程中需要综合考虑材料特性、连接工艺和冷却结构设计，而测试设施则通过模拟实际运行条件，确保部件的可靠性和性能。这些步骤对于ITER的成功运行至关重要。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 钨/铜等离子体面向部件（PFCs）与冷却结构的键合主要通过钎焊或扩散焊实现，而高热负荷测试设施如GLADIS和Divertor Test Facility在验证PFCs性能方面发挥关键作用。
 ---
 ### 2. 背景与概念
@@ -2913,7 +2594,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2939,16 +2620,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在需要解决的问题是关于聚变堆内部件的连接与固定技术，具体是在满足结构强度、真空密封、冷却剂流通和遥操作拆装要求之间的权衡。这个问题看起来涉及多个工程方面的考虑，我需要逐一分析。
-首先，核心结论是多因素权衡下，选择混合型连接技术。这可能意味着结合机械连接和钎焊密封，或者使用弹性密封设计，同时采用模块化结构来方便拆装。
-接下来是背景与概念。聚变堆内部件，如包层模块和偏滤器盒，需要在极端条件下运行，包括高热流、中子辐照和振动。它们需要承受高温（比如包层可能达到高温，而偏滤器可能承受更高的热流）。在连接固定技术方面，既要保证结构强度，又要满足真空环境下的密封性，同时允许冷却剂流通，还要支持遥操作拆装，这对于维护和更换部件至关重要。
-然后是原理与推导/机理分析。结构强度方面，必须考虑材料的高温蠕变和疲劳性能。真空密封则要求连接处无泄漏，可能需要金属密封，如钎焊或扩散焊。冷却剂流通意味着连接不能阻碍冷却剂的流动，可能需要设计复杂的流道。遥操作拆装则要求结构简单，连接点易于操作，可能需要使用标准化接口和模块化设计。
-定量估算或示例方面，我需要考虑连接处的应力分布。假设某个部件需要承受100MPa的应力，而材料的屈服强度是150MPa，那么需要设计足够的安全系数，比如至少2倍的安全系数，因此实际允许的应力可能在75MPa以下。另外，密封性方面，可能需要测试连接处的真空泄漏率，确保其低于1e-8 mbar·L/s。冷却剂流通可能需要计算流道的压降，确保流速足够带走热量。
-工程或实验意义方面，选择合适的连接技术直接影响装置的可靠性和维护成本。例如，钎焊密封虽然强度高，但在拆装时可能比较困难，而机械连接则更容易拆卸，但可能密封性较差。因此，混合型技术可能是一个折中的选择，兼顾了强度和密封性，同时保持了一定的可操作性。
-比较与拓展部分，可以考虑不同的连接技术，比如机械法兰连接、钎焊、扩散焊、弹性密封等。机械法兰连接的优点是可拆卸，但可能需要频繁维护；钎焊和扩散焊提供高强度和良好的密封性，但一旦连接后就难以拆卸；弹性密封可能在振动下保持密封，但可能会有材料疲劳的问题。此外，模块化设计可以将部件分成更小的单元，便于单独更换，而标准化接口则可以提高维护效率。
-要点总结是需要综合考虑多种因素，选择混合型连接方案，采用模块化设计，优化密封和冷却性能，确保可维护性。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 在聚变堆内部件的连接与固定技术中，需采用混合型连接方案，在结构强度、真空密封、冷却剂流通和遥操作拆装之间进行优化权衡。
 ### 背景与概念  
 聚变堆内部件（如包层模块、偏滤器盒）的连接与固定技术是确保装置安全运行的关键。这些部件需要在极端条件下工作，包括高热流（约 $10-100 MW/m^2$）、中子辐照（约 $1-10 n/cm^2/s$）、振动和高剂量辐射环境。同时，这些部件需要满足以下要求：  
@@ -2999,7 +2671,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -3025,18 +2697,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于聚变堆热室设施的问题。首先，我得明确热室到底是什么。热室应该是用于处理高放射性物质的设施，对吧？因为在聚变反应中，会产生大量的放射性废物，特别是在核废料的处理和部件维护方面。
-所以，问题主要分成两部分：一是热室在维护、修理、测试和废物处理中的角色；二是热室设计需要考虑的特殊要求，比如辐射屏蔽、三废处理和遥操作兼容性。
-首先，角色方面，热室需要提供一个安全的环境，让工作人员可以在不直接接触放射性物质的情况下进行操作。可能涉及到远距离操作机械臂，或者使用特殊的防护设备。所以，热室必须具备高辐射屏蔽能力，同时内部要有足够的空间来容纳大型设备，比如托卡马克的部件。
-接下来是设计特殊要求。首先是辐射屏蔽。聚变堆产生的放射性物质可能包括氚和其他活化产物，这些物质会产生强烈的辐射。因此，热室的墙壁需要用厚的材料，比如混凝土或者铅，来屏蔽辐射，保护工作人员的安全。
-其次是三废处理。三废指的是废水、废气和固体废物。在处理过程中，可能会有放射性液体或气体产生，必须通过专门的过滤和处理系统，确保排放到环境中的是安全的。固体废物可能包括被放射性污染的设备部件，这些需要进行包装和储存，可能需要进一步处理或长期储存。
-然后是遥操作兼容性。由于内部环境高度放射性，工作人员不能进入，所以所有操作都必须通过远程操控来进行。热室需要设计有足够的空间，让机器人或机械臂能够自由移动和操作。同时，内部可能需要配备多种传感器和摄像头，以便操作人员在外部进行监控和控制。
-除此之外，热室可能还需要考虑温度和湿度的控制，以防止设备腐蚀或材料降解。另外，通风系统必须高效，能够及时排出可能产生的有害气体，并确保内部压力稳定，防止泄漏。
-在设计时，可能还需要考虑到未来的扩展性和维护便利性。比如，热室的布局是否方便未来增加新的设备或技术，以及如何进行日常维护和检查，确保系统的长期稳定运行。
-还有一个方面是废物处理的效率。如何快速、安全地处理大量的放射性废物，可能需要优化流程和设备配置，减少处理时间，提高处理能力。
-总结一下，热室在聚变堆中的角色主要是提供一个安全的环境，支持远程维护、修理、测试和废物处理，同时必须满足严格的辐射屏蔽、三废处理和遥操作要求。设计时要考虑到所有这些因素，确保热室的高效、安全和可靠性。
-&lt;/think&gt;
-### 聚变堆热室设施的作用及设计要求
+          <t>### 聚变堆热室设施的作用及设计要求
 #### 1. 热室在聚变堆中的作用
 热室是用于处理高放射性物质的设施，主要在以下方面发挥重要作用：
 - **部件维护与修理**：提供安全环境，通过远距离操作对受辐照的部件进行维护和修理。
@@ -3123,7 +2784,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3149,17 +2810,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好，现在我需要回答用户提出的关于比较分析MHD、回旋动理学和PIC三种等离子体物理计算方法的问题。首先，我得理解每种方法的核心概念和它们各自的优缺点。
-首先，MHD，也就是磁流体力学，这是一种用来描述等离子体在磁场中的宏观行为的模型。它假设等离子体的运动可以用流体力学方程来描述，而忽略了微观粒子的细节。这对于大规模的磁约束装置如托卡马克来说非常有用，因为这些装置需要处理大量的等离子体运动，而MHD能够有效地捕捉到全局的不稳定性，如磁流体不稳定性等。
-接下来是回旋动理学，这种方法介于MHD和PIC之间。它保留了部分的微观动力学行为，但通过平均掉高频的回旋运动，从而减少计算复杂度。回旋动理学适用于研究中等尺度的涨落，如离子回旋波、电磁波与等离子体的相互作用等。这种方法比MHD更精确，因为它考虑了更细致的动力学过程，但计算量也比MHD大。
-最后是粒子模拟（PIC）方法，这是最微观的模拟方法之一。它逐个追踪等离子体中的粒子，计算它们在电磁场中的运动轨迹。这种方法非常适合研究小尺度的非线性现象，如粒子加速、微波产生等。然而，PIC的计算量极大，对于大规模的等离子体来说可能不太实际，因此在实际应用中，通常会被限制在小规模的问题上。
-接下来，我需要比较这三种方法的物理模型、数值算法特点、计算量需求以及适用的研究领域和现象。在物理模型方面，MHD采用流体模型，适合描述大规模的宏观行为；回旋动理学结合了流体和微观的粒子运动，适合中等尺度的问题；PIC则是完全的粒子模型，适用于微观和小尺度的现象。
-数值算法方面，MHD使用有限元或谱方法来求解MHD方程；回旋动理学则采用动理学方程，可能使用半隐式或显式方法；PIC则利用拉格朗日方法追踪粒子，同时更新电磁场，可能采用快速傅里叶变换等技术来提高效率。
-计算量需求方面，MHD的计算量相对较小，适合处理大规模的问题；回旋动理学的计算量中等，介于MHD和PIC之间；PIC的计算量最大，通常需要高性能计算资源来处理。
-适用的研究领域方面，MHD适合于托卡马克和仿星器等大型磁约束装置的整体行为；回旋动理学适合研究离子回旋波、 Alfven波等中等尺度的现象；PIC则适用于研究粒子加速、微波产生等小尺度的现象。
-最后，我需要总结这三种方法的适用性。每种方法都有其独特的应用场景，选择哪种方法取决于研究的具体问题规模和所关注的物理现象的尺度。例如，如果要研究托卡马克的整体稳定性，MHD是一个合适的选择；如果关注离子回旋波的传播特性，回旋动理学更合适；而研究粒子加速过程，则PIC方法更为适用。
-&lt;/think&gt;
-### 比较分析MHD、回旋动理学和PIC
+          <t>### 比较分析MHD、回旋动理学和PIC
 #### 1. **核心结论**
 磁流体力学（MHD）、回旋动理学（Gyrokinetics）和粒子模拟（PIC）分别适用于不同尺度的等离子体物理问题，MHD处理宏观流体行为，回旋动理学捕捉中等尺度波动，PIC模拟微观粒子动力学。
 #### 2. **背景与概念**
@@ -3203,7 +2854,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3229,12 +2880,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答用户关于主流MHD模拟程序及其在聚变等离子体稳定性研究中的应用的问题。用户已经给出了一个详细的答案模板，包括核心结论、背景与概念、原理与推导等部分。我需要先理清思路，确保涵盖所有要求的要点。
-首先，核心结论部分需要简洁明了地说明NIMROD程序的特点和应用实例。然后，背景与概念部分应该介绍MHD模拟的基本概念，以及NIMROD的适用范围和独特之处，比如平衡求解、非线性演化和磁重构模拟。接下来，原理与推导部分需要详细描述NIMROD使用的方程和解法，包括双流体模型、动理学效应和数值方法如有限元法。应用实例部分应包括破裂研究和ELM研究的具体例子，说明NIMROD如何帮助理解这些现象。然后，工程或实验意义部分要指出NIMROD对设计优化、实验预测和诊断的贡献。比较与拓展部分需要对比其他程序如JOREK和M3D-C1，指出NIMROD的优缺点及适用场景。最后，要点总结要重申NIMROD的关键优势及其在聚变研究中的重要性。
-在写作过程中，我要注意使用清晰的小标题，确保结构分明，方便阅读。同时，使用LaTeX格式编写方程，确保符号和单位的规范。如果某些部分的信息不全，可能需要做一些合理假设，或者指出需要进一步信息。
-最后，检查整个回答是否符合用户的要求，包括语言、结构、方程、单位等方面，确保没有遗漏任何重要部分，并保持严谨、客观的风格。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 NIMROD是一种广泛应用于聚变等离子体研究的MHD模拟程序，特别擅长模拟托卡马克等装置中的等离子体不稳定性（如破裂和ELMs），通过高精度数值求解MHD方程组，为实验设计和理论分析提供重要支持。
 ### 背景与概念  
 托卡马克等离子体的稳定性是实现可控核聚变的关键问题之一。**磁流体动力学（MHD）**是描述等离子体在磁场中运动的理论，**NIMROD（Non-Ideal MHD with Rotation and Differential）**是一种基于MHD方程的数值模拟程序，能够模拟等离子体中的各种不稳定性及其演化过程。  
@@ -3284,7 +2930,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3310,15 +2956,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的是关于回旋动理学模拟的计算量估算，以及它对高性能计算的依赖性。首先，我得明确问题的核心，那就是GENE程序这类模拟在微观湍流和反常输运研究中的作用，然后具体分析计算量随网格点数N和时间步数Nt的变化关系。
-首先，回旋动理学模拟处理的是等离子体的微观行为，涉及五维相空间，这可能包括三个空间维度和两个速度空间维度。这五维结构增加了计算的复杂性，因为每个维度的网格点数都会对计算量产生指数级的影响。
-接下来，计算量的估算。假设每个维度有N个网格点，时间上有Nt个步长。五维空间的总网格数应该是N的五次方，即N^5。然后，每个时间步需要进行一定的计算操作，假设每个网格点需要O(1)的运算量，那么每个时间步的计算量就是N^5。乘以时间步数Nt，总计算量大约是N^5 × Nt。
-但是，这里可能有一个误区，因为实际模拟中可能采用了一些优化方法，比如使用傅里叶方法来处理空间变量，这会将空间差分转化为频域的乘法，从而降低计算复杂度。此外，时间积分也可能采用高效的算法，减少每一步的时间计算量。因此，实际计算量可能略低于N^5 × Nt，但总体上，标度关系仍然是随N的五次方和Nt线性增长。
-接下来，高性能计算的依赖性。由于计算量随N的五次方增长，这意味着当网格点数增加时，计算量会急剧上升。例如，如果N翻倍，计算量就会增加32倍。这种指数级的增长使得常规的计算资源难以应对，必须依赖并行计算和高性能计算集群来处理。同时，长时间的模拟需求（如较大的Nt）也进一步加剧了对计算资源的需求。
-另外，考虑到等离子体的微观湍流和反常输运现象通常具有高度的非线性和复杂性，模拟需要在高分辨率和长时间下进行，这进一步推动了对高性能计算的需求。现代超级计算机能够提供大量的并行处理能力，使得这些高维模拟成为可能，但也需要优化算法和高效的并行策略来充分利用这些资源。
-总结一下，回旋动理学模拟在研究等离子体微观现象中起到了关键作用，而其计算量的标度关系解释了为什么高性能计算是不可或缺的。这不仅是对计算资源的依赖，也是对算法优化和并行计算技术的挑战。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 回旋动理学模拟（如GENE程序）通过五维（3空间 + 2速度空间）相空间离散化，研究等离子体的微观湍流和反常输运机制。其计算量随网格点数$N$呈现$N^5$标度，并随时间步数$N_t$线性增长，总计算量为$O(N^5 N_t)$。这种高维标度关系解释了其对高性能计算的强依赖性。
 ---
 ### 背景与概念  
@@ -3360,7 +2998,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -3386,15 +3024,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，用户问的是高性能计算（HPC）的进步，特别是exascale计算，如何推动聚变等离子体模拟能力的发展，特别是在高保真度、大规模、长时间尺度的多物理场耦合模拟方面。首先，我需要理解exascale计算是什么。Exascale指的是每秒计算次数达到10^18次，这比目前的超级计算机快很多，处理能力大大提升。
-聚变等离子体模拟非常复杂，涉及等离子体物理、电磁学、热传导、流体动力学等多个领域。以前由于计算能力的限制，模拟可能只能在较低分辨率下进行，或者只能处理单一物理过程。exascale的到来，将允许同时处理多个物理过程，提高模拟的准确性和细节。
-接下来，我得分析HPC进步对保真度、规模和时间尺度的具体影响。保真度方面，更高的分辨率意味着能够捕捉到更小的等离子体结构，如湍流和波动，这有助于更精确地预测聚变反应中的能量损失。规模方面，exascale可以处理更大体积的等离子体，比如 ITER 这样的大型托卡马克装置，甚至未来更大的装置，使得模拟更接近真实条件。时间尺度上，长时间模拟有助于研究等离子体的长期行为，比如稳定性控制和瞬态事件，这对实际运行至关重要。
-然后，考虑多物理场耦合模拟。等离子体模拟需要同时考虑电磁场、流体动力学、热传导、中性粒子输运等。exascale计算可以实现这些过程的同步模拟，而不仅仅是分开处理，从而更全面地反映实际情况。
-工程和实验意义方面，高保真模拟可以帮助优化聚变装置的设计，比如改进磁 confinement 或减少能量损失。此外，模拟结果可以指导实验设计，预测实验结果，从而节省实验时间和资源。同时，exascale计算还推动算法和数值方法的发展，以适应更高的计算需求，提高模拟效率。
-比较一下，exascale与之前的计算能力相比，最大的优势在于处理大规模、高分辨率模拟的能力。这使得聚变研究进入了一个新的阶段，从理论和实验的结合转向更加依赖模拟的阶段。未来的发展可能还需要结合AI和机器学习，进一步提升模拟的智能化和自动化水平。
-总的来说，HPC的进步，特别是exascale计算，将极大地推动聚变等离子体模拟能力的发展，使其在保真度、规模和时间尺度上都达到新的高度，从而为聚变能源的实际应用提供更强有力的支持。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 高性能计算（HPC）的进步，尤其是exascale计算能力的实现，将显著提升聚变等离子体模拟能力，在更高保真度、更大规模、更长时间尺度以及多物理场耦合模拟方面取得突破性进展。
 ---
 ### 背景与概念  
@@ -3437,7 +3067,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -3463,14 +3093,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，用户让我解释计算模型的验证（Verification）和确认（Validation）过程，也就是V&amp;V，以及它在聚变研究中的重要性。然后，还要说明如何用实验数据对复杂的等离子体模拟程序进行严格的V&amp;V。看来用户是从事聚变等离子体研究的，可能是在设计或优化托卡马克装置，或者是开发模拟软件。他们可能对V&amp;V流程不太熟悉，或者想了解如何在自己的工作中应用这些方法。
-首先，我需要明确V&amp;V的概念。Verification是检查代码是否正确实现，比如单元测试、收敛性测试和模块测试。而Validation则是将模型与实验结果对比，看看是否能准确预测实际情况。这两者都是确保模拟程序可靠性的关键。
-接下来，我得解释为什么这对聚变研究很重要。聚变环境非常复杂，等离子体高度非线性，包含多种物理过程。模拟这些过程需要高度精确的模型，任何小的错误都可能导致结果偏差。通过V&amp;V，可以确保模拟结果的可信度，从而指导装置设计和实验优化。
-然后，用户想知道如何利用实验数据进行严格的V&amp;V。我需要分步骤说明，比如数据选择的标准、验证和确认的具体步骤，以及如何利用数据进行参数估计和不确定性分析。此外，还要提到如何结合数值模拟和实验结果，通过敏感性分析和模型改进来提高模拟的准确性。
-可能用户还想知道V&amp;V在实际应用中的挑战，比如实验数据的可获得性、模型的复杂性以及计算资源的需求。所以，我还需要指出这些问题，并给出一些应对策略，比如使用标准测试案例、多数据源融合和国际合作。
-最后，总结一下V&amp;V的重要性，并强调其对聚变研究的长期意义，比如提高装置性能、降低研发成本和推动聚变能的实际应用。这样用户不仅了解了V&amp;V的流程，还能认识到它在实际工作中的价值。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 验证（Verification）和确认（Validation）（V&amp;V）是确保等离子体模拟程序可靠性的关键过程，通过系统性地检查模型的正确性（Verification）和与实验数据的吻合性（Validation），从而为聚变研究提供可信的数值工具。
 ---
 ### 背景与概念  
@@ -3521,7 +3144,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -3547,17 +3170,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在需要讨论人工智能（AI）和机器学习（ML）在聚变等离子体模拟和实时控制中的应用潜力和进展。这对我来说有点复杂，但我尽量理清楚思路。
-首先，AI和ML在科学领域应用广泛，特别是在处理大量数据和复杂模型方面。聚变等离子体研究涉及大量的模拟和实验数据，所以AI和ML在这里应该有用。
-在模拟方面，传统的方法可能需要复杂的物理模型和长时间的计算。AI和ML可能可以帮助构建代理模型，也就是简化版的模型，可以在更短的时间内进行预测。这样对于参数优化、设计优化等任务非常有用。例如，托卡马克装置有很多参数，如温度、压力、磁场配置等，调整这些参数以达到最佳的等离子体状态可能非常耗时。如果能用ML模型快速预测不同参数组合的结果，就能加快设计和优化过程。
-另外，代理模型还可以用来填补数据空白。由于实验数据有限，模型可以通过已有的数据进行训练，然后预测在未覆盖的区域可能的情况。这有助于探索更多的可能性，而不需要进行大量的实验。
-在实时控制方面，实时性是一个关键因素。等离子体的状态可能在瞬间变化，需要快速的控制响应来维持稳定。AI和ML可以用来实时监控等离子体的参数，预测可能的不稳定情况，比如破裂。破裂是等离子体突然失去约束，导致装置损坏，所以提前预测并采取措施是非常重要的。
-ML模型可以分析实时数据，识别出可能导致破裂的模式或前兆，然后触发预防措施，如调整磁场或注入冷却剂。此外，ML还可以用于控制等离子体的不稳定性，比如波动或涡旋，这些都会影响能量的约束和输运。通过实时调整控制参数，可以抑制这些不稳定性，维持更稳定的等离子体状态。
-在进展方面，已经有了不少的研究。例如，使用深度学习来预测等离子体的破裂风险，已经取得了不错的效果。还有用强化学习来优化等离子体的控制策略，以维持更长时间的稳定运行。此外，生成对抗网络（GANs）也被用来生成新的等离子体配置，帮助设计更高效的装置。
-尽管如此，AI和ML在聚变中的应用还面临一些挑战。例如，数据质量可能不足，聚变装置的运行时间有限，导致收集的数据量不够多，影响模型的训练效果。此外，模型的解释性也是一个问题，科学家需要理解模型的预测依据，而不仅仅是得到一个结果。因此，如何提高模型的透明度和可解释性是一个重要的研究方向。
-总结一下，AI和ML在聚变等离子体的研究和控制中显示出很大的潜力，尤其是在加速模拟、参数优化和实时控制方面。已经取得了一些进展，但仍需要克服数据和模型解释性等方面的挑战。未来，随着计算能力的提升和算法的改进，AI和ML在聚变能领域的应用前景会更加光明。
-&lt;/think&gt;
-### 人工智能和机器学习在聚变等离子体中的应用
+          <t>### 人工智能和机器学习在聚变等离子体中的应用
 #### 1. 背景与概念
 聚变能的研究依赖于复杂的物理模拟和实验，涉及众多参数和非线性过程。AI和ML技术通过处理大量数据和发现复杂模式，为加速模拟和实时控制提供了新的解决方案。
 #### 2. 在模拟中的应用
@@ -3577,7 +3190,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -3603,18 +3216,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好的，我现在要回答关于多尺度、多物理场集成建模的问题，特别是以托卡马克的芯部等离子体和边界/偏滤器等离子体的耦合为例。作为一个刚开始学习这个领域的人，我得先理清这些概念，然后逐步分析问题。
-首先，多尺度建模是什么？多物理场又是什么？我知道，多尺度指的是不同空间和时间尺度的物理过程，而多物理场则是指涉及多个物理现象，比如电磁、流体动力学、热传导等。集成建模就是把它们综合在一起，建立一个整体的模型。
-接下来，托卡马克的芯部等离子体和边界/偏滤器等离子体有什么不同呢？芯部等离子体是高温高密度的，主要发生聚变反应，而边界等离子体密度较低，温度也较低，主要负责与壁材料的相互作用，控制杂质的进入。它们之间耦合意味着芯部的变化会影响边界，反之亦然。
-那挑战在哪里呢？首先是尺度的问题，芯部和边界在空间上相差几个数量级，时间尺度也可能不同。直接建模可能会需要巨大的计算资源，所以需要不同的模型来处理不同的区域。
-然后，物理场的多样性。芯部可能主要涉及磁流体力学（MHD），而边界可能涉及等离子体与中性气体的相互作用，甚至气体动力学。这需要在模型中整合多种物理场，确保它们之间的耦合正确。
-还有数据和计算的挑战。因为模型涉及多个尺度和多个物理场，数据的交换和处理需要高效，否则计算时间会过长，影响实用性。
-解决方案方面，多尺度建模可能需要分层处理，比如在每个区域使用不同的模型，然后通过接口进行数据交换。多物理场的整合需要开发能够处理不同物理现象的软件框架，可能需要耦合不同模拟器，比如用GAP耦合MHD和气体动力学模型。
-另外，计算资源有限的情况下，可能需要使用降阶模型，或者采用并行计算来提高效率。同时，开发专门的软件框架来管理不同模型的交互也是关键。
-最后，工程应用需要考虑实际的实验条件，比如材料的选择、诊断工具的配置，这些都需要模型的指导。模型的改进和优化将有助于提升托卡马克的性能和可靠性。
-总结一下，多尺度、多物理场集成建模在托卡马克等离子体中面临的主要挑战是尺度差异、物理场的多样性以及数据处理的复杂性。解决方案包括分层建模、软件耦合、高效算法和实验数据的结合。这些措施将有助于建立更全面、准确的模型，为聚变能的研究提供支持。
-&lt;/think&gt;
-### 多尺度、多物理场集成建模的核心结论
+          <t>### 多尺度、多物理场集成建模的核心结论
 多尺度、多物理场集成建模是托卡马克等离子体研究的关键工具，需应对不同空间尺度、复杂物理场的耦合及计算资源挑战，通过分层建模、高效算法及实验数据反馈来实现。
 ---
 ### 背景与概念
@@ -3679,7 +3281,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -3705,20 +3307,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好吧，我现在得讨论一下用于模拟等离子体与壁相互作用（PMI）的计算方法，包括分子动力学（MD）、二元碰撞近似（BCA）以及流体/动理学耦合模型。这些问题涉及溅射、再沉积和表面演化。虽然我对这些模型不是很熟悉，但我会尽量分析，理解它们各自的作用和如何描述这些现象。
-首先，我想先了解什么是等离子体与壁相互作用（PMI）。等离子体是由带电粒子组成的物质状态，而托卡马克等装置中的等离子体会和周围的壁材料相互作用，比如发生溅射、沉积等过程。这些过程对聚变装置的运行和材料寿命有重要影响，所以模拟这些过程是非常重要的。
-接下来，我需要分别理解MD、BCA和流体/动理学耦合模型。分子动力学（MD）是一种基于牛顿运动定律的微观模拟方法，适用于描述原子级别的行为，如溅射的发生。MD能够捕捉到原子碰撞的细节，比如动能、角度、位点等因素。因此，MD在溅射机制和溅射产额方面表现良好。
-然后是二元碰撞近似（BCA），这种方法假设入射粒子仅与目标材料中的一个原子发生碰撞，适用于低密度、低温度的环境。BCA忽略了多粒子相互作用，但计算量较低。在溅射和再沉积方面，BCA可以提供大致的物理图像，但在处理复杂表面演化时可能不够准确。
-最后是流体/动理学耦合模型，它结合了宏观流体模型和微观动理学方法。流体模型描述等离子体的大尺度行为，而动理学方法处理颗粒轨迹，捕捉微观过程。这种方法适用于大尺度模拟，同时保留关键微观机制，适用于复杂的表面演化和颗粒轨迹追踪。
-那么，这些模型如何描述溅射、再沉积和表面演化呢？
-对于溅射，MD可以直接模拟原子碰撞过程，计算溅射产额和分布。BCA通过计算入射粒子与靶原子的碰撞概率，估计溅射产额。流体/动理学模型则结合颗粒轨迹和流体参数，评估溅射的宏观影响。
-在再沉积方面，MD无法追踪大量颗粒，适合微观研究。BCA计算颗粒沉积概率，用于估计再沉积速率和分布。流体/动理学模型追踪颗粒轨迹，结合流体条件，模拟大尺度的再沉积。
-至于表面演化，MD主要用于原子尺度的微观演化。BCA处理表面改性，用于分析表面结构变化。流体/动理学模型整合宏观表面变化和等离子体行为，预测长期的表面演变。
-每个模型都有各自的优缺点。MD精确但计算量大，适用于小尺度和高能量条件。BCA简单但忽略多体效应，适用于稀薄等离子体。流体/动理学模型综合了宏观和微观，适用于大尺度模拟，但依赖于模型假设。
-在工程或实验中的意义方面，这些模型帮助设计耐侵蚀材料，优化装置运行条件，理解材料寿命。未来的发展可能需要结合不同模型的优势，提高模拟的准确性和效率。
-总结一下，虽然我对这些模型的具体细节还不够清楚，但通过分析，我理解了它们各自在模拟PMI中的作用和局限性。接下来，我需要组织这些思路，按照用户的要求，分步骤详细描述每个模型，并分析它们在描述溅射、再沉积和表面演化中的应用。
-&lt;/think&gt;
-## 计算模拟方法及其对PMI现象的描述
+          <t>## 计算模拟方法及其对PMI现象的描述
 ### 分子动力学（MD）
 **定义与特点**  
 分子动力学是一种基于牛顿运动定律的微观模拟方法，能够详细描述原子级别的行为。它通过求解每个原子的运动方程，模拟系统随时间的演化。
@@ -3786,7 +3375,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -3812,18 +3401,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好吧，我现在得思考一下如何用计算模拟工具优化聚变装置的设计，比如说仿星器的磁体或偏滤器的几何形状。这个问题看起来挺复杂的，但我得一步步理清楚。
-首先，核心结论是什么？可能是在设计优化过程中，利用参数扫描和优化算法结合多物理场模拟，找到满足约束条件的最优解。这样就能在设计阶段节省时间和资源，同时提升装置的性能和可靠性。
-背景方面，计算模拟在聚变工程中确实很重要。仿星器和托卡马克的磁约束需要精确的几何设计，而偏滤器则负责处理高能粒子流，保护壁面。物理约束可能包括等离子体稳定性、磁场质量和热负荷分布，工程约束则涉及结构强度、制造可行性和成本。
-接下来，优化流程是怎样的呢？得分解成几个步骤。首先是参数化设计，把几何参数转换成可调的变量。然后是构建优化目标和约束，比如最小化偏滤器的热负荷同时满足磁场均匀性。
-模拟与仿真部分，需要考虑等离子体、电磁场和热流的复杂相互作用。可能需要使用多物理场耦合模拟工具，比如结合磁约束代码和热传导模型。每一轮设计迭代都需要运行这些模拟，评估性能。
-参数扫描与优化算法方面，先做初步的参数扫描，找出有潜力的设计区域。然后用优化算法，比如遗传算法或梯度下降，进一步搜索最优解。这个过程可能需要多次迭代，评估候选设计的性能。
-最后，评估与验证，最优设计需要经过严格的测试，可能包括实验验证。确保设计在实际运行中符合预期。
-不过，这中间可能会遇到什么问题呢？计算资源不足，可能导致模拟时间过长，影响效率。还有，多物理场的耦合可能导致复杂性增加，需要更精确的模型。此外，参数空间可能很大，如何高效地探索也是一个挑战。
-那有没有一些方法可以解决这些问题？比如使用代理模型（surrogate models）来替代复杂的仿真，减少计算成本。或者采用并行计算，加速模拟过程。
-总的来说，这个过程需要综合考虑物理模拟、优化算法和工程约束，逐步迭代，才能找到最优的设计方案。可能还需要不断学习和调整策略，以应对复杂的设计挑战。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 利用计算模拟工具进行聚变装置设计优化，可以通过参数扫描和优化算法在满足物理和工程约束的条件下，系统性地探索设计空间并找到最优解。
 ### 2. 背景与概念
 聚变装置的设计（如仿星器磁体或偏滤器几何）涉及复杂的物理和工程约束。优化目标可能包括改善等离子体约束性能、减少热负荷、降低成本或提高可靠性。参数扫描和优化算法结合多物理场模拟，能够系统性地探索设计空间，提供高效的解决方案。
@@ -3857,7 +3435,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -3883,19 +3461,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答的问题是关于在进行大规模聚变等离子体模拟时，数据管理、可视化和后处理面临的挑战，以及如何有效地从海量模拟数据中提取有用的物理信息。作为一个刚开始接触这个领域的人，我需要先理解问题的背景和核心概念。
-首先，我知道聚变等离子体模拟通常是非常复杂的，涉及大量的数据。这些数据来自于各种模拟，如托卡马克或仿星器的等离子体行为模拟。这些模拟会产生大量的三维数据，随着时间的推移而变化，数据量非常大。因此，数据管理、可视化和后处理可能会遇到很多问题。
-接下来，我需要分析具体有哪些挑战。数据管理方面，数据量大可能是一个问题，因为存储和处理这些数据需要大量的资源。另外，数据格式的多样性也可能导致管理和整合的困难。还有，数据的安全性和可访问性也是需要考虑的。
-在可视化方面，三维数据的呈现可能非常复杂，尤其是在高分辨率的情况下。传统的可视化方法可能无法有效处理如此大的数据量，导致渲染速度慢或者无法显示关键的物理特征。此外，如何在多维度数据中突出显示有用的信息也是一个挑战。
-后处理方面，面对海量数据，如何有效地提取有用的物理信息是一个难题。这需要开发高效的算法和工具，能够处理大量的数据并快速提取所需的信息。同时，如何将这些信息转化为有用的见解，比如发现等离子体的不稳定性或者优化控制参数，也是一个关键的问题。
-接下来，我需要思考如何有效解决这些问题。对于数据管理，可能需要引入高效的数据存储格式，比如 HDF5，这样可以提高数据的压缩率和访问速度。此外，元数据管理系统可以帮助更好地管理和查找数据，同时利用分布式存储和计算资源可以处理海量数据。
-在可视化方面，可能需要开发新型的可视化工具，能够处理大规模的数据。比如，使用并行计算和加速技术，如 GPU 加速，来提高渲染速度。另外，采用降维技术，如等值面提取或流线追踪，可以帮助突出显示关键物理特征。
-后处理方面，可以采用机器学习和数据挖掘技术来自动分析数据。例如，使用聚类分析识别不同的等离子体状态，或者使用回归分析预测关键参数对等离子体行为的影响。此外，高性能计算和分布式处理技术可以加速数据处理和分析，帮助研究人员更快地提取有用的信息。
-最后，我需要总结这些思考，指出关键的解决方案，比如高效的数据管理系统、先进的可视化工具和强大的后处理算法。这些方法将有助于更好地管理、分析和利用聚变等离子体模拟产生的海量数据，从而推动聚变能研究的进步。
-当然，在思考过程中，我可能忽略了一些方面，比如数据的安全性和隐私保护，或者不同数据格式之间的兼容性问题。这些都是需要进一步考虑的因素。此外，实际应用中可能需要结合多种方法和技术，才能达到最佳效果。
-总体来说，通过引入高效的数据管理、开发先进的可视化工具以及应用强大的后处理技术，可以有效应对大规模聚变等离子体模拟中的挑战，提取有用的物理信息，支持聚变能的研究和开发。
-&lt;/think&gt;
-在进行大规模聚变等离子体模拟时，数据管理、可视化和后处理面临以下挑战，并提出相应的解决方案：
+          <t>在进行大规模聚变等离子体模拟时，数据管理、可视化和后处理面临以下挑战，并提出相应的解决方案：
 ### 挑战分析
 1. **数据管理的挑战**
    - **数据量庞大**：聚变模拟产生的三维数据集通常以 TB 甚至 PB 级别存在，传统存储方法难以应对。
@@ -3983,7 +3549,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4009,24 +3575,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在需要详细分析p-¹¹B聚变相对于D-T聚变在几个方面的优势，以及为什么p-¹¹B被称为“清洁”燃料。首先，我要理解这两种聚变反应的基本原理和各自的特点。
-D-T聚变是指氘（²H）和氚（³H）的聚变反应，产生氦-4（⁴He）和一个中子，释放大量能量。而p-¹¹B聚变则是指质子（¹H）与硼-11（¹¹B）的聚变，产生两个氦-4原子核，同样释放能量。
-接下来，我需要分析几个方面：
-1. **燃料特性**：D-T聚变使用氘和氚，而p-¹¹B使用质子和硼-11。氘和氚在自然界中相对较少，尤其是氚，是放射性的，半衰期较短，需要不断生产。而硼在自然界中较为丰富，质子也是容易获取的，所以p-¹¹B在资源丰富性和可持续性方面有优势。
-2. **反应产物**：D-T聚变的产物是氦和中子，而p-¹¹B聚变的产物是两个氦核。氦是惰性气体，不会引起核废料问题，而D-T反应中的氦可能带来一些挑战，比如在材料中的积累。不过，这里需要注意，p-¹¹B反应中的氦都是⁴He，而D-T反应中可能产生⁴He和²He（但实际上是³He？或者可能有其他产物？可能需要再查证。）
-3. **中子产生**：D-T反应会产生快中子，这些中子会引起材料活化和核废料的产生。而p-¹¹B反应在某些情况下可能产生较少的中子，或者中子能量较低，甚至在某些机制下可能几乎不产生中子，从而减少材料活化问题。比如，如果聚变反应本身不生成中子，那么材料活化将显著减少。
-4. **材料活化**：由于D-T反应产生中子，反应堆材料会被活化，产生放射性废物。而p-¹¹B反应如果中子产生很少，那么材料活化问题会减轻，甚至可能不需要处理大量的放射性废料。
-5. **潜在能量转换方式**：在D-T反应中，释放的能量主要通过热的方式传递，可能需要传统的蒸汽轮机来发电，同时需要处理中子和辐射问题。而p-¹¹B反应如果在某些机制下，如利用反应生成的氦的动量，可能可以采用更直接的能量转换方式，比如磁流体发电机，从而提高效率。
-接下来，我需要具体分析每个方面：
-- **燃料特性**：D-T中的氚必须通过裂变反应产生，比如在核反应堆中使用锂的富集。这不仅增加了复杂性，还引入了放射性问题。而p-¹¹B中的硼在地壳中储量丰富，质子可以从水或其他来源获得，所以更容易获取和储存。
-- **反应产物**：D-T聚变的产物是³He和快中子，可能带来资源管理和放射性问题。而p-¹¹B聚变的产物是两个⁴He原子核，不会引起核废料问题，而且氦是惰性气体，对环境无害。
-- **中子产生**：D-T反应释放大量快中子，这些中子会引起材料活化，产生放射性同位素。而p-¹¹B反应如果设计得当，可能不会产生中子，从而避免这些问题。或者在某些情况下，即使产生中子，数量也会少得多，能量也较低，对材料的影响较小。
-- **材料活化**：由于p-¹¹B反应产生的中子较少，材料活化程度较低，反应堆的维护和退役过程会更简单，也更安全。
-- **能量转换**：D-T反应需要使用蒸汽轮机，效率较低，且中子和辐射对材料的寿命有影响。而p-¹¹B反应可能采用更高效的转换方式，如磁流体发电，直接利用聚变产物的动能，提高能源转换效率。
-为什么p-¹¹B被称为“清洁”燃料？主要是因为其反应产物不含放射性物质，不需要处理大量的放射性废料，同时中子产生少，材料活化问题小，整体对环境和人体健康的影响较低。
-可能还需要考虑经济性和技术可行性，尽管p-¹¹B在理论上更有优势，但目前技术上实现起来可能更困难，比如需要更高的温度和压力，或者更复杂的等离子体控制。然而，长远来看，p-¹¹B的“清洁”特性使其成为更具潜力的聚变燃料。
-&lt;/think&gt;
-### **详细分析p-¹¹B聚变相对于D-T聚变的优势及“清洁”原因**
+          <t>### **详细分析p-¹¹B聚变相对于D-T聚变的优势及“清洁”原因**
 #### **1. 核心结论**
 p-¹¹B聚变因燃料资源丰富、无中子辐射、无放射性产物和材料活化少而被视为“清洁”的聚变燃料。
 ---
@@ -4079,7 +3628,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -4105,16 +3654,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好，我需要解决的问题是估算p-¹¹B聚变中轫致辐射功率密度PBrem与聚变功率密度Pfus的比值，并讨论这一比值对聚变构成的挑战。
-首先，我得理解问题中的参数。已知理想点火温度Ti约为300keV，等离子体密度ne约为6倍的nB，其中nB是硼离子的密度，质子和硼离子的比例是1:1。电子温度Te等于Ti。
-接下来，我需要明确相关的公式。聚变功率密度Pfus可以用反应速率乘以释放的能量来计算，即Pfus = n_p * n_B * ⟨σv⟩_pB * ⟨Q⟩_pB。而轫致辐射功率密度PBrem则涉及电子和离子之间的库仑相互作用，公式为PBrem = (64/3) * π * Z^2 * e^4 * n_e * (k_B T_e)^2 / (m_e^2 c^3)。
-在计算比值PBrem/Pfus时，我需要将这两个表达式代入并进行化简。假设n_p = n_B，这样可以进一步简化表达式，得到PBrem/Pfus ≈ (64/3) * π * Z^2 * e^4 * (k_B T_e)^2 / (m_e^2 c^3) * m_p / (⟨σv⟩_pB * ⟨Q⟩_pB) * (1 / n_B)。
-然后，我需要考虑代入具体数值，比如T_e = 300keV，Z=5，e的电荷，k_B，m_e，c，m_p，以及⟨σv⟩_pB和⟨Q⟩_pB的典型值。这将帮助我估算具体的数值比值。
-然而，问题中要求的是表达式的符号形式，因此我需要保持公式中的符号不变，只是进行简化，以便清晰地展示各变量之间的关系。
-接下来，我需要分析为什么这个比值对p-¹¹B聚变是一个挑战。这可能涉及到聚变反应的困难性、高密度或高温的需求，以及辐射损失带来的能量消耗。
-最后，我需要总结这一比值的表达式，并讨论其对聚变设计和运行的意义，特别是如何通过提高反应速率或控制等离子体参数来降低辐射损失，从而提高聚变效率。
-&lt;/think&gt;
-### 1. **核心结论**
+          <t>### 1. **核心结论**
 在 p-¹¹B 聚变中，轫致辐射功率密度与聚变功率密度的比值表达式为：
 $$
 \frac{P_{\text{brem}}}{P_{\text{fus}}} \approx \frac{16 \pi^2 Z^2 n_e (k_B T_e)^2 m_p}{3 e^4 \hbar^2 \langle \sigma v \rangle_{pB}}
@@ -4183,7 +3723,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -4209,23 +3749,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，今天我要讨论的是在p-¹¹B等离子体中，离子温度（Ti）与电子温度（Te）的关系，以及这对聚变功率和辐射损失的影响。同时，我还需要探讨为什么通常需要维持Ti大于Te，以及在实现和维持这种非平衡态时，加热和约束方面面临哪些挑战。
-首先，我需要理解p-¹¹B聚变的基本原理。p-¹¹B聚变是一种三重态聚变反应，释放的氦-3和中子，与其他聚变反应相比，产生的中子能量较低，这可能对材料的寿命有好处。但是，反应的截面相对较小，因此需要更高的温度来触发反应，具体来说，离子温度需要达到约100 keV，也就是约1.15亿摄氏度。
-接下来，Ti与Te的关系。聚变反应的速率与离子温度的平方成正比，因此较高的Ti有助于提高聚变功率。另一方面，电子温度影响等离子体的辐射损失，因为辐射主要由电子决定，尤其是通过布雷特辐射（Thomson radiation）。如果Te过高，辐射损失会增加，可能导致聚变反应的能量不足以维持等离子体的高温，从而降低聚变功率。
-因此，维持Ti大于Te是为了优化聚变功率，同时减少辐射损失。这似乎是一个关键的平衡点，但具体是如何影响的呢？我需要进一步分析。
-在等离子体中，能量主要通过离子和电子之间的碰撞进行传递。如果Ti高于Te，意味着离子的动能较高，而电子的动能较低，这有助于减少电子的辐射损失。此外，较高的离子温度还能促进聚变反应，因为离子需要克服库仑势垒，更高的温度可以增加离子的动能，从而增加反应的速率。
-但是，如何实现和维持这种非平衡态呢？加热和约束是两个主要方面。
-在加热方面，主要的方法包括中性束注入（NBI）和射频加热（如ICRH和ECRH）。中性束注入通过注入高能中性粒子，这些粒子在等离子体中被电离，从而加热离子。射频加热则可以同时加热离子和电子，但通过调整频率和功率，可以实现对离子的选择性加热，从而维持Ti高于Te。
-在约束方面，托卡马克装置通过强磁场来约束等离子体。然而，磁场的不稳定性，如涡流、锯齿运动等，可能导致能量的快速损失，从而破坏Ti与Te的平衡。因此，需要精确的控制和诊断，以监测等离子体参数，及时调整加热和约束措施。
-此外，等离子体中的电流驱动也是一个重要因素。射频加热不仅用于加热，还可以用于驱动等离子体电流，从而影响等离子体的稳定性。如果电流驱动不当，可能导致等离子体的不稳定，进一步影响温度平衡。
-在实验中，维持Ti大于Te可能面临的主要挑战包括：
-1. **能量损失**：如果Te过高，电子的辐射损失会增加，导致聚变能量不足以维持高温，从而影响聚变功率。
-2. **加热效率**：选择性加热离子的效率可能受到限制，特别是在高密度或高温条件下，离子加热可能不如预期有效。
-3. **稳定性控制**：高温等离子体的稳定性可能受到加热和约束的影响，需要精确的控制和诊断技术来维持稳定的温度分布。
-4. **诊断挑战**：准确测量Ti和Te可能具有挑战性，特别是在高温和高密度条件下，需要先进的诊断工具来监测等离子体参数。
-综上所述，维持Ti大于Te是优化聚变功率和减少辐射损失的关键。然而，实现和维持这种非平衡态需要克服加热和约束方面的多种挑战，包括能量损失、加热效率、稳定性控制和诊断技术。未来的研究需要进一步优化加热方法，提高约束性能，并开发更先进的诊断工具，以实现高效稳定的聚变反应。
-&lt;/think&gt;
-在p-¹¹B等离子体中，离子温度（Ti）与电子温度（Te）的关系对聚变功率和辐射损失具有重要影响。维持Ti &gt; Te是优化聚变功率并减少辐射损失的关键。以下是详细的分析和结论：
+          <t>在p-¹¹B等离子体中，离子温度（Ti）与电子温度（Te）的关系对聚变功率和辐射损失具有重要影响。维持Ti &gt; Te是优化聚变功率并减少辐射损失的关键。以下是详细的分析和结论：
 ---
 ### 1. **核心结论**
 维持离子温度（Ti）高于电子温度（Te）可以优化聚变功率并减少辐射损失。然而，实现和维持这种非平衡态在加热和约束方面面临多重挑战。
@@ -4268,7 +3792,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -4294,15 +3818,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，今天用户问了一个关于聚变物理的问题，特别是“α粒子通道效应”（alpha channeling）的物理机制，以及它如何改善p-¹¹B聚变的能量经济性。我需要详细分析这个问题，确保回答准确且有深度。
-首先，我得明确“α粒子通道效应”是什么。我记得这是在等离子体中，特定条件下的集体效应，α粒子通过某种方式将能量传递给燃料离子。这可能涉及到射频波或者其他机制。我需要回忆相关的物理理论，比如Landau阻尼和波-粒子相互作用。
-接着，用户提到p-¹¹B聚变，这是三重态聚变反应，产物是α粒子，效率低，能量经济性差。所以用户想知道α粒子通道效应如何改善这种情况。这可能是因为α粒子能更有效地加热燃料离子，或者直接转化为电能，减少能量损失。
-然后，我需要分析物理机制。α粒子在等离子体中的运动可能激发某些波，比如慢波或快波。这些波通过Landau阻尼将能量传递给燃料离子。或者，通过波-粒子相互作用，α粒子的能量被高效利用，而不是通过传统的方式（如碰撞）耗散，这样能减少能量损失。
-关于工程意义，改善能量经济性可能意味着更高的增益（Q值）。如果α粒子的大部分能量能被重新利用，那么燃料离子的加热效率提高，可能减少外部加热的需求，进而提高整体的能量转换效率。对于聚变装置设计，这可能涉及到优化波的频率、振幅以及等离子体参数，比如密度、温度等。
-比较与拓展方面，传统的能量利用方式是通过α粒子的动能加热等离子体，但这种方法效率不高，可能有较大的能量损失。而α粒子通道效应可能是一种更高效的方式，尤其适用于像p-¹¹B这样的聚变燃料，因为它们产生的α粒子数目较少，但每个粒子的能量较高。这可能需要进一步的研究和实验来验证其可行性。
-最后，我需要确保回答结构清晰，每个部分都涵盖必要的内容，比如核心结论、背景与概念、原理推导、定量估算、工程意义、比较拓展和总结。同时，保持语言专业但不失清晰，确保用户能够理解其中的物理机制和应用潜力。
-&lt;/think&gt;
-### 1. **核心结论**  
+          <t>### 1. **核心结论**  
 α粒子通道效应是一种利用等离子体中集体波-粒子相互作用，将α粒子的动能高效转化为燃料离子加热或直接能量转换的机制。它能够改善p-¹¹B聚变的能量经济性，通过减少能量损失并提高能量利用率。
 ---
 ### 2. **背景与概念**  
@@ -4346,7 +3862,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -4372,14 +3888,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，用户问的是TAE Technologies在FRC约束p-¹¹B等离子体方面的优势，以及他们在NBI驱动方面的进展。首先，我得先理解FRC和托卡马克的区别。FRC是场反位形，利用磁场来约束等离子体，而托卡马克则使用环形磁笼结构。高β意味着等离子体压强很高，这对约束的要求更高。
-TAE用的是硼和氢的同位素，p-¹¹B，这会产生氦-3，作为聚变燃料。这种燃料的好处是无中子，更安全。但等离子体温度需要很高，可能在100-200keV左右，这比托卡马克的温度要高很多，因为托卡马克通常在几keV的范围内。
-FRC在高β下的优势可能在于磁场的结构，因为FRC的磁场配置可以更有效地约束高β等离子体，可能减少了磁力线的断裂风险。此外，FRC通常具有更低的离心效应，可能在高β下更稳定。
-关于NBI驱动，中性束注入是托卡马克常用的加热和驱动电流的方法。TAE在FRC中应用NBI可能面临不同的挑战，比如等离子体密度和中性束的能量沉积效率。他们可能在提高注入束的能量和束流的控制方面有进展，比如优化注入角度和位置，以最大化能量沉积并维持稳定的等离子体状态。
-另外，FRC的非中性等离子体可能对NBI的性能产生影响，可能需要特殊的注入系统来适应这些条件。TAE可能还开发了新的诊断方法，来监测等离子体的响应，以调整NBI的参数。
-总结一下，FRC在高β、高温等离子体约束方面可能更具优势，而TAE在NBI驱动方面可能实现了高效的加热和电流驱动，支持了FRC的稳定运行。这些进展有助于推动聚变能的实用化。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 FRC（场反位形）在约束高β、高温等离子体方面具有潜在优势，尤其是其较低的磁压力和非圆形截面设计有助于降低等离子体不稳定性。TAE在NBI（中性束注入）驱动FRC方面的关键进展包括实现了高效的NBI加热和电流驱动，以及在高β等离子体稳态运行中的突破。
 ---
 ### 2. 背景与概念  
@@ -4407,7 +3916,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -4433,16 +3942,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答的问题是关于HB11 Energy等公司提出的激光驱动p-¹¹B聚变方案，特别是质子快点火的基本原理，以及与磁约束p-¹¹B聚变相比在实现聚变条件方面的异同和独特挑战。这个问题涉及聚变物理和工程方面的知识，我需要仔细思考并逐步分析。
-首先，我得明确激光驱动p-¹¹B聚变的基本原理。我记得p-¹¹B聚变是一种无中子的聚变反应，产物是三个α粒子，这种反应在资源上具有优势，因为硼在自然界中很丰富。激光驱动指的是使用高功率激光器来驱动聚变燃料，可能涉及到惯性约束聚变的概念。
-质子快点火可能是一种特定的点火机制，不同于传统的热点火。传统点火依赖于压缩燃料使其达到足够的温度和密度，而快点火可能利用质子束快速加热燃料中心，从而更高效地实现点火条件。
-接下来，我需要比较激光驱动与磁约束（如托卡马克）驱动的p-¹¹B聚变。磁约束方法依赖于长时间的等离子体约束，利用强磁场来限制高温等离子体，使其有足够的时间和空间发生聚变反应。而激光驱动可能更倾向于在极短时间内，通过极高的压力和温度来触发聚变，这可能涉及到惯性约束的概念，燃料被迅速压缩并加热，从而在短时间内释放大量能量。
-在实现聚变条件方面，激光驱动可能需要极高的激光能量和极短的脉冲时间，而磁约束则需要维持长时间的高密度、高温等离子体。两者的挑战可能各不相同，比如激光驱动可能面临如何有效压缩燃料和避免不对称性，而磁约束可能需要更复杂的磁场设计和材料选择，以应对高能粒子的冲击。
-独特的挑战可能包括激光驱动中的燃料注入、点火机制的稳定性，以及如何处理生成的α粒子的动量沉积，避免破坏未反应的燃料。此外，重复率和系统效率也可能是一个问题，激光驱动可能需要频繁的高能量脉冲，这对激光系统的寿命和维护提出了挑战。
-我还需要考虑两者的效率和资源利用情况。p-¹¹B作为聚变燃料，无中子的优势在磁约束和激光驱动中都适用，但实现条件的差异可能会影响整体效率和系统的复杂性。
-总的来说，我需要系统地分析每个部分，确保覆盖所有关键点，并清晰地解释原理、比较异同和指出挑战。可能还需要回顾相关的物理方程，如惯性约束聚变中的压缩和加热机制，以及磁约束中的等离子体约束方程，这将有助于更深入的理解和比较。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 激光驱动p-¹¹B聚变通过质子快点火机制实现高效聚变，其主要原理是利用激光驱动的质子束快速加热燃料中心，触发自持聚变。与磁约束聚变相比，激光驱动具有点火速度快、无中子辐射的优点，但面临燃料压缩对称性、聚变能量输出效率等挑战。
 ### 2. 背景与概念
 p-¹¹B聚变是一种无中子的聚变反应，其产物为三个α粒子，不会产生放射性废物，资源丰富。激光驱动聚变利用高功率激光器压缩并加热燃料，类似于惯性约束聚变（ICF）。质子快点火是一种创新的点火机制，不同于传统的热点火，它使用质子束直接加热燃料中心，以实现更高效的聚变点火。
@@ -4478,7 +3978,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -4504,15 +4004,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论D-³He聚变燃料循环的特点、优势和挑战，还有自旋极化燃料对反应率和产物角分布的影响。首先，我得理清楚D-³He的基本情况。D是氘，³He是氦-3，它们都是轻元素，聚变温度相对较低，适合托卡马克这类磁约束装置。
-优势方面，中子产额低这点很重要，因为中子会引起材料活化和辐射问题，而D-³He反应主要产生质子和α粒子，带电粒子，这可能更有利于能量回收。另外，中子能量分布低，可能减少对材料的损害，这点对聚变堆设计有利。
-但是，D-³He燃料循环的主要挑战是³He的来源和供应。³He在地球上非常稀少，主要来自天然气开采，总量有限，无法大规模使用。另一种可能是从月球开采，但成本和技术门槛都很高。另外，聚变需要高密度、高温度的等离子体，而³He可能因为其特性让等离子体稳定性较差，运行参数可能更苛刻，这增加了实验和工程的难度。
-接下来是自旋极化燃料对反应率和产物角分布的影响。我记得自旋极化可以影响聚变反应的概率。对于D-³He，极化可能提高反应截面，增加反应率。因为自旋态的排列会改变核之间的相互作用，从而影响反应的可能性。所以，使用极化燃料可以提升聚变效率，这在能源输出上有积极影响。
-至于产物角分布，反应过程中产物的方向可能与反应物的自旋状态有关。极化燃料可能会导致产物在特定方向上的分布更集中，这可能对聚变堆的工程设计有帮助，比如优化能量收集系统，提高效率。
-不过，自旋极化的实际应用还需要考虑很多因素。比如，如何高效地极化大量燃料，这在工程上可能面临技术难题。此外，极化状态的保持也是一个挑战，因为在高温高能的等离子体环境中，自旋状态可能会很快退化。
-总的来说，D-³He燃料循环在中子减少和产物可控性方面有优势，但³He的供应问题是个大挑战。自旋极化技术有可能提升反应效率，但实际应用中还有许多技术和工程上的障碍需要克服。
-&lt;/think&gt;
-### D-³He聚变燃料循环的特点、优势和挑战
+          <t>### D-³He聚变燃料循环的特点、优势和挑战
 #### 1. 核心结论
 D-³He聚变燃料循环具有中子产额低、带电粒子产物为主的优势，但也面临³He燃料来源稀缺和供应难题的主要挑战。自旋极化燃料有望提高反应率并影响产物角分布。
 #### 2. 背景与概念
@@ -4545,7 +4037,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4571,16 +4063,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，今天有个用户问关于缪子催化聚变的问题，我觉得这挺有意思的，但因为自己对这个领域的了解还不够深入，得好好想想怎么回答。
-首先，用户的问题是关于缪子催化聚变的基本原理，为什么它可以在低温下发生，当前面临的主要瓶颈，以及可能的解决方案。嗯，我得先回忆一下缪子催化聚变的原理。
-我记得缪子是一种比电子重很多的粒子，带有负电，和质子结合后可以形成muonic氢。这样，氢原子的大小会大大缩小，因为质量更大，库仑势阱更浅。这样一来，原子核之间的距离更近，更容易发生聚变反应，温度就可以降低很多，甚至在常温下就能发生。这应该是μCF的基本原理。
-接下来，为什么可以在较低温度下发生。因为缪子的存在改变了原子的结构，使得原子核更靠近，降低了聚变所需的动能。这可能涉及到库仑势垒的降低，所以温度不需要那么高。
-然后，当前的主要瓶颈是什么。根据我的记忆，其中一个瓶颈是α粒子的粘滞问题，也就是聚变产生的α粒子被缪子催化的等离子体捕获，导致连锁反应难以维持，因为α粒子的动能不足以逃脱，可能被再次捕获，影响反应效率。另一个瓶颈是缪子的产生成本非常高，因为需要高能粒子加速器来生成缪子，能量消耗大，效率低，这限制了μCF的实用化。
-可能的解决方案，我得想想有没有什么办法可以解决这些问题。比如，针对α粒子粘滞问题，或许可以设计特殊的反应堆结构，让α粒子更容易逃脱，或者优化等离子体参数，减少它们被捕获的机会。对于缪子产生成本的问题，可能需要开发更高效的缪子源，或者寻找其他方式降低生产成本，比如利用更高能量的加速器或者其他粒子源。
-不过，我可能记错了，所以得再确认一下。另外，用户可能想知道更详细的技术细节或者最新的研究进展，所以回答时需要涵盖这些方面，并且指出目前的研究方向和挑战。
-总的来说，我需要组织一个结构清晰的回答，涵盖原理、低温原因、瓶颈和解决方案，同时保持专业性和准确性。可能的话，加入一些方程和实际参数，这样回答会更全面。
-&lt;/think&gt;
-### 缪子催化聚变（Muon-Catalyzed Fusion, μCF）的基本原理
+          <t>### 缪子催化聚变（Muon-Catalyzed Fusion, μCF）的基本原理
 #### 核心结论  
 缪子催化聚变通过利用重达电子207倍的负缪子与质子结合形成“缪子氢”，显著缩短了原子核间距，从而大幅降低聚变反应所需的温度。
 #### 背景与概念  
@@ -4652,7 +4135,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4678,16 +4161,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在需要详细分析直接能量转换（DEC）技术对于p-¹¹B和D-³He这两种先进聚变燃料的重要性，并介绍几种可能的DEC方案及其技术挑战和效率预期。首先，我应该明确什么是DEC技术。DEC是一种利用带电粒子的动能直接转化为电能的方法，而传统的方法是通过热交换，效率较低。
-接下来，我应该了解p-¹¹B和D-³He这两种燃料的特点。p-¹¹B聚变反应的主要产物是α粒子（氦-4核）和中子，但中子是不带电的，无法被磁场引导，所以无法直接进行能量转换。然而，这里可能有些混淆，因为D-³He反应的产物是质子和α粒子，都是带电粒子，所以对于D-³He燃料，DEC是非常适用的。而p-¹¹B反应的中子比例较高，所以可能需要其他的处理方式。
-现在，我要考虑几种可能的DEC方案。首先，磁镜减速和收集系统，这是利用磁场来减速和收集带电粒子。然后是静电收集系统，通过电场来捕获带电粒子。还有逆冲射流法，这种方法可能利用流体动力学来收集能量。
-对于技术挑战，每个方案都有不同的问题。比如，磁镜系统可能需要高磁场，体积大，成本高。静电系统可能面临绝缘和电弧的问题，尤其是高能粒子可能导致电弧放电。逆冲射流法则可能需要非常稳定的流体供应和高效的能量转换机制。
-效率方面，每种方法都有其上限。磁镜系统可能在50%左右，静电系统可能略低，逆冲射流法则可能较低，因为涉及更多的热损失。同时，这些效率都依赖于如何有效引导和捕获带电粒子，避免粒子逸出。
-然后，我应该比较这些方案的优缺点，例如磁镜系统适合高能粒子但成本高，静电系统适合低能粒子但面临电弧问题，逆冲射流法可能在能量密度上有优势，但需要复杂的流体管理。
-最后，我需要总结这些DEC方案对聚变装置设计的意义，指出提高效率、降低成本和优化运行的关键点，以及未来技术发展的方向，比如新型材料、高效绝缘技术等。
-现在，我应该按照这些思路组织内容，确保每个部分都有足够的细节，但避免过于冗长。同时，要使用清晰的小标题和项目符号，使结构更易读。
-&lt;/think&gt;
-### 直接能量转换（DEC）技术对于先进聚变燃料的重要性
+          <t>### 直接能量转换（DEC）技术对于先进聚变燃料的重要性
 **核心结论**  
 直接能量转换（DEC）技术能够高效利用聚变反应中带电粒子的能量，特别适用于p-¹¹B和D-³He等先进燃料，显著提高能源转换效率，减少传统热力学循环的热损失。
 **背景与概念**  
@@ -4718,7 +4192,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -4744,15 +4218,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，用户想让我评估发展p-¹¹B聚变反应堆的长期前景，特别是从系统工程和经济性角度出发，还要考虑非技术性的障碍。首先，我得回顾一下p-¹¹B聚变的基本原理和优势。
-p-¹¹B聚变的最大优势是它的产物是无中子的，所以辐射低，对材料的损伤也较小，理论上这会提高反应堆的寿命和安全性。而且，氦的处理相对简单，可能会减少氚的依赖，降低成本和复杂性。
-接下来，系统工程的角度，我需要考虑整个反应堆的系统设计。比如，如何高效地收集氦并将其转化为电能？直接循环还是先冷却？这些都涉及到热力学循环的选择和优化，可能会提高效率，降低成本。
-经济性方面，p-¹¹B的资源丰富，但这需要大量的硼矿开采，可能涉及环境和社会成本。另外，反应堆的建造成本高，尤其是要处理高聚变产物能量的问题，这可能需要更复杂的系统设计，比如更好的材料和结构。
-然后是非技术性障碍。研发需要大量的投入，尤其是初期阶段，可能需要政府和私营企业的合作。政策支持也很关键，包括核能政策、资金投入和国际合作。公众的接受度可能是一个大问题，因为公众对核能的恐惧，尤其是聚变能的普及度还不够高，可能需要加强科普教育和透明度。
-资源供应也是一个问题。p-¹¹B需要提取硼并同位素分离，这在技术上是可行的，但成本可能很高，影响经济性。国际合作方面，可能需要各国共同努力，分担研发和建设的成本，促进技术共享。
-总体来看，虽然p-¹¹B聚变有很多潜在的优势，但在技术和经济性上还有许多挑战需要克服。非技术性的障碍，如研发资金、政策支持和公众接受度，同样重要，甚至可能决定项目能否成功。因此，在推进技术发展的同时，也需要在政策制定、国际合作和公众沟通方面投入足够的资源。
-&lt;/think&gt;
-### 从系统工程和经济性角度综合评估p-¹¹B聚变反应堆的长期前景
+          <t>### 从系统工程和经济性角度综合评估p-¹¹B聚变反应堆的长期前景
 #### **1. 核心结论**  
 p-¹¹B聚变反应堆具有显著的技术优势（如无中子辐射、低核废料），但其发展面临复杂的系统工程挑战和高昂的经济成本。长期前景的关键在于解决技术难点的同时，获得足够的政策支持、研发投入和公众接受度。
 ---
@@ -4866,7 +4332,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4892,16 +4358,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我最近在学习聚变等离子体物理，特别是关于理想磁流体力学（MHD）的内容。我需要理解理想MHD的基本方程组及其核心假设，以及如何用能量原理分析MHD不稳定性。让我一步一步地梳理这些概念。
-首先，理想MHD的基本方程组。我记得理想MHD有四个主要方程：连续方程、动量方程、能量方程和磁高斯定律。这些方程组描述了等离子体在磁场中的运动。连续方程涉及质量和动量守恒，动量方程则考虑了电磁力、压力梯度和粘性力等。能量方程则处理能量的转化和传输，而磁高斯定律确保磁场的无散度性质。
-接下来是核心物理假设。理想MHD假定等离子体是完全导电的，这意味着磁通线被冻结在等离子体中，不会发生磁重联。此外，它忽略粘性和热传导效应，专注于大尺度的流动和磁场相互作用。这些假设简化了问题，使得理想MHD适用于描述宏观尺度的等离子体行为，但可能会忽略一些细节过程。
-然后是能量原理分析MHD不稳定性。能量原理涉及到总能量的计算，包括磁能、动能和热能。为了分析稳定性，需要考虑扰动后的能量变化。稳定条件是总能量在扰动后是否有增长的趋势。如果存在导致能量增长的扰动模，那么系统就是不稳定的。
-在具体应用能量原理时，首先设定基准态，通常是轴对称的稳态等离子体，如托卡马克中的环形等离子体。接着，引入小扰动，假设这些扰动量级很小，可以用线性近似来处理。然后，计算总能量的变化，分析是否存在导致能量不断增长的扰动模式。如果存在这样的模式，系统就是不稳定的，否则是稳定的。
-在能量计算中，需要注意的是总能量的各个组成部分如何相互影响。例如，磁能的增加可能伴随着动能或热能的变化。通过详细分析这些能量的变化，可以确定系统是否能够恢复到初始状态，或者会进一步发展导致不稳定性。
-最后，能量原理的应用需要考虑物理系统的对称性和边界条件。不同的对称性可能导致不同的不稳定模式。例如，在托卡马克中，磁流体不稳定性可能包括锯齿运动、边缘局域模式（ELMs）等。理解这些模式对设计和优化聚变装置至关重要。
-在整个过程中，我需要确保自己理解每个方程的物理意义，以及它们之间的相互关系。同时，要清楚理想MHD的假设限制了它的适用范围，但同时也简化了问题，使其成为研究等离子体行为的重要工具。通过学习和应用这些知识，我希望能更好地理解和预测聚变装置中的等离子体行为，为未来的聚变能源研究做出贡献。
-&lt;/think&gt;
-### 理想磁流体力学（MHD）的基本方程组
+          <t>### 理想磁流体力学（MHD）的基本方程组
 理想MHD的基本方程组由四个方程组成，分别是：
 1. **连续方程（质量守恒）**：
    \[
@@ -4972,7 +4429,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -4998,19 +4455,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要解释Grad-Shafranov方程，它在托卡马克等离子体平衡中的作用。首先，我记得Grad-Shafranov方程是描述等离子体在托卡马克中磁流体力学平衡的关键方程。它是一个二维的椭圆型偏微分方程，但具体是怎么推导出来的呢？
-我应该从托卡马克的磁配置开始，托卡马克通过环形的线圈产生外部磁场，加上等离子体自身的电流来维持等离子体的约束。等离子体中的电流分布和压强分布是关键因素，它们会影响磁场的分布。Grad-Shafranov方程把这些因素都考虑进去了。
-让我回忆一下推导过程。首先，考虑磁流体力学中的平衡状态，即等离子体的惯性力为零，磁力和压强梯度力的平衡。然后，引入柱坐标系，假设问题是对称的，这样可以简化方程。
-方程里面涉及到一些变量，比如ψ是磁流函数，B是磁场，J是电流密度，p是压强。还有外部磁场的影响，可能需要通过边界条件来处理线圈的配置。
-推导过程中会用到一些假设，比如位移电流忽略不计，磁冻结效应等等。还有可能涉及磁压力和磁场张力的平衡。
-接下来，关于求解Grad-Shafranov方程，我需要说明它如何依赖于等离子体的电流分布和压强分布，以及外部线圈的配置。电流分布影响电流密度J，而压强分布影响压强梯度项。外部线圈的配置会影响边界条件，从而影响整个磁场的分布。
-可能还需要讨论不同电流分布模型，比如均匀分布或更复杂的分布，以及不同的压强分布，比如高斯型分布。这些不同的假设会导致不同的解，进而影响等离子体的约束效果。
-此外，我还应该提到求解Grad-Shafranov方程的方法，比如数值方法，如有限差分法或谱方法，以及解析方法在特定情况下的应用。这些方法的选择会影响计算的复杂性和精度。
-最后，总结Grad-Shafranov方程的重要性，它在设计和优化托卡马克装置中的作用，以及它对理解等离子体行为的贡献。可能还需要提到一些实际应用的例子，比如 ITER 装置中的磁场设计和等离子体控制。
-等等，我是否漏掉了某些关键点？比如边界条件的重要性，或者不同几何对称性下的解？还有，是否应该强调 Grad-Shafranov 方程在实验诊断和理论建模中的实际用途？
-总之，我需要系统地梳理Grad-Shafranov方程的推导过程，解释其各变量的意义，讨论其求解依赖的因素，并说明它在工程和实验中的实际意义。
-&lt;/think&gt;
-### Grad-Shafranov方程
+          <t>### Grad-Shafranov方程
 #### 核心结论
 Grad-Shafranov方程描述了托卡马克等离子体在磁流体力学平衡中的磁场分布，其求解依赖于等离子体的电流和压强分布，以及外部磁场线圈的配置。
 #### 背景与概念
@@ -5065,7 +4510,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -5091,14 +4536,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，用户问的是比较托卡马克和仿星器在等离子体平衡实现方式上的主要异同，以及为什么仿星器的三维磁场能消除大电流需求，这对稳定性有什么优势。我得先回想一下这两种装置的基本原理。
-首先，托卡马克是环形的，主要依靠强磁场和自举电流来维持等离子体。它的磁场是轴对称的，但通常需要外部线圈提供大部分磁场，而等离子体自己产生的电流相对较小。这种方法容易导致MHD不稳定，比如柱状不稳定性，因为等离子体的形状比较规则，容易受扰动影响。
-然后，仿星器的结构更复杂，三维磁场，这样的设计不需要等离子体产生大电流，因为磁场是多极的，外部线圈已经提供了一个稳定的磁场构型。这减少了外部电流驱动的需求，也避免了自举电流带来的不稳定因素。此外，三维磁场增加了磁面的多样性，使得扰动的传播受到限制，提升了整体稳定性。
-用户可能想了解这两种装置的不同之处，特别是磁场结构对等离子体稳定性的影响。这可能是因为他们正在研究聚变装置的选择，或者想深入了解不同设计对性能的影响。用户可能是聚变能领域的学生、研究人员，或者是对此感兴趣的工程师。
-在比较两者时，我需要强调托卡马克的强磁场和自举电流带来的优点和缺点，而仿星器的三维磁场和对称性如何减少电流依赖并提高稳定性。这可能帮助用户理解为什么仿星器在某些方面更优，尤其是在避免大电流和提高稳定性方面。
-总结来说，用户希望得到托卡马克和仿星器在等离子体平衡和稳定性上的详细比较，特别是磁场结构如何影响这些方面。通过分析，可以帮助用户理解不同设计的优缺点，以及它们在实际应用中的潜力。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 托卡马克和仿星器在等离子体平衡实现方式上存在显著差异：托卡马克依赖于大等离子体电流产生的环形磁场，而仿星器通过复杂的三维外部磁场直接维持等离子体平衡。仿星器的三维磁场构型避免了对大电流的依赖，从而显著提升了等离子体的稳定性。
 ---
 ### 背景与概念  
@@ -5152,7 +4590,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -5178,15 +4616,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好，我现在要解释理想MHD中的主要不稳定性模式，包括扭曲模和气球模。首先，我得理解这两个模的基本概念和它们在聚变等离子体中的作用。
-扭曲模，也就是Kink模式，是等离子体中的一种螺旋形扰动。我记得它通常是由于等离子体环的局部压强梯度过大，导致不稳定性。这种模式会导致等离子体的形状发生扭曲，甚至可能导致等离子体破裂，从而影响约束性能。
-接下来是气球模，Ballooning modes。这个名字让我联想到气球膨胀的样子，可能这种模式会导致等离子体在径向方向膨胀。气球模与压力梯度和磁场的梯度有关，特别是在闭合磁场线的区域，如托卡马克装置的边缘。这种不稳定性可能会引起等离子体的局部膨胀，进而导致能量的损失和约束的减弱。
-关于驱动机制，扭曲模主要由纵向的压强梯度和磁场梯度驱动。当等离子体环的压强梯度足够大，超过了磁场的支撑能力，就会触发扭曲模。而气球模则是由径向的压强梯度和磁场的梯度驱动的，特别是在托卡马克的高约束模式下，较强的压强梯度容易引发气球模不稳定性。
-这些不稳定性对聚变等离子体的约束影响很大。扭曲模可能导致等离子体破裂，严重时会损坏设备。而气球模则会引起等离子体的径向扩散，降低约束效率，影响能量的保持。因此，设计聚变装置时需要通过优化磁场配置、控制压强梯度等手段来抑制这些不稳定性，以提高等离子体的约束性能。
-在实际应用中，如何抑制这些不稳定性呢？对于扭曲模，可以使用螺旋形磁场或者优化环形磁场的强度来减少压强梯度的影响。而气球模则需要通过调整等离子体的参数，如温度和密度分布，来降低驱动其不稳定的因素。此外，诊断技术的发展也非常重要，能够及时监测等离子体中的扰动，有助于预测和抑制不稳定性。
-总的来说，理解并控制这些不稳定性模式对于实现高效、稳定的聚变能源至关重要。未来的研究还需要在理论模型、数值模拟和实验验证方面进行深入探索，以进一步优化聚变装置的设计和运行。
-&lt;/think&gt;
-理想MHD中的扭曲模和气球模是两种主要的不稳定性模式，分别由不同的驱动机制引起，并对聚变等离子体的约束产生重要影响。
+          <t>理想MHD中的扭曲模和气球模是两种主要的不稳定性模式，分别由不同的驱动机制引起，并对聚变等离子体的约束产生重要影响。
 ### 核心结论
 理想MHD中的扭曲模和气球模是由纵向和径向压强梯度驱动的不稳定性模式，分别导致等离子体的扭曲变形和径向膨胀，严重时会影响聚变等离子体的约束性能。
 ### 背景与概念
@@ -5231,7 +4661,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -5257,68 +4687,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好吧，我现在遇到了一个关于托卡马克等离子体参数的问题，需要计算Troyon极限对应的β_N值以及最大允许的平均压强。让我一步一步地思考一下，看看能不能解决这个问题。
-首先，问题中提到了β和β_t的定义，然后给出了几个参数：R0=3米，a=1米，B_t=5特斯拉，I_p=5百万安培。需要估算Troyon极限对应的β_N，然后计算最大允许的平均压强。Troyon系数g≈2.8。
-首先，我得弄清楚β和β_t是什么。β通常是指等离子体压强与磁压强的比值，β = (8πP)/B²。而β_t是环向的β，应该是指环向磁场的分量。所以β_t = (8πP_t)/B_t²，其中P_t是环向的压强。
-接下来是Troyon极限。Troyon极限是描述托卡马克等离子体稳定性的条件之一，它涉及到β_N，也就是归一化贝塔值。β_N的定义是β乘以某种归一化因子，可能是R0/a的某种函数，或者是√(μ_0 R0/a)。不过，我得回忆一下具体公式。
-我记得Troyon极限涉及到β_N的最大值，公式大概是β_N_max = g * sqrt(μ_0 R0/(a B_t)), 其中g是Troyon系数。所以，首先需要计算这个表达式中的各个部分。
-那么，首先计算sqrt(μ_0 R0/(a B_t))。μ_0是真空磁导率，约等于4π×1e-7 H/m。R0=3米，a=1米，B_t=5特斯拉。
-计算一下：μ_0 R0 = 4πe-7 * 3 ≈ 3.768e-6。然后，除以 (a B_t) = 1*5=5，所以得到3.768e-6 / 5 ≈ 7.536e-7。然后开平方，sqrt(7.536e-7) ≈ 0.00868。
-然后，乘以g=2.8，得到β_N_max = 2.8 * 0.00868 ≈ 0.0243。不过，感觉这个结果可能太小了，可能哪里算错了。
-或者，可能Troyon极限的β_N_max表达式有误。另外，可能需要用到更准确的公式，包括电流I_p的影响。因为Troyon极限可能与等离子体电流有关，因为电流会影响压强梯度和稳定性。
-另一个可能的公式是：β_N_max = g * sqrt(μ_0 R0/(a B_t)) * (I_p / (R0 B_t))。这样，电流也会参与进来。那么，我需要重新计算。
-先计算sqrt(μ_0 R0/(a B_t))部分：μ_0=4πe-7，R0=3，a=1，B_t=5。
-计算分子：4πe-7 *3 ≈ 3.768e-6。分母：a B_t=5。所以，得到3.768e-6 /5 ≈7.536e-7。平方根约为0.00868。
-然后，计算(I_p)/(R0 B_t)。I_p=5 MA=5e6 A，R0=3m，B_t=5 T。所以，5e6 / (3*5)=5e6 /15≈333,333。这个数字看起来很大，可能意味着β_N_max会很大，这显然有问题，可能公式记错了。
-或者，可能β_N的定义中已经包含了与电流有关的因素，或者Troyon极限的公式可能没有涉及电流，而是基于其他参数。
-或许我应该重新查阅相关的公式。Troyon极限，也称为理想MHD的稳定性极限，通常涉及到β_N，其定义为β_N = β * sqrt(μ_0 R0/(a B_t)) * (I_p)/(R0 B_t)。这可能吗？或者是否有不同的归一化方式？
-另一个可能的公式是：β_N = (β * (R0/a)) * (B_t / B_phi)^2，其中B_phi是环向磁场的分量。但这里可能不需要这么复杂。
-或许我应该先计算β_N的表达式，然后根据Troyon极限，得到一个最大值。
-或者，可能需要重新考虑β_N的定义。例如，β_N可能等于β乘以sqrt(μ_0 R0/(a B_t))，然后再乘以某种电流项。
-或者，可能正确的公式是β_N = β * (R0/a) * (B_t/B_p)，其中B_p是总磁压强，但这样可能不太准确。
-也许我应该参考一些标准的公式。例如，Troyon极限中的β_N_max = g * sqrt(μ_0 R0/(a B_t))，而β_N本身可能还包括电流项。
-或者，可能β_N = β * (R0/a) * (B_t/B_p)，其中B_p是等离子体生成的磁场，这可能与电流有关。
-不过，这个问题可能更简单。可能我只需要计算β_N_max = g * sqrt(μ_0 R0/(a B_t))，而不考虑电流，这可能吗？
-那回到计算，sqrt(μ_0 R0/(a B_t))=sqrt(4πe-7 *3/(1*5))=sqrt( (4πe-7 *3)/5 )=sqrt( (1.2πe-6)/5 )≈sqrt(7.54e-7)≈0.00868。然后乘以g=2.8，得到β_N_max≈0.0243。
-这个结果看起来很低，但可能在某种归一化下是合理的。
-然后，计算平均压强。平均压强P = (β/(8π)) * B_t²。而β=β_N / sqrt(μ_0 R0/(a B_t)) * (R0/(a))^{1/2}。或者，可能需要重新推导。
-或者，可以使用β = β_N / sqrt(μ_0 R0/(a B_t))。因为β_N = β * sqrt(μ_0 R0/(a B_t))，所以β = β_N_max / sqrt(...)=0.0243 /0.00868≈2.8。
-这可能吗？β=2.8意味着等离子体压强很高，可能在托卡马克中是可能的。
-然后，P = (β/(8π)) * B_t²= (2.8/(8π)) * (5)^2= (2.8/25.1327) *25≈(0.1115)*25≈2.787 MPa。
-或者，可能计算中存在误差，因为β_N_max可能等于2.8*sqrt(...)，而β_N_max可能指的是beta乘以某种归一化因子。
-或者，可能我应该重新审视整个过程，确保公式的正确性。
-也许我应该先正确地写出Troyon极限的公式。Troyon极限是指在理想MHD条件下，等离子体的β_N不能超过某个最大值。β_N的定义通常是：
-β_N = β_t * sqrt(μ_0 R0/(a B_t)) * (R0/a)^{1/2}
-其中β_t是环向beta，等于(8πP_t)/B_t²。
-或者，另一种定义是：
-β_N = β * (R0/a) * (B_t/B_p)
-其中B_p是等离子体生成的磁场，这可能与等离子体电流有关。
-但可能更简单的方法是使用标准的归一化贝塔值的公式：
-β_N = β_t * sqrt(μ_0 R0/(a B_t)).
-那么，Troyon极限给出β_N_max = g * sqrt(μ_0 R0/(a B_t)).
-现在，代入数值：
-g=2.8，R0=3m，a=1m，B_t=5T。
-计算sqrt(μ_0 R0/(a B_t))=sqrt(4πe-7 *3/(1*5))=sqrt( (1.2πe-6)/5 )≈sqrt(7.54e-7)≈0.00868.
-所以，β_N_max=2.8 *0.00868≈0.0243.
-这可能就是结果，虽然看起来很小。
-然后，计算平均压强P。因为β_t = (8πP)/B_t²，所以P = (β_t B_t²)/(8π).
-而β_t = β_N_max / sqrt(μ_0 R0/(a B_t))=0.0243/0.00868≈2.8.
-因此，P= (2.8 *5^2)/(8π)= (2.8*25)/(25.1327)=70/25.1327≈2.787 MPa.
-所以，最大允许的平均压强约为2.787 MPa。
-或者，可能我的计算中有误，特别是关于β_N的定义和电流I_p的作用。
-可能我还需要考虑电流I_p的影响，因为它与压强梯度有关，影响稳定性。Troyon极限可能涉及到电流项，例如：
-β_N_max = g * sqrt(μ_0 R0/(a B_t)) * (I_p)/(R0 B_t).
-这样，I_p=5e6 A，R0=3m，B_t=5T。
-计算：I_p/(R0 B_t)=5e6/(3*5)=5e6/15≈333,333。这显然太大了，会导致β_N_max非常大，这显然是不合理的。
-所以，可能我的公式有误，或者电流I_p已经在β_N的定义中被考虑了。
-或者，可能电流在计算β时已经被考虑，因为β与压强有关，而压强又与电流有关。
-在这种情况下，我可能需要重新审视β的计算。β_t= (8πP_t)/B_t²，而P_t可能与等离子体的其他参数有关，比如电流。
-或者，可能我需要通过磁流体力学的平衡方程来考虑电流的影响，这可能更复杂。
-也许，回到问题，可能不考虑电流的影响，或者电流已经在β的定义中被隐含地考虑了。因此，可能只需要按照之前的计算进行，得到β_N_max≈0.0243，然后得到P≈2.787 MPa。
-不过，这个结果可能偏低，因为托卡马克通常能达到更高的β值，但Troyon极限可能是一个比较保守的限制。
-综上所述，我认为Troyon极限对应的β_N值约为0.0243，最大允许的平均压强约为2.787 MPa。
-&lt;/think&gt;
-**核心结论**  
+          <t>**核心结论**  
 托卡马克的Troyon极限对应的β_N值约为0.024，最大允许的平均压强约为2.79 MPa。
 ### 背景与概念  
 在托卡马克等离子体中，β值表示等离子体压强与磁压强的比值，β = (8πP)/B²，其中P为等离子体压强，B为磁场强度。环向beta值β_t = (8πP_t)/B_t²，P_t为环向压强。Troyon极限是理想MHD稳定性的一个上限，给出β_N的最大值，其中β_N = β_t * sqrt(μ₀ R₀/(a B_t))，μ₀为真空磁导率，R₀为大环径，a为小半径，B_t为环向磁场。
@@ -5344,7 +4713,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -5370,16 +4739,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>好，我现在需要回答用户关于电阻MHD中撕裂模的问题，详细解释物理机制、磁岛形成、对约束的破坏以及Δ'参数的意义。
-首先，撕裂模属于电阻磁流体力学不稳定性的一种，通常在磁约束聚变装置中出现，比如托卡马克。这种不稳定性会导致等离子体的约束被破坏，影响聚变反应的效率和持续性。
-接下来，我需要详细说明撕裂模的物理机制。撕裂模的核心是由于磁场的重新连接，特别是在等离子体边界区域的切变磁场中。当存在适当的电阻率时，微小的扰动会触发磁场线的重组，从而形成磁岛结构。
-磁岛的形成过程涉及几个关键步骤：首先是小幅度的扰动，然后是磁场的快速增长，接着是磁场线的闭合形成岛结构，最后这些岛会增长并导致等离子体的运输。
-对等离子体约束的破坏作用主要体现在增加了粒子和热量的损失，影响等离子体的性能。撕裂模会导致等离子体的不稳定性，限制了聚变装置的运行参数。
-关于Δ'参数，它是撕裂模稳定性分析中的一个重要参数，衡量了系统远离临界状态的程度。Δ'值越大，系统越稳定，不容易触发撕裂模。如果Δ'为负，系统就变得不稳定，容易形成撕裂模。
-总结来说，撕裂模的物理机制和磁岛的形成过程对等离子体约束有重大影响，而Δ'参数则帮助我们判断系统的稳定性，指导聚变装置的设计和运行。
-在写作过程中，我需要确保内容结构清晰，每个部分都有明确的标题，使用LaTeX公式，保持语言专业但易懂，同时符合用户指定的回答规范。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 撕裂模是一种电阻磁流体力学（MHD）不稳定性，其物理机制涉及磁场的重新连接和磁岛的形成，导致等离子体约束的破坏。Δ'参数在撕裂模稳定性分析中是衡量系统稳定性的重要参数，决定了系统是否容易触发撕裂模。
 ### 2. 背景与概念
 在磁约束聚变装置（如托卡马克）中，等离子体被强磁场约束。电阻MHD效应描述了等离子体中的电流与磁场之间的相互作用，特别是在磁场变化和电流驱动的情况下。撕裂模是一种电阻MHD不稳定性，它涉及到磁场的重新连接和磁岛的形成，这些现象会导致等离子体约束的破坏，增加粒子和能量的损失。
@@ -5414,7 +4774,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -5440,16 +4800,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论仿星器在MHD稳定性分析中的特殊挑战，比如三维效应和缺乏连续对称性。然后还要介绍VMEC和CAS3D这些计算程序在平衡与稳定性分析中的作用。
-首先，我得回忆一下MHD稳定性的基本概念。MHD（磁流体力学）稳定性分析主要是研究等离子体在磁场中的行为，特别是在外力作用下的稳定性。对于托卡马克装置，因为其高度对称的设计，分析相对较为简单。但仿星器由于其复杂的三维结构，对称性较差，这增加了分析的难度。
-三维效应是什么？在托卡马克中，磁场主要是轴对称的，所以分析可以简化为二维问题。但仿星器的磁场是三维的，没有这样的对称性，所以必须考虑三个维度的变化。这意味着计算量更大，而且更容易出现各种不稳定的模式。
-缺乏连续对称性又是什么意思呢？托卡马克有良好的轴对称性，这使得等离子体中的许多模式可以用简化的模型来分析。而仿星器因为设计的复杂性，对称性不足，导致很难找到一个统一的对称轴或对称面，这样在分析稳定性时，无法像托卡马克那样利用对称性带来的简化。
-接下来，我需要解释VMEC和CAS3D程序的作用。VMEC是用于计算等离子体的平衡状态的，它能够处理三维的磁场配置，适用于仿星器这样的复杂结构。CAS3D则专注于稳定性分析，能够模拟各种MHD模式在三维磁场中的发展，评估其稳定性。
-VMEC的工作原理是通过求解磁流体力学的平衡方程，找到等离子体在给定磁场下的稳定状态。这包括处理三维的边界条件和复杂的几何形状。而CAS3D则是基于VMEC的平衡解，进一步分析其在受扰动下的稳定性，评估不同模式的增长率或衰减率。
-在实际应用中，这些程序帮助设计仿星器的磁场配置，优化其参数以提高稳定性。这对于装置的设计和运行至关重要，能够减少不稳定性带来的能量损失，延长等离子体的运行时间。
-总结一下，仿星器的MHD稳定性分析面临三维效应和缺乏对称性的挑战，而VMEC和CAS3D等程序通过精确的三维模拟，帮助克服这些困难，为设计更稳定的仿星器提供了工具。
-&lt;/think&gt;
-### 仿星器MHD稳定性分析的特殊挑战
+          <t>### 仿星器MHD稳定性分析的特殊挑战
 **核心结论**  
 仿星器的MHD稳定性分析面临三维效应和缺乏连续对称性的特殊挑战，这使得计算和理论分析更加复杂。
 **背景与概念**  
@@ -5485,7 +4836,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -5511,18 +4862,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好的，我现在需要详细思考用户的问题，并按照规定的格式给出答案。用户的问题是关于在托卡马克先进运行模式中，如何通过优化电流密度剖面和压强剖面来提高MHD稳定性极限，特别是避免或抑制新经典撕裂模（NTMs）和电阻壁模（RWMs）。
-首先，我要理解用户的需求。用户可能是一位聚变物理或工程领域的研究者，或者是相关专业的学生。他们可能正在研究托卡马克装置的稳定性和运行优化，因此需要了解电流密度和压强剖面对MHD稳定性的影响，特别是如何通过优化这些剖面来改善装置的稳定性。
-接下来，我需要分解问题。问题分为两个部分：优化电流密度剖面和优化压强剖面，分别对MHD稳定性的影响。特别是针对NTMs和RWMs这两种不稳定性。
-关于电流密度剖面，我需要回顾相关理论。NTMs通常与磁通量倾斜梯度有关，而优化电流密度剖面可以通过改变磁通量倾斜，从而抑制NTMs。电流密度剖面的形状，比如双峰型，可能会影响磁通量倾斜的分布。此外，边界电流密度的分布也会影响RWMs，因为高边界电流可能会加剧RWMs的增长。
-然后是压强剖面的优化。高q值区域的压强梯度是引起NTMs的关键因素。通过压强负反馈或压强下移，可以降低这些区域的压强梯度，从而减少MHD不稳定性。这可能涉及到使用特定的反馈控制策略，或者调整加热方式来改变压强分布。
-现在，我需要思考如何将这些理论应用到实际中。例如，如何在实验中调整电流密度和压强剖面？这可能涉及使用射频天线调整电流，或者调整加热功率分布来改变压强。同时，我需要考虑这些调整对其他性能参数的影响，比如能量约束或等离子体稳定性。
-另外，我需要考虑现有文献中的相关研究。例如，实验中已经通过优化电流密度剖面成功抑制了NTMs，这说明这是一个可行的方法。同时，压强负反馈在ITER等大型装置中已经被提出作为控制MHD不稳定的手段。
-在思考过程中，我还需要注意可能的误区。例如，过度优化压强下移可能导致能量约束降低，因此需要在控制MHD不稳定性和维持等离子体性能之间找到平衡。同样，电流密度剖面的调整可能会带来其他问题，如磁流体力学振动或控制复杂性增加。
-最后，我需要将这些思考整合成一个结构化的答案，按照用户规定的格式，包括核心结论、背景与概念、原理与推导、定量估算、工程意义、比较与拓展以及要点总结。
-现在，我应该按照这个思路逐步展开，确保每个部分都涵盖必要的内容，并且逻辑清晰，符合用户的写作要求。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 通过优化电流密度剖面（优化磁通量倾斜 $\nabla\psi$ 和边界电流密度 $J_{\text{edge}}$）以及压强剖面（降低高$q$值区域的压强梯度），可以有效提高托卡马克装置的MHD稳定性极限，从而抑制新经典撕裂模（NTMs）和电阻壁模（RWMs）。
 ---
 ### 背景与概念
@@ -5572,7 +4912,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -5598,15 +4938,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在需要解释Mercier判据和气球模判据在仿星器局部稳定性评估中的应用，还要说明为什么即使局部判据满足，仍需进行全局稳定性分析。这个问题看起来有点复杂，不过我可以一步步来。
-首先，我要回忆一下什么是Mercier判据和气球模判据。Mercier判据是用来判断磁约束等离子体中是否发生广义流体不稳定性的一种方法。它通常用于托卡马克装置，检查某个模式的不稳定性，比如kink模式或者sausage模式。而气球模判据则是用来判断是否存在磁流体力学不稳定的气球模，这在仿星器设计中也很重要，因为仿星器的磁场结构比较复杂，容易出现气球模不稳定性。
-接下来，我要理解为什么这些判据在仿星器中被用到。仿星器的磁笼结构设计得比较复杂，用来打破镜对称性，从而减少等离子体的逃逸。在局部稳定性评估中， Mercier判据和气球模判据被用来检查特定的区域或特定的磁场结构是否满足稳定性的条件。
-然后，关于为什么即使局部判据满足，仍需全局稳定性分析。这可能是因为仿星器的整个磁场结构是一个整体，局部的稳定并不一定意味着全局的稳定。例如，局部的稳定性可能忽略了不同区域之间的相互作用，或者可能存在全局性的模式，比如磁流体力学的宏观波动，这些波动可能会导致整个等离子体的不稳定。此外，仿星器的设计通常会有多个磁笼结构，每个结构可能有其自身的稳定性条件，但如果它们之间存在相互影响，单独的局部判据可能无法捕捉到这种整体效应。
-可能还有一个因素是仿星器的磁场结构比托卡马克更复杂，局部的评估可能无法完全反映整体的稳定性情况。因此，即使每个局部区域都满足稳定性条件，整个系统的稳定性仍然需要通过全局分析来确认。这可能涉及到计算系统整体的特征值，检查是否存在不稳定的全局模式。
-我还应该思考一下这些判据的具体应用过程。比如，在仿星器设计中，会使用数值模拟或者解析方法来应用Mercier判据和气球模判据。通过计算特定的参数，如等离子体的密度、温度、磁场强度等，来判断在这些条件下是否存在不稳定性。同时，这些判据的结果可能会指导设计者调整磁场结构，以满足稳定性条件。
-最后，我需要总结一下，这些判据在仿星器设计中的重要性，以及为什么全局分析是必要的。这可能包括设计中的实际案例，或者已有的研究结果，说明局部稳定性满足的情况下，仍存在全局不稳定的情况，从而强调全局分析的重要性。
-&lt;/think&gt;
-**核心结论**  
+          <t>**核心结论**  
 在仿星器中，局部稳定性判据如Mercier判据和气球模判据用于评估特定区域的不稳定性，但全局稳定性分析必不可少，以确保整个系统免受跨区域耦合和整体模式的影响。
 ### 背景与概念  
 仿星器是一种复杂的磁约束装置，其磁场设计用于打破镜对称性以限制等离子体逃逸。在稳定性分析中，**局部稳定性判据**（如Mercier判据）和**气球模判据**用于评估特定磁场区域的不稳定性，而**全局稳定性分析**则考虑整个系统的行为。
@@ -5632,7 +4964,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -5658,17 +4990,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>好的，我现在要回答这个问题：自由边界MHD不稳定性与固定边界不稳定性有何区别？以及真空区和理想导电壁的存在如何影响外部扭曲模的稳定性，讨论壁稳定效应。
-首先，我需要明确MHD不稳定性是什么。MHD不稳定性是指等离子体在磁流体力学条件下发生的不稳定现象，可能导致等离子体破裂或性能下降。这种不稳定性在聚变装置，如托卡马克中尤为重要，因为它可能影响装置的运行。
-问题分为两部分，第一部分比较自由边界和固定边界MHD不稳定性。第二部分讨论真空区和理想导电壁对外部扭曲模稳定性的影响，特别是壁稳定效应。
-关于第一部分，自由边界和固定边界MHD不稳定性有哪些区别。自由边界意味着等离子体边界由自身压力平衡决定，通常有真空区域。而固定边界则可能意味着等离子体被约束在固体壁内，没有或只有很小的真空区域。这两种情况下，等离子体的不稳定性表现可能不同。
-接下来，第二部分涉及外部扭曲模和壁稳定效应。外部扭曲模是一种MHD不稳定性，通常在自由边界情况下更容易出现。壁稳定效应指的是装置边界（如托卡马克的壁）对这种不稳定性的抑制作用。
-思考中，我需要回忆相关的理论，如外部kink模、电阻壁模式、理想MHD理论和壁的反馈效应。理想MHD下，等离子体在固定边界下可能更稳定，而在自由边界下容易出现不稳定性。壁的存在，尤其是导电壁，可能通过感应电流来稳定等离子体。
-同时，我需要考虑定量因素，如增长率、特征频率、电流的趋肤效应和壁的影响。例如，在理想导体壁情况下，壁电流与等离子体流速有关，可以抑制不稳定性，降低增长率。
-最后，工程意义方面，理解这些效应对于设计聚变装置的边界条件、壁材料和运行参数非常重要。例如，设计良好的壁材料和形状可以提高稳定性，延长等离子体运行时间。
-综上所述，我需要系统地将这些知识点整理成结构化的回答，涵盖核心结论、背景概念、原理推导、定量分析、工程意义、比较拓展和要点总结。
-&lt;/think&gt;
-### 自由边界MHD不稳定性与固定边界不稳定性有何区别？
+          <t>### 自由边界MHD不稳定性与固定边界不稳定性有何区别？
 1. **核心结论**  
 自由边界MHD不稳定性与固定边界MHD不稳定性在物理机制、边界条件及其对等离子体稳定性的影响方面存在显著差异。
 2. **背景与概念**  
@@ -5777,7 +5099,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -5803,19 +5125,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在得详细阐述离子温度梯度（ITG）模的物理机制，并且推导在给定密度梯度尺度长度Ln和离子温度梯度尺度长度LTi时，ITG模的简化线性阈值条件，比如ηi=Ln/LTi &gt; ηicrit。还要讨论这个阈值如何受到其他参数，如安全因子q和磁剪切s的影响。
-首先，我得回顾一下ITG模的基本概念。ITG模是聚变装置中等离子体的一种不稳定性，通常在环形托卡马克装置中出现，尤其是在高离子温度梯度的区域。这种不稳定性会导致粒子和热量的输运，影响聚变反应的效率和等离子体的稳定性。
-接下来，我需要分析ITG模的物理机制。根据所学，ITG模涉及到离子的梯度驱动不稳定性，主要是因为离子温度梯度和密度梯度之间的相互作用。这种不稳定性通常是由于离子的径向运动导致的，其中温度梯度提供了能量源，而密度梯度则影响了离子的运动轨迹。
-在推导线性阈值条件时，ηi=Ln/LTi这个参数的出现可能与离子温度梯度和密度梯度之间的关系有关。当ηi超过某个临界值时，ITG模就会被触发，引发不稳定性。因此，我需要找出这个临界值ηicrit，并且了解它与其他参数如q和s的关系。
-关于背景与概念部分，我需要明确几个关键概念，比如密度梯度尺度长度Ln、离子温度梯度尺度长度LTi、离子的温度梯度和密度梯度的关系，以及它们如何影响ITG模的不稳定性。此外，还需要考虑磁剪切s和安全因子q对这种不稳定性的影响。
-在原理与推导部分，我可能需要从维斯纳方程（Vlasov equation）出发，考虑磁流体力学（MHD）的近似，或者使用离子回旋波的理论来分析不稳定性条件。通常，这种分析会涉及到波动模式的线性稳定性分析，寻找满足波动方程的不稳定性增长率的条件。
-接下来，在定量估算或示例部分，我需要给出典型的参数值，并计算ηicrit的范围。例如，假设安全因子q在2到5之间，磁剪切s在0.1到0.5之间，那么ηicrit可能在某个范围内变化。这样可以帮助用户理解在实际装置中，这些参数如何影响ITG模的触发条件。
-在工程或实验意义部分，我需要指出，了解ITG模的阈值条件对于优化托卡马克装置的运行至关重要。例如，通过调整等离子体的密度和温度梯度，或者改变装置的几何参数如q和s，可以控制ITG不稳定性，从而减少热量和粒子的输运，提高聚变效率。
-比较与拓展部分，可能需要讨论不同的理论模型，如不同的线性稳定性分析方法，或者考虑更高阶的非线性效应，分析它们的优缺点以及适用条件。例如，有些模型可能假设冷电子或者忽略某些平行运动，这些近似会影响阈值条件的准确性。
-最后，在要点总结部分，我需要重申ITG模的物理机制，以及临界条件ηicrit的决定因素，如q和s的影响，强调这些参数在实际装置设计和运行中的重要性。
-在整个思考过程中，我需要确保逻辑清晰，每一步都有坚实的物理基础，并且能够准确地将理论推导与实际参数联系起来。如果在某个步骤中遇到不确定的地方，比如具体的方程推导或参数假设，我需要停下来查阅相关资料，确保答案的准确性和严谨性。
-&lt;/think&gt;
-### 离子温度梯度（ITG）模的物理机制及其线性阈值条件
+          <t>### 离子温度梯度（ITG）模的物理机制及其线性阈值条件
 #### 1. 核心结论
 离子温度梯度（ITG）模的不稳定性由离子温度梯度与密度梯度的相互作用驱动，其线性阈值条件为 $\eta_i = L_{n}/L_{T_i} &gt; \eta_{i,crit}$，其中 $\eta_{i,crit}$ 取决于安全因子 $q$ 和磁剪切 $s$。
 ---
@@ -5865,7 +5175,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -5891,21 +5201,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好吧，我现在得仔细理解一下这个关于新经典撕裂模（NTM）的问题。首先，用户提到的是NTM的激发和增长机制，特别是自举电流扰动和极化电流效应。另外还涉及到广义卢瑟福方程的应用。
-我得从头开始，先回忆一下NTM的基本概念。记得NTM是一种在托卡马克等离子体中出现的不稳定性，通常是在高β条件下发生的。β值代表等离子体压与磁场压的比值，高β意味着等离子体更不稳定。NTM会导致等离子体的径向输运增加，从而影响聚变反应的效率。
-接下来是激发机制。我想，这可能涉及到外部扰动，比如磁场的不均匀或者等离子体内部的波动。等离子体中的流速、温度梯度等因素可能触发初始的不稳定。
-然后是增长机制，这里可能有自举电流和极化电流的作用。自举电流应该是指在撕裂模过程中，等离子体流与磁场的相互作用产生的电流，它会进一步增强磁场的扰动。极化电流可能来自于等离子体中的电荷分离或者粒子的极化运动，它们同样会加剧撕裂模的发展。
-广义卢瑟福方程，这个名字听起来和经典卢瑟福公式有关，但可能被推广了，用于描述 NTM 中电流的变化。原卢瑟福公式可能用来计算磁场在圆柱对称情况下的分布，而广义版本可能考虑了更复杂的几何或多物理场效应。
-现在，我需要分点详细解释这些机制。首先是激发机制，可能需要描述参数（β、流速）如何超过临界值，导致初始扰动。然后是增长机制，详细分析自举电流和极化电流如何分别促进撕裂模的增长。
-在分析原理时，可能需要引入关键的方程，比如描述磁场扰动的方程，电流与磁场的耦合关系等。广义卢瑟福方程可能涉及这些变量，比如电流密度、磁场梯度等，帮助建模 NTM 的发展过程。
-定量估算方面，可能需要提供一些典型参数，比如β临界值、电流密度的增加比例，以及这些参数对 tearing 模增长率的具体影响。
-在工程意义部分，可能需要讨论如何控制 NTM 的发生，比如调整等离子体的参数（降低β，控制流速），或者设计更好的磁约束结构来抑制不稳定性。
-比较与拓展部分，可以讨论不同模型对 NTM 的解释，比如线性稳定性分析和非线性模型的区别，各自的适用范围和优缺点。
-总结时，需要强调 NTM 的机制及其对聚变装置的影响，以及控制它的策略。
-可能还需要查阅一些文献或资料，确保对 NTM 和相关效应的理解准确无误，避免遗漏关键点。比如，自举电流和极化电流在其他不稳定模式中的作用是否有类似之处，或者是否有不同的表现形式。
-总之，这个问题需要全面覆盖 NTM 的各个方面，从激发到增长，再到工程影响，同时结合广义卢瑟福方程的应用，确保回答结构清晰，内容详实。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 新经典撕裂模（NTM）是一种由于等离子体中的自举电流扰动和极化电流效应引起的磁流体力学不稳定性，其增长机制可以通过广义卢瑟福方程进行分析。
 ---
 ### 2. 背景与概念  
@@ -5963,7 +5259,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -5989,15 +5285,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好，我现在需要回答关于边缘局域模（ELMs）的问题。首先，我得确定什么是ELMs，它们的主要类型是什么，以及它们对聚变装置的影响。然后，还要讨论在大型装置如ITER中如何控制或缓解这些ELMs。
-首先，ELMs，边缘局域模，是托卡马克等离子体中的一种扰动现象，发生在等离子体的边缘区域，特别是在高约束模式（H模）下。当等离子体进入H模时，会出现一个陡峭的温度和密度梯度，称为 pedestal。这种陡峭的梯度导致不稳定性，最终引发ELMs。
-接下来，ELMs的主要类型。我记得有两种主要类型，Type I和Type II。Type I是最常见的，表现为突然的温度和密度下降，伴随着大的瞬态磁场变化，称为MHD活动。Type II则是更温和的，通常与较低的等离子体性能相关，可能涉及更复杂的不稳定性机制。
-ELMs对等离子体约束的影响主要是破坏pedestal结构，导致约束性能的瞬时下降。这不仅影响聚变反应的效率，还对第一壁部件产生热负荷，因为瞬时释放的大量能量会冲击壁面，可能导致材料损伤。
-现在，讨论ITER中的控制策略。主要有两种方法：RMP（旋转场形控制）和颗粒注入。RMP通过在托卡马克内部放置电磁线圈，施加一个扰动的磁场，破坏不稳定性，从而抑制ELMs的发生。颗粒注入则是通过向等离子体中喷射小颗粒（如氘化碳颗粒），中和等离子体边缘的不稳定性，减少ELMs的频率和幅度。
-我还需要考虑其他可能的策略，比如调整等离子体参数，如密度、温度分布，或者使用主动控制技术，如实时反馈系统，来动态调整等离子体状态，防止ELMs的爆发。
-总结一下，ELMs是托卡马克中的重要扰动，影响约束性能和设备寿命，而RMP和颗粒注入是主要的控制手段，帮助维持稳定和高效的聚变等离子体。
-&lt;/think&gt;
-### 什么是边缘局域模（ELMs）？
+          <t>### 什么是边缘局域模（ELMs）？
 #### 核心结论
 边缘局域模（ELMs）是托卡马克高约束等离子体中的不稳定性现象，会破坏等离子体约束并引起第一壁的瞬态热负荷。
 #### 背景与概念
@@ -6062,7 +5350,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -6088,17 +5376,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论锯齿不稳定性（Sawteeth）的物理过程，包括它的周期性崩溃和重联机制，以及锯齿对等离子体芯部约束的影响，还有它与其他MHD不稳定性如NTM之间的关联。首先，我需要理清楚这些概念。
-锯齿不稳定性是在托卡马克等离子体中的一种现象，我记得它通常表现为等离子体芯部的温度和密度周期性地上升然后突然崩溃。这可能与磁流结构的变化有关。周期性崩溃可能是因为某种磁流结构的不稳定性，而重联机制可能涉及到磁力线的重新连接，这可能是在等离子体内部发生的。
-锯齿不稳定性对芯部约束的影响可能包括温度和密度的周期性波动，这可能影响聚变反应的效率。如果芯部的约束被破坏，可能会影响整个等离子体的稳定性，导致能量释放不稳定，这可能对装置运行不利。
-至于与其他MHD不稳定性如NTM的关联，NTM（Neoclassical Tearing Mode）是一种撕裂模不稳定性，通常出现在等离子体的边缘区域，而锯齿则在芯部发生。两者都是MHD不稳定性，但发生的区域和机制可能不同。NTM可能与电流密度梯度有关，而锯齿可能与磁流结构的特定模式有关。不过，它们可能在某些条件下相互影响，比如如果锯齿不稳定性导致磁流结构的变化，可能触发或抑制NTM的发生。
-现在，我需要更详细地分析这些点，可能需要查阅相关资料或文献来确认我的理解是否正确。比如，锯齿不稳定的触发条件是什么？它的周期性崩溃是否涉及特定的等离子体参数，如温度梯度、密度梯度或磁场配置？
-关于重联机制，可能涉及到等离子体中的磁场线重新连接，这通常释放大量的能量，可能导致等离子体参数的突然变化。在锯齿的情况下，这种重联可能发生在等离子体芯部的某个特定区域，导致温度和密度的骤降。
-锯齿对芯部约束的影响可能不仅限于温度和密度的波动，还可能影响等离子体的热传导和能量输运。如果芯部的约束被削弱，可能增加能量的损失，降低聚变反应的效率。
-至于与NTM的关系，可能需要比较它们的触发条件、影响区域以及对等离子体参数的影响。例如，锯齿可能在高约束条件下更容易发生，而NTM则在较低约束或特定电流密度梯度下发生。两者可能在某种程度上相互作用，比如锯齿导致的磁流结构变化可能改变NTM的触发条件。
-最后，我需要总结这些分析，指出锯齿不稳定性在托卡马克运行中的重要性，以及如何通过控制等离子体参数来抑制或管理锯齿，以提高聚变装置的性能和稳定性。
-&lt;/think&gt;
-### 锯齿不稳定的物理过程分析
+          <t>### 锯齿不稳定的物理过程分析
 #### 1. 锯齿不稳定的周期性崩溃
 锯齿不稳定性是一种在托卡马克等离子体中常见的现象，通常表现为等离子体芯部的温度和密度周期性上升后突然崩溃。这一过程与磁流结构的不稳定性有关，可能涉及等离子体内部磁力线的重新连接。
 **机理分析：**
@@ -6126,7 +5404,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -6152,20 +5430,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好的，现在我要思考电阻壁模（RWMs）的物理特性，以及它对托卡马克先进运行模式的威胁。还要讨论等离子体旋转和主动反馈控制系统在RWMs稳定化中的作用。
-首先，什么是电阻壁模？我记得这是托卡马克等离子体中的一种不稳定性，涉及到等离子体和真空室壁之间的电磁相互作用。等离子体中的电流变化会产生电磁场，这些场会与壁相互作用，导致电流在壁上流动，从而产生电阻，可能引发不稳定性。
-RWMs的物理特性方面，我应该考虑其驱动机制和增长率。驱动可能来自电流的变化，比如等离子体中的电流重新分布或者外部扰动。增长速率γ取决于等离子体参数，比如磁场强度、等离子体电阻和壁的电阻。高增长率意味着不稳定性很快发展，可能破坏等离子体的约束。
-对托卡马克的威胁主要在于它可能破坏等离子体的稳定性，导致能量损失，甚至损害装置的结构。例如，ITER这样的大型装置，如果RWMs失控，可能导致严重的运行问题。
-接下来，等离子体旋转如何影响RWMs？旋转可以引入一个额外的张量项，可能改变增长的速率。如果旋转足够快，可能会降低RWMs的增长，甚至稳定它。这涉及到旋转频率与不稳定性频率的比较。
-然后是主动反馈控制系统，这通常涉及实时检测RWMs的信号，并施加控制电流来抵消不稳定性。这可能通过外部线圈或内部反馈线圈实现，利用实时诊断数据来调整控制信号。
-在背景中，我需要明确RWMs的驱动力和影响因素，如磁场强度、等离子体参数、壁的材料和结构。同时，等离子体旋转和反馈系统的作用机制也需要详细阐述。
-在原理部分，RWMs的不稳定性由电磁相互作用驱动，可能涉及到电容和电阻效应。等离子体旋转带来的惯性效应可以抑制不稳定性，而反馈系统则通过外部控制来抵消RWMs的生长。
-定量估算方面，我可以考虑典型托卡马克装置中的参数，如B=5T，R=2m，等离子体电阻Rp，壁电阻Rw。计算增长率γ，看看在什么条件下不稳定性会发生。同时，计算旋转频率ω，比较它与γ的关系，判断旋转是否能稳定系统。
-工程意义方面，需要优化等离子体参数，比如维持高旋转，设计有效的反馈系统，选择低电阻的壁材料，以降低RWMs的风险。
-比较与拓展部分，可以讨论等离子体旋转和反馈控制的优缺点。旋转可能需要特定的操作条件，而反馈系统可能需要复杂的实时控制和诊断系统。可能还有其他控制方法，如改变磁场配置，但效果可能不如旋转和反馈明显。
-总结时，强调RWMs对托卡马克的重要性，以及旋转和反馈控制在稳定化中的作用，建议在设计和运行中综合考虑这些因素。
-&lt;/think&gt;
-### 电阻壁模（RWMs）的物理特性及其对托卡马克先进运行模式的威胁
+          <t>### 电阻壁模（RWMs）的物理特性及其对托卡马克先进运行模式的威胁
 #### 1. 核心结论  
 电阻壁模（RWMs）是一种由等离子体与托卡马克装置壁之间电磁相互作用引起的不稳定性，可能对先进运行模式（如高约束模式H-mode和稳态运行）构成严重威胁。通过等离子体旋转和主动反馈控制系统可以有效抑制RWMs。
 ---
@@ -6224,7 +5489,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -6250,15 +5515,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在遇到了关于速度空间不稳定性的问题，需要仔细理解什么是速度空间不稳定性，以及它们在聚变等离子体中的重要性。首先，我得回顾一下等离子体的基本知识，特别是涉及到不同流速或能量分布的部分。
-速度空间不稳定性这个词听起来有点复杂，但我觉得它和等离子体中的不同部分有相对运动有关。比如，双流不稳定性可能指的是两个相反方向流动的等离子体流，而碰撞-尾部不稳定性可能涉及粒子在速度分布中的高能尾部分与背景的相互作用。那么这些不稳定性是如何被驱动的呢？
-我需要先了解这些不稳定的驱动机制。双流不稳定性可能是因为两种等离子体流之间的相对运动导致的不稳定性，它们可能在高频区域有增长，特别是在速度接近光速的情况下。而碰撞-尾部不稳定性可能涉及到高能粒子与低能背景之间的相互作用，尤其是在低频区域，比如离子声波的频率附近。
-接下来，我应该思考这些不稳定性在聚变装置中的具体应用场景。中性束注入和波加热都是常见的等离子体加热方法，它们会引入不同速度的粒子，从而可能引发速度空间不稳定性。比如，中性束注入的高能粒子可能在等离子体中形成双流结构，或者在与背景等离子体相互作用时，产生碰撞-尾部不稳定性。
-这些不稳定性的影响是什么呢？它们可能会导致能量的不适当耗散，影响等离子体的约束和加热效果，甚至引发等离子体的崩溃。因此，在设计聚变装置时，必须考虑这些不稳定性，采取措施来抑制它们的发展，比如优化注入束的参数，或者使用射频波来调整粒子的速度分布。
-我还应该查找一些相关的文献或教材，看看这些不稳定性是如何被具体分析的，包括它们的线性稳定性分析、增长率的计算，以及在实际装置中的观测结果。这样可以帮助我更深入地理解这些概念，并验证我的初步想法。
-总之，我需要从基本概念出发，理解速度空间不稳定性的工作原理，分析它们在聚变等离子体中的具体表现和影响，并探讨如何在工程设计中加以应对。通过系统地梳理这些知识点，我相信能够全面回答这个问题。
-&lt;/think&gt;
-### 速度空间不稳定性
+          <t>### 速度空间不稳定性
 #### 1. 核心结论
 速度空间不稳定性是由于等离子体中不同速度的粒子流相互作用而引起的不稳定性，常见于中性束注入和波加热场景，可能导致能量耗散和等离子体约束恶化。
 #### 2. 背景与概念
@@ -6296,7 +5553,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -6322,16 +5579,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好的，我现在要分析一下宏观MHD不稳定性（比如Kink模）和微观漂移波不稳定性（比如ITG/ETG模）的区别。首先，我得理解这两种不稳定性的基本概念和它们各自的特点。
-宏观MHD不稳定性主要是在大的空间尺度上发生的，涉及整个等离子体的宏观运动。而微观漂移波不稳定性则是在更小的尺度上，涉及离子和电子的漂移运动。这两种不稳定性都是在托卡马克等聚变装置中研究的重要现象。
-首先，驱动机制方面。宏观MHD不稳定性如Kink模，通常是由等离子体的压强梯度和磁场的相互作用引起的。压强梯度提供了驱动力，而磁场的几何结构则会影响不稳定性的发生。例如，Kink模可能在低β条件下更容易发生，β是等离子体压强与磁压强的比值。当β较低时，磁场对等离子体的约束能力较弱，容易引发Kink模。
-而微观漂移波不稳定性如ITG模和ETG模，驱动机制主要来自离子和电子的温度梯度。ITG模主要由离子温度梯度驱动，而ETG模则由电子温度梯度驱动。这些不稳定性涉及更小的尺度，通常在离子尺度或电子尺度上发生。它们与粒子的运动速度和温度梯度的相互作用有关，可能通过不同的漂移运动引发。
-接下来是空间尺度。宏观MHD不稳定性如Kink模的空间尺度通常是托卡马克装置的大尺寸，比如主磁场的尺度，可能在米级左右。而微观漂移波不稳定性则发生在更小的尺度上，如离子惯性长度或电子惯性长度，通常在厘米级或更小。这种尺度的差异意味着它们在装置中的位置和影响区域不同。
-时间尺度方面，宏观MHD不稳定性通常发展较慢，时间尺度可能在秒级或更长。而微观漂移波不稳定性则发展得更快，时间尺度可能在毫秒级甚至更短。这种快速的发展意味着它们可能在等离子体中引发更频繁的小尺度扰动，影响输运性质。
-对等离子体的影响方面，宏观MHD不稳定性可能导致大的形变，甚至引发等离子体失稳，破坏约束，导致放电终止。例如，Kink模可能导致等离子体柱的扭曲，影响聚变反应的持续进行。而微观漂移波不稳定性则主要影响等离子体的输运性质，如热传导和粒子输运，增加热损失，降低能量 confinement 时间。这些微观不稳定性虽然不影响整体形状，但对聚变装置的性能有重要影响，因为它们直接影响到能量的保持和输出。
-总结一下，宏观MHD和微观漂移波不稳定性在驱动机制、空间尺度、时间尺度和对等离子体的影响上都有显著的不同。理解这些差异对于设计和优化聚变装置，控制等离子体行为，提高聚变反应的效率和稳定性非常重要。在实验中，可以通过调整磁场结构、温度梯度和压强分布来控制这些不稳定性，从而优化装置的性能。
-&lt;/think&gt;
-### 比较分析宏观MHD不稳定性与微观漂移波不稳定性
+          <t>### 比较分析宏观MHD不稳定性与微观漂移波不稳定性
 #### 核心结论
 宏观MHD不稳定性（如Kink模）与微观漂移波不稳定性（如ITG/ETG模）在驱动机制、空间尺度、时间尺度及对等离子体影响方面存在显著差异，这些差异对聚变装置的设计和运行具有重要指导意义。
 #### 背景与概念
@@ -6362,7 +5610,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -6388,25 +5636,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在要解决的问题是如何利用先进的等离子体诊断技术，比如ECE成像、微波反射计和软X射线阵列，来研究和识别不同类型的MHD不稳定性，如磁岛结构、模结构以及增长率。作为刚开始学习这个领域的人来说，这个问题有点复杂，但我还是可以一步步理清楚。
-首先，我得理解什么是MHD不稳定性。MHD是磁流体力学的缩写，它研究的是等离子体在电磁力作用下的运动。MHD不稳定性指的是等离子体在特定条件下发生的不稳定性现象，比如磁岛结构和模结构，这些不稳定性可能导致等离子体的失控，影响聚变反应的进行。
-接下来，我需要了解问题中提到的三种诊断技术：ECE成像、微波反射计和软X射线阵列。这些诊断工具各有特点，可能用于不同方面地观测MHD不稳定性。
-1. **ECE成像（电子回旋发光成像）**：
-   - ECE诊断通过检测等离子体中的电子回旋辐射，可以提供电子温度的二维分布图像。当发生MHD不稳定性时，等离子体的温度分布可能会出现扰动，比如磁岛的形成。因此，ECE成像能够捕捉到这些温度的变化，从而识别磁岛结构及其动态行为。
-2. **微波反射计**：
-   - 微波反射计测量的是等离子体对微波的反射特性，这通常与等离子体的密度分布有关。在MHD不稳定性中，密度的不均匀分布（如模结构中的密度波动）会导致微波反射信号的变化。通过分析反射计的数据，可以识别出模结构的存在及其随时间的变化。
-3. **软X射线阵列**：
-   - 软X射线阵列检测的是高能量电子或离子的运动轨迹，这些轨迹可能受到磁场结构的影响。在磁岛结构中，磁场的扭曲会导致软X射线的发射位置发生变化。因此，通过软X射线图像，可以识别出磁岛结构及其位置的动态变化。
-接下来，我需要思考这些诊断技术如何结合起来，帮助识别和研究MHD不稳定性中的不同方面，比如磁岛结构、模结构和增长率。
-- **磁岛结构**：主要通过ECE成像和软X射线阵列来检测。ECE成像显示温度分布的变化，而软X射线则显示磁场结构的变化，两者结合可以确定磁岛的位置、大小和运动。
-- **模结构**：主要利用微波反射计，因为模结构涉及到密度的周期性变化。反射计可以测量这些密度波动，分析其空间和时间特性，从而识别模结构的存在和类型。
-- **增长率**：需要通过所有三种诊断技术的时间序列数据来分析。通过观察不稳定性随时间的演变，可以计算出增长率，即不稳定性发展的速度。
-在实际操作中，可能需要同时使用多种诊断技术，因为单一技术可能只能提供部分信息。例如，ECE成像和软X射线阵列可以提供磁场和温度的信息，而微波反射计则提供密度的信息。结合这些数据，可以更全面地分析MHD不稳定性。
-不过，我也意识到，这些诊断技术各自可能有不同的局限性。例如，ECE成像可能对某些特定区域的观测效果不佳，或者微波反射计可能受到等离子体参数变化的影响。因此，在实验设计时，需要考虑如何优化这些诊断工具的使用，以获取最准确的数据。
-最后，我还需要考虑这些诊断结果的实际应用。例如，识别出MHD不稳定性后，聚变装置的设计可能需要进行调整，以避免或减缓这些不稳定性的影响，从而提高聚变反应的稳定性和效率。
-综上所述，利用ECE成像、微波反射计和软X射线阵列可以分别从温度、密度和磁场结构等方面观测和识别MHD不稳定性，结合这些技术可以全面分析不稳定性类型及其动态特性。
-&lt;/think&gt;
-为了利用先进的等离子体诊断技术研究和识别MHD不稳定性，可以按照以下步骤进行：
+          <t>为了利用先进的等离子体诊断技术研究和识别MHD不稳定性，可以按照以下步骤进行：
 1. **选择适当的诊断工具**：
    - **ECE成像**：用于检测等离子体的温度变化，识别磁岛结构。
    - **微波反射计**：用于测量密度分布，识别模结构。
@@ -6429,7 +5659,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -6455,15 +5685,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好，我现在要回答关于“种子岛”在新经典撕裂模（NTM）发展过程中的关键作用，以及哪些物理过程或事件可能提供种子岛。首先，我需要理解什么是种子岛，它在NTM中的作用是什么。
-种子岛是指在托卡马克等离子体中，初始的小尺度磁结构，能够触发NTM的形成和发展。这些种子岛通常由等离子体中的不稳定性和微扰动产生，例如错误场、边缘局部模式（ELMs）或锯齿活动。
-接下来，我需要考虑有哪些物理过程或事件可能导致这些种子岛的出现。首先，错误场是一个关键因素。错误场是指实际装置中存在的非理想磁场，如铁磁材料的影响或制造误差。这些错误场会导致磁面的破裂，产生撕裂模，从而形成种子岛。
-其次，边缘局部模式（ELMs）也是可能的触发因素。ELMs是等离子体边缘的周期性放电现象，可能引起局部的密度和压力扰动，导致磁场的重新连接，从而形成种子岛。锯齿活动则是指等离子体中发生的周期性振荡，可能引发局部的不稳定性，导致磁结构的形成。
-此外，还有其他可能导致种子岛的因素，如外部扰动、加热射频波的不稳定性，以及与诊断设备或材料相互作用产生的效应。这些因素都可能在等离子体中产生初始的磁结构，进而触发NTM。
-在分析这些因素时，我需要考虑它们各自的物理机制、产生条件以及对NTM发展的具体影响。例如，错误场的强度和分布决定了种子岛的形成和NTM的触发位置。而ELMs和锯齿活动则可能通过能量和密度的脉动，影响种子岛的生长和演替。
-最后，我需要总结这些物理过程对NTM发展的关键作用，并提出可能的控制和缓解策略，如优化磁场配置、减少错误场影响、抑制ELMs和锯齿活动等，以提高聚变装置的稳定性和性能。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 种子岛是新经典撕裂模（NTM）发展的必要条件，其主要来源包括错误场、边缘局部模式（ELMs）和锯齿活动等物理过程。
 ---
 ### 背景与概念  
@@ -6516,7 +5738,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -6542,16 +5764,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在要设计一个针对ITER等未来聚变装置的不稳定性综合控制策略。这个问题看起来有点复杂，但我得一步步来。首先，我得弄清楚不稳定性在聚变装置中都有哪些类型，它们各自的特点是什么，以及它们对装置运行的影响。
-我记得不稳定性主要有磁流体不稳定性（MHD）和射频不稳定。MHD不稳定性包括像高n模式、低n模式，比如 tearing和sausage模式，这些通常是由于等离子体的压力梯度或流速变化引起的。而射频不稳定性可能与离子回旋共振等现象有关，影响等离子体加热和电流驱动。
-接下来，我需要考虑控制这些不稳定的手段。题目中提到了剖面控制、主动反馈和ELM缓解。剖面控制主要调整等离子体的密度、温度和电流分布，以防止不稳定的触发。主动反馈系统，比如RMPs（可控磁扰动器）和束反馈，用于实时检测并抑制不稳定的增长。ELM缓解则涉及到像NBI注入、微扰磁扰动等方式来减少边缘等离子体的不稳定性。
-然后，权衡这些控制手段的有效性和工程可行性。剖面控制虽然有效，但对诊断和控制系统的实时性要求很高，实现起来可能比较复杂。主动反馈需要高精度的传感器和快速响应的执行机构，这对工程设计是个挑战，但效果可能很好。ELM缓解虽然有效，但可能会影响整体的等离子体性能，如能量约束等。
-我还需要考虑各个控制手段的协同作用。可能单独使用某一种手段并不能完全解决问题，需要多种手段结合，比如用剖面控制调整等离子体的初始状态，同时配合主动反馈来及时修正不稳定。
-另外，我得思考这些控制策略在实际工程中的可行性，比如成本、复杂度、维护等因素。比如，RMPs虽然有效，但需要额外的磁线圈和控制系统，增加了装置的复杂性和成本。而ELM缓解可能需要额外的中性束注入设备，这也会增加装置的负担。
-最后，我得确保整个策略能够适应不同运行条件下的变化，比如不同等离子体参数、不同加热方式等。可能需要开发灵活的控制系统，能够根据实时数据调整控制策略。
-总结一下，我需要从不稳定性的类型入手，分析各种控制手段的优缺点，然后综合考虑工程可行性和实际效果，设计一个全面的控制策略，可能需要结合剖面控制、主动反馈和ELM缓解等多种方法，并确保系统的灵活性和适应性。
-&lt;/think&gt;
-针对ITER等未来聚变装置设计的不稳定性综合控制策略，涉及多方面的考量和权衡。以下是详细的分步说明：
+          <t>针对ITER等未来聚变装置设计的不稳定性综合控制策略，涉及多方面的考量和权衡。以下是详细的分步说明：
 1. **识别不稳定性类型**
    - **磁流体不稳定性（MHD）**：包括 tearing 模、sausage 模等，通常由等离子体的压力梯度和流速引起。
    - **射频不稳定性**：与等离子体加热和电流驱动相关，如离子回旋共振引起的不稳定性。
@@ -6636,7 +5849,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -6662,22 +5875,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好，我现在需要比较托卡马克的L模、H模和I模运行的主要特征，包括边缘输运垒、ELM行为、粒子与能量约束以及杂质输运特性，并解释为什么I模被认为是未来反应堆有吸引力的运行模式。
-首先，我应该回顾一下L模、H模和I模的基本概念。L模是低约束模式，H模是高约束模式，而I模则是一种改进的高约束模式。接下来，我需要分别分析每个模式在各个特征方面的情况。
-关于边缘输运垒，我记得H模和I模都有明显的输运垒，这有助于改善约束，而L模则没有。边缘输运垒的存在会减少等离子体从核心向外的输运，从而提高约束性能。
-ELM行为方面，H模通常伴随着ELMs（边缘局域模），这会导致能量爆发性地损失，可能对装置壁造成冲击。I模在某些情况下能够抑制ELMs，或者以更温和的方式释放能量，从而减少对设备的损害。
-粒子与能量约束方面，H模比L模更好，I模则在H模的基础上进一步提升，提供了更好的约束性能，意味着更高的聚变增益。
-杂质输运特性方面，L模的杂质扩散较快，H模有所改善，而I模通过优化边界条件，进一步减少了杂质的输运，有助于维持等离子体的高纯度，这对于聚变反应至关重要。
-接下来，为什么I模被认为是未来反应堆有吸引力的运行模式？主要是因为I模结合了高约束和低或无ELM的特点，这意味着更高的聚变增益和更低的壁负载，同时还能更好地控制杂质。这些特性使得I模在未来的聚变反应堆设计中具有很大的潜力，因为它能够提高效率，减少维护需求，并延长装置的运行寿命。
-在整理这些信息时，我需要确保每个部分的分析都清晰明了，并且正确地比较了各个模式的特点。同时，应该突出I模的优势，以及这些优势如何满足未来聚变反应堆的需求。
-总结一下，我的思考过程包括：
-1. 明确每个模式的基本概念和特性。
-2. 分别分析每个模式在边缘输运垒、ELM行为、粒子与能量约束以及杂质输运特性方面的情况。
-3. 对比分析不同模式之间的优劣。
-4. 确定I模为什么更适合未来反应堆，主要是因为其综合优势，如高约束、低ELM、良好的杂质控制等。
-在写作过程中，需要确保逻辑清晰，每个部分都有足够的细节支持结论，并且使用专业术语准确描述每个概念和分析过程。同时，要注意保持客观性和严谨性，避免主观猜测。
-&lt;/think&gt;
-### 比较托卡马克的L模、H模和I模运行的主要特征
+          <t>### 比较托卡马克的L模、H模和I模运行的主要特征
 托卡马克装置的运行模式直接影响其性能和稳定性。以下是L模、H模和I模在关键特征方面的比较：
 #### 1. 边缘输运垒
 - **L模**：缺乏显著的边缘输运垒，粒子和能量的输运主要通过核心区域。
@@ -6706,7 +5904,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -6732,28 +5930,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好吧，我现在要解决两个问题：首先是估算托卡马克等离子体启动阶段所需的最小环向电场，也就是Paschen最小场；然后是推导中心螺线管所需的磁通变化量ΔΨCS的表达式。让我先理清思路，逐步分析。
-首先，第一个问题：估算击穿所需的最小环向电场，也就是Paschen最小场。我记得在气体放电物理中，Paschen定律描述了击穿电压与气体压力和电极间距离的关系。不过这里是在托卡马克等离子体启动阶段，所以可能与传统的Paschen定律有所不同。我需要回忆一下托卡马克启动过程中的放电机制。
-托卡马克在启动时，通常需要在环向磁场中建立等离子体，这时候等离子体的形成可能涉及到放电过程。环向电场可能在其中起到关键作用，帮助建立初始的电流。根据聚变物理的知识，击穿电压可能与环向电场有关，特别是当气体被电离时。可能涉及的参数包括气体压力、环向磁场强度、等离子体的半径等。
-然后是第二个问题：推导中心螺线管所需的磁通变化量ΔΨCS的表达式。这里涉及到等离子体电流从0驱动到Ip，时间为Δt，已知等离子体电感Lp和电阻Rp。中心螺线管通过其磁场变化来驱动等离子体电流。根据法拉第电磁感应定律，变化的磁通会产生电动势，进而驱动电流。
-首先，我需要回顾法拉第定律：感应电动势等于磁通量的变化率乘以匝数。不过这里的螺线管可能与等离子体相互作用，所以可能需要考虑等离子体的电感和电阻。等离子体电流Ip的变化率是Ip/Δt，中心螺线管的磁通变化ΔΨCS应该与这个电流变化有关。
-不过这里可能需要考虑等离子体本身的电感。等离子体电流变化时，其电感会产生感应电动势。另外，电阻也会产生压降。所以中心螺线管的磁通变化需要克服这两部分的影响。
-让我一步一步来推导：
-1. 等离子体电流变化率：dI/dt = Ip/Δt。
-2. 根据法拉第定律，感应电动势E = Lp * dI/dt + Rp * I。
-   这里的Lp是等离子体的自感，Rp是等离子体的电阻。
-3. 但是，中心螺线管产生的磁场变化会通过互感影响等离子体电流。假设中心螺线管和等离子体之间的互感为M，那么中心螺线管的磁通变化ΔΨCS会产生电动势E = M * ΔΨCS / Δt。
-   不过，如果中心螺线管直接与等离子体构成回路，那么可能有直接的关系，比如总磁通等于中心螺线管磁通加上等离子体的自感磁通。
-4. 另一种方法是考虑等离子体的V = I * R + L * dI/dt，这里的V是外部提供的电压，即由中心螺线管提供的感应电动势。
-   因此，V = Lp * (Ip/Δt) + Rp * Ip。
-5. 而V也是由中心螺线管的磁通变化引起的，根据法拉第定律，V = ΔΨCS / Δt。
-6. 将V代入，得到 ΔΨCS / Δt = Lp * (Ip/Δt) + Rp * Ip。
-7. 两边同时乘以Δt，得到 ΔΨCS = Lp * Ip + Rp * Ip * Δt。
-8. 这样，中心螺线管所需的磁通变化量ΔΨCS就等于等离子体电感乘以电流，加上电阻乘以电流和时间Δt的乘积。
-不过，这可能是一个简化的推导，假设了一些条件。我需要验证一下是否正确，或者是否有其他因素需要考虑。例如，是否有互感效应，或者是否需要考虑螺线管的匝数和磁场分布等。但根据题目要求，可能只需要考虑等离子体的电感和电阻，而不需要涉及更复杂的因素。
-总的来说，我认为推导是正确的，最终表达式为ΔΨCS = Lp * Ip + Rp * Ip * Δt。
-&lt;/think&gt;
-### 击穿所需的最小环向电场（Paschen最小场）
+          <t>### 击穿所需的最小环向电场（Paschen最小场）
 #### 1. 核心结论
 托卡马克等离子体启动阶段的Paschen最小场为 $\mathbf{E}_{\text{min}} = \frac{V_{\text{breakdown}}}{R}$，其中 $V_{\text{breakdown}}$ 是击穿电压，$R$ 是托卡马克的大环径。
 #### 2. 背景与概念
@@ -6811,7 +5988,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -6837,16 +6014,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，用户问的是托卡马克中等离子体位形精确控制的重要性以及如何实现，特别是关于垂直不稳定性及其快速反馈控制系统设计。让我先理清楚这些问题。
-首先，等离子体位形精确控制的重要性。记得托卡马克中的等离子体必须保持特定的形状，否则会影响约束效果，甚至导致等离子体破裂。比如，如果位形偏离目标，可能会造成边缘区域的热负荷过大，或者降低能量约束效率。这些都是工程设计中必须考虑的因素。
-然后是位形控制的实现方法。主要应该是利用外部的磁场控制装置，比如线圈和馈线系统。这些设备能够产生所需的磁场来维持等离子体的形状。闭环控制策略是关键，可能涉及到反馈控制，实时调整线圈电流以应对位形的变化。
-接着是垂直不稳定性，这部分比较复杂。垂直不稳定性是指等离子体在垂直方向上的不稳定性，会导致等离子体突然偏离平衡位置，这对装置的安全运行是个严重威胁。快速反馈控制系统必须能够迅速检测到这种不稳定，并在极短时间内做出调整，稳定等离子体。
-在讨论快速反馈控制系统设计时，需要考虑传感器的类型和布局，反馈算法的响应速度和鲁棒性，以及执行机构的快速反应能力。可能还需要仿真模拟来验证系统的有效性，确保在各种工况下都能稳定运行。
-用户可能需要这些信息来理解托卡马克装置的运行机制，或者在设计控制系统时提供参考。因此，我应该详细解释每一步的重要性，以及实际操作中的挑战和解决方案。
-另外，可能还需要提到一些典型的参数，比如控制系统的响应时间，反馈算法的类型，以及传感器的精度要求。这些具体的技术细节可以帮助用户更好地理解系统的实现。
-总之，我需要系统地阐述每个部分，从背景到实现方法，再到控制系统设计，确保用户能够全面掌握托卡马克中等离子体位形控制的相关知识。
-&lt;/think&gt;
-### 托卡马克中等离子体位形控制的重要性及其实现方法
+          <t>### 托卡马克中等离子体位形控制的重要性及其实现方法
 #### **1. 核心结论**
 托卡马克中等离子体位形的精确控制对于维持高约束态、优化能效、避免破裂和减少壁-等离子体相互作用至关重要。垂直不稳定性是其中最具威胁的不稳定性之一，需要通过快速反馈控制系统进行实时抑制。
 ---
@@ -6903,7 +6071,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -6929,14 +6097,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于托卡马克破裂的问题。首先，我得理解什么是托卡马克破裂。托卡马克是一种用于磁约束核聚变的装置，通过强磁场来约束高温等离子体。破裂应该是指这种约束突然失效，导致等离子体失去控制的现象。
-接下来，问题要求列举几种主要的破裂前兆和触发机制。我记得破裂前兆可能包括等离子体参数的异常变化，比如温度、密度或电流突然变化。触发机制可能涉及内部或外部扰动，比如边缘不稳定、电流不平衡或者外部扰动如射频波干扰。
-然后，讨论破裂对装置的危害，特别是第一壁和真空室。危害可能包括热负荷过高、电磁力破坏结构，还有逃逸电子造成的损伤。热负荷过高可能导致材料熔化或损坏，电磁力可能引起结构变形或破裂，逃逸电子则可能造成局部区域的高能粒子损伤。
-我需要进一步细化每个部分。在破裂前兆方面，可能包括边缘局域模（ELMs）、边缘撕裂、分层电流分布和垂直位移。这些现象可能表明等离子体的稳定状态即将被打破。触发机制可能包括扰动导致的撕裂不稳定、外部干扰引起的磁流线破裂，或者内部重组织过程如电流片的形成。
-在危害方面，热负荷主要指等离子体快速释放能量到结构材料上，导致温度骤升。电磁力可能是因为等离子体流动突然变化，产生的电流导致结构承受巨大应力。逃逸电子则可能穿透材料，造成辐射损伤或材料活化。
-最后，总结破裂的后果及其对装置设计和运行的影响，强调监测和预防的重要性。
-&lt;/think&gt;
-托卡马克破裂是指在磁约束核聚变装置中，等离子体约束突然失效，导致高温高密度的等离子体快速释放能量，对装置结构造成严重损害的现象。以下是详细分析：
+          <t>托卡马克破裂是指在磁约束核聚变装置中，等离子体约束突然失效，导致高温高密度的等离子体快速释放能量，对装置结构造成严重损害的现象。以下是详细分析：
 ### 破裂前兆和触发机制
 1. **破裂前兆**
    - **边缘局域模（ELMs）**：等离子体边缘区域出现周期性能量释放，表现为温度、密度和电势的局部波动。
@@ -6964,7 +6125,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -6990,15 +6151,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好，我现在要回答关于托卡马克破裂预测和规避技术的综述，以及人工智能/机器学习方法在实时破裂预测中的优势和挑战。首先，我需要理清楚托卡马克破裂的基本概念，然后了解传统的预测和规避方法，接着分析AI/ML的应用情况。
-首先，托卡马克破裂是指等离子体约束失败，导致能量迅速释放，可能损坏装置。我需要回顾托卡马克的运行机制，比如磁约束、等离子体参数等，以便更好地理解破裂的原因。
-接下来，综述主要的破裂预测技术。传统的预测方法可能包括对等离子体参数的监测，如温度、密度、磁场变化等。还有可能涉及到各种诊断技术，比如软X射线诊断，用于检测等离子体的不稳定性。规避技术方面，可能涉及主动控制，比如施加外部磁场或射频波，或者改变运行参数，比如压力或电流。
-然后，AI/ML在实时预测中的优势。实时预测需要快速的数据处理和分析，AI/ML能够处理大量的多源数据，并从中提取复杂的模式和特征。机器学习模型，如神经网络，可以在训练后快速分类或预测破裂的发生，这对于及时规避非常重要。此外，AI/ML可以处理非线性问题，这对于等离子体这种复杂的系统来说是优势。
-挑战方面，实时性是关键。AI/ML模型需要在极短的时间内做出预测，这对计算能力和算法效率提出了很高要求。数据质量也是一个问题，等离子体诊断的数据可能噪声大，如何提高模型的鲁棒性是关键。此外，模型的可解释性不足可能影响操作人员的信任，需要在模型设计中考虑这一点。
-现在，我需要将这些思考整合成一个结构清晰的回答，按照用户的指示，分成几个部分，包括背景与概念、传统预测技术、AI/ML的优势和挑战，以及工程意义等。同时，确保每个部分都有足够的细节，比如列举具体的诊断方法和控制措施，给出示例，如射频波的使用，以及数据预处理和降噪的方法。
-最后，要点总结需要强调AI/ML在实时预测中的潜力，同时指出需要解决的挑战，比如计算速度和数据质量，以促进其在实际中的应用。
-&lt;/think&gt;
-### 综述主要的托卡马克破裂预测和规避技术
+          <t>### 综述主要的托卡马克破裂预测和规避技术
 #### 背景与概念  
 托卡马克装置是磁约束核聚变研究中最重要的实验装置之一。其核心目标是通过强大的磁场将高温等离子体约束在真空室中，实现聚变反应。然而，托卡马克运行过程中可能由于等离子体的不稳定性或边界条件的变化导致“破裂”（Disruption），这是一种等离子体约束突然失效、能量迅速释放的现象，可能对装置造成严重损害。因此，破裂预测和规避技术是托卡马克运行中的关键课题。
 #### 主要破裂预测技术  
@@ -7058,7 +6211,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -7084,17 +6237,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在要讨论托卡马克破裂缓解的主要策略，特别是大规模气体注入（MGI）和碎裂弹丸注入（SPI）。我需要先理解这两种方法的基本概念、工作原理，然后比较它们的优缺点，还要看看它们在SPARC和ITER装置上的应用前景。
-首先，大规模气体注入（MGI）是什么呢？我记得MGI是通过快速向托卡马克等离子体中注入大量气体，通常是氦气或氮气，来中和等离子体中的带电粒子，从而减少电磁力。这样可以有效地缓解或抑制破裂现象。破裂是等离子体突然失去约束，导致能量迅速释放，可能对装置造成损害。
-那碎裂弹丸注入（SPI）又是怎么回事呢？SPI听起来像是用固体弹丸在破裂时高速射入等离子体。固体弹丸通常用的是钨，当它们进入高温等离子体时会迅速汽化，释放出大量原子。这些原子同样可以中和等离子体中的电荷，减少电磁力，从而缓解破裂。
-接下来，我需要比较这两种方法的优缺点。MGI的优势可能包括设计相对简单，控制气体注入的速度和量比较容易，成本可能也比较低。缺点呢，可能注入大量气体需要处理排出的气体，这可能带来一些问题。此外，过量的气体可能导致等离子体性能下降，比如温度降低或密度增加，影响聚变反应效率。
-SPI的优点是速度更快，可能在破裂发生时更及时地注入物质，效果更显著。固体弹丸的使用可能更精确，控制注入的位置和时机可能更好。缺点可能是设计和操作更复杂，高速射弹丸需要精准的控制系统，成本可能更高。此外，钨在等离子体中的汽化可能留下残留物，影响等离子体的纯净度，或者增加对装置壁的侵蚀风险。
-关于它们的物理机制，MGI主要是通过气体的快速中和作用，降低等离子体的电荷密度，从而减弱电磁力。而SPI则是通过固体弹丸的快速汽化，同样达到中和电荷的效果，但速度和注入量可能有所不同。
-在SPARC和ITER装置上的应用前景方面，我需要考虑这些装置的规模和运行条件。SPARC是一个紧凑型的托卡马克，可能更倾向于使用 SPI，因为它需要快速反应，而且设计上可能更适应弹丸的高速注入。而ITER是一个大型装置，可能更适合使用 MGI，因为它的设计和控制系统可能更适合处理大量气体的注入，同时考虑到成本和操作复杂性。
-不过，这可能不是绝对的，实际应用中可能需要结合具体的情况进行选择，或者甚至同时使用多种方法来提高破裂缓解的效果。
-最后，我需要总结一下，MGI和SPI各有优劣，选择哪种方法取决于装置的具体需求、技术限制以及经济成本。未来的研究可能还会改进这些技术，或者开发新的破裂缓解策略，以提高托卡马克装置的稳定性和安全性。
-&lt;/think&gt;
-### 一、核心结论
+          <t>### 一、核心结论
 托卡马克破裂缓解的两种主要策略为大规模气体注入（MGI）和碎裂弹丸注入（SPI），两者各有优劣，MGI适合于需要快速响应的破裂缓解，而SPI则适用于高能量密度和快速加热的场景。两种方法的物理机制均基于中和等离子体中的带电粒子，减少电磁力，从而抑制破裂。在实际装置中，如SPARC和ITER，可能会根据装置的规模和运行条件选择适用的方法。
 ### 二、背景与概念
 托卡马克是一种环形磁约束核聚变装置，通过强磁场约束高温等离子体以实现聚变反应。然而，在某些情况下，等离子体可能会发生破裂，导致能量迅速释放，可能对装置造成严重损害。因此，破裂缓解是托卡马克运行中的关键问题。大规模气体注入（MGI）和碎裂弹丸注入（SPI）是两种主要的破裂缓解策略。
@@ -7131,7 +6274,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -7157,16 +6300,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好，我现在需要分析托卡马克和仿星器在稳态或长脉冲运行中面临的关键挑战。我先从问题要求开始分解。问题提到了四个关键点：连续加热与电流驱动、热量和粒子排除、等离子体与壁的长期相互作用，以及部件可靠性。
-首先，连续加热和电流驱动。托卡马克主要使用中性束注入和射频波加热，而仿星器可能更多依赖射频波。我需要考虑这些方法的效率、稳定性和持续性。比如，中性束注入可能会受到束与等离子体相互作用的限制，射频波可能面临波的吸收和反射问题。
-接着是热量和粒子排除。托卡马克通常有特定的排渣系统，比如偏滤器，而仿星器可能有更复杂的几何形状来帮助排渣。我需要分析这些系统在长时间运行中的效率和可靠性。比如，偏滤器在托卡马克中可能会积累杂质，影响等离子体性能，而仿星器的几何排渣可能需要更精细的控制。
-然后是等离子体与壁的相互作用。长时间运行会导致壁材料被侵蚀，产生杂质，这些杂质会进入等离子体，降低性能。托卡马克和仿星器在这方面的挑战可能不同，比如托卡马克可能更关注偏滤器的寿命，而仿星器可能更关注整个壁材料的均匀侵蚀。
-最后是部件的可靠性。长时间运行需要设备能够承受高热流、高辐射和机械应力。这涉及到材料科学和工程设计，比如选择耐高温、耐辐射的材料，设计冗余系统和维护策略。
-在分析每个挑战时，我需要结合托卡马克和仿星器的结构特点，找出它们的差异和共同点。例如，托卡马克的高能粒子驱动电流可能面临维持稳定的问题，而仿星器的自举电流可能受磁位形的影响。热量排除方面，仿星器可能有更好的几何排渣，但排热效率可能不如托卡马克的设计。
-此外，等离子体与壁的相互作用会影响长期运行的可行性。例如，托卡马克中的偏滤器可能会因高热流而损坏，而仿星器可能需要复杂的结构来减少壁的侵蚀。部件的可靠性则涉及材料选择和设计优化，以确保装置在长脉冲下不会故障。
-总结来说，我需要系统地分析每个挑战，比较托卡马克和仿星器的不同情况，指出它们各自面临的问题，并讨论可能的解决方案或技术发展方向。这将帮助我全面回答用户的问题，提供有深度的见解。
-&lt;/think&gt;
-### 分析实现托卡马克和仿星器稳态或长脉冲运行的关键挑战
+          <t>### 分析实现托卡马克和仿星器稳态或长脉冲运行的关键挑战
 托卡马克和仿星器作为磁约束聚变装置，实现稳态或长脉冲运行是其最终目标之一。以下是实现这一目标所面临的关键挑战，包括连续的加热与电流驱动、热量和粒子排除、等离子体与壁相互作用的长期演化以及部件的可靠性。
 ---
 #### 1. **连续加热与电流驱动**
@@ -7229,7 +6363,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -7255,14 +6389,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在需要解释误差场的来源以及它对托卡马克等离子体稳定性的影响，比如锁模现象。然后还要说明如何通过精密的线圈制造、安装和主动误差场补偿线圈来控制误差场。
-首先，误差场指的是实际托卡马克装置中的磁场与理想状态下的磁场之间的差异。误差场的来源可能有很多，比如线圈制造的不精确，安装时的位置偏差，还有线圈之间相互作用产生的磁场畸变。这些误差场会导致等离子体中的磁面发生变形，进而影响等离子体的稳定性。
-接下来，误差场对等离子体稳定性的影响，特别是在锁模现象中。锁模指的是等离子体被限制在磁场的特定区域内，无法自由运动，导致等离子体稳定性下降。误差场会改变磁场的结构，使得等离子体中的磁面变得扭曲，从而引发锁模现象。
-现在，如何通过精密的线圈制造、安装和主动误差场补偿线圈来控制误差场呢？精密的线圈制造可以减少线圈本身的形状误差，从而减少误差场的产生。而精密的安装则可以确保线圈的位置准确，减少由于位置偏差导致的误差场。主动误差场补偿线圈则是一种更主动的控制方法，通过实时监测误差场，并利用补偿线圈产生的磁场来抵消误差场，从而维持磁场的理想状态。
-不过，在实际操作中，这些方法可能会受到一些限制。比如，精密制造和安装需要更高的技术和成本，而主动补偿线圈需要复杂的控制系统和实时监测设备，这可能增加装置的复杂性和维护难度。
-总的来说，误差场是托卡马克装置中一个不可忽视的问题，它会影响等离子体的稳定性，特别是引发锁模现象。通过精密的线圈制造、安装和主动误差场补偿线圈，可以在一定程度上控制误差场，提高等离子体的稳定性。然而，这些方法在实施过程中可能会面临一些技术和经济上的挑战，需要综合考虑各种因素来优化解决方案。
-&lt;/think&gt;
-### 误差场的来源及其对托卡马克等离子体稳定性的影响
+          <t>### 误差场的来源及其对托卡马克等离子体稳定性的影响
 #### 核心结论
 误差场来源于线圈制造与安装偏差及材料不均匀性，导致等离子体磁面变形，可能引发锁模，影响稳定性。通过高精度制造安装和主动补偿可有效控制误差场。
 #### 背景与概念
@@ -7293,7 +6420,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -7319,20 +6446,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于在长脉冲或稳态运行条件下，等离子体控制系统（PCS）需要具备哪些先进功能的。特别是如何同时控制动理学剖面（温度、密度、旋转）和磁面位形。首先，我得理解什么是 PCS，PCS 是用来控制等离子体的各种参数，以确保聚变反应的稳定和高效进行。
-那么，长脉冲或稳态运行意味着等离子体需要长时间保持稳定，这对 PCS 的控制能力提出了更高的要求。动理学剖面包括温度、密度和旋转，这些都是影响聚变反应的重要因素。同时，磁面位形也非常重要，因为它决定了等离子体的形状和磁约束的效果。
-接下来，我需要考虑 PCS 的先进功能应该包括哪些方面。首先，实时监测是必须的，这样才能及时获取等离子体的状态参数，比如温度、密度、位置等。多目标优化控制也是一个关键点，因为 PCS 需要同时控制多个参数，而这些参数之间可能存在相互影响，需要找到一个平衡点。
-协同控制也是需要的，因为 PCS 可能需要与其他系统，如加热系统、磁铁系统等协同工作，才能实现有效的控制。智能算法的引入，比如机器学习或自适应控制，可以提高系统的响应速度和控制精度，适应等离子体状态的变化。
-鲁棒性设计也是必须的，因为等离子体在长脉冲运行中可能会受到各种扰动，PCS 必须能够在这些扰动下保持稳定。此外，故障诊断和容错控制也是必不可少的，以确保在系统出现故障时，PCS 能够继续安全运行。
-现在，我需要详细分析如何实现对动理学剖面和磁面位形的同时控制。动理学剖面的控制涉及到温度和密度的梯度，以及旋转的分布。这些参数的变化会影响等离子体的稳定性，比如温度梯度过大可能导致不稳定的磁流体动力学（MHD）活动。因此，PCS 需要能够实时调整加热功率、射频波或中性束注入，以维持合适的温度和密度分布。
-磁面位形的控制则涉及到托卡马克的磁铁配置，如中心螺线管和平衡线圈，这些用于生成所需的磁场来维持等离子体的形状。PCS 需要根据实时监测的等离子体形状，调整磁铁的电流，确保等离子体保持在设计的位形中，避免因位形变化导致的约束失效或不稳定。
-同时控制这两个方面需要一种多目标优化的方法，因为调整动理学剖面可能会影响到磁面位形，反之亦然。例如，增加加热功率以提高温度可能会影响等离子体的压力分布，进而影响磁面位形。因此，PCS 需要能够综合考虑这些相互影响，找到最优的控制策略。
-此外，协同控制也是关键，PCS 需要与其他子系统如加热系统、磁铁系统等协调工作，确保每个系统的调整不会互相干扰，而是共同促进等离子体的整体稳定性。例如，当调整射频波加热来改变温度梯度时，PCS 需要同时调整磁铁的电流以维持磁面位形，避免因温度变化导致的位形畸变。
-在实现这些功能时，PCS 还需要具备鲁棒性，能够处理各种扰动和不确定性，如等离子体突然的变化或外部干扰。智能算法的应用可以提高系统的适应性，使其在面对复杂变化时仍能保持稳定。
-最后，PCS 需要具备故障诊断和容错能力，能够在系统部分故障的情况下，调整控制策略，继续安全运行，避免因小问题导致整个实验中断或设备损坏。
-综上所述，PCS 在长脉冲或稳态运行条件下需要具备多目标优化、协同控制、智能算法、鲁棒性设计、故障诊断等先进功能，以实现对动理学剖面和磁面位形的同时控制，确保聚变反应的高效和稳定进行。
-&lt;/think&gt;
-在长脉冲或稳态运行条件下，等离子体控制系统（PCS）需要具备以下先进功能，以实现对动理学剖面（温度、密度、旋转）和磁面位形的同时控制：
+          <t>在长脉冲或稳态运行条件下，等离子体控制系统（PCS）需要具备以下先进功能，以实现对动理学剖面（温度、密度、旋转）和磁面位形的同时控制：
 ### 核心结论
 PCS需要具备实时监测、多目标优化控制、协同控制、智能算法、鲁棒性设计、故障诊断和容错控制等先进功能。
 ### 背景与概念
@@ -7353,7 +6467,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -7379,14 +6493,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于仿星器和托卡马克在等离子体运行和控制方面的本质区别，特别是仿星器是否也存在破裂现象，以及其运行边界的决定因素。首先，我需要回顾一下仿星器和托卡马克的基本结构和工作原理。
-托卡马克是一种环形磁约束装置，使用强大的环形磁场和附加的极性磁场来 confinement 等离子体。而仿星器则通过三维的磁结构，通常由多组线圈产生复杂的磁场，来提供等离子体的磁约束。两者在磁场结构上的不同可能导致运行行为的不同。
-接下来，破裂现象。在托卡马克中，破裂（Disruption）通常是由于等离子体失去稳定性，导致突然的能量释放和内部磁岛的形成，这可能损坏装置的结构。而仿星器的三维磁场结构可能在一定程度上抑制这种不稳定性，因为磁场线的复杂性可能限制了某些类型扰动的成长。因此，仿星器可能不会经历像托卡马克那样剧烈的破裂现象。
-然后是运行边界。对于托卡马克，运行边界通常由等离子体的 beta 限制决定，即等离子体压强与磁压的比值，超过这个限制会导致不稳定性。而仿星器的运行边界可能由多个因素共同决定，包括各向异性、磁场的复杂性导致的非线性效应，以及电阻和磁场重联等因素。此外，仿星器可能有多个独立的约束区域，每个区域都有自己的运行边界，这可能增加了控制的复杂性。
-我还需要考虑仿星器的具体参数，比如磁场的复杂程度、等离子体的密度和温度，这些都会影响运行边界。三维磁场的非对称性可能导致等离子体在不同区域的行为不同，这可能需要更精细的控制策略。
-最后，总结仿星器和托卡马克在这些方面的差异，强调仿星器的独特优势，比如抗破裂能力，但也可能面临新的挑战，如更复杂的控制和边界条件。
-&lt;/think&gt;
-### 1. 核心结论
+          <t>### 1. 核心结论
 仿星器与托卡马克在等离子体运行控制方面的本质区别在于：仿星器通过复杂的三维磁场结构天然抑制某些不稳定性（如破裂），运行边界由磁场非线性、各向异性以及电阻效应等因素决定，而托卡马克运行主要受等离子体 β 限制和磁流体力学 (MHD) 不稳定性主导。
 ---
 ### 2. 背景与概念
@@ -7485,7 +6592,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -7511,16 +6618,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好吧，我现在需要比较中性束注入（NBI）、电子回旋共振加热（ECRH）和离子回旋共振加热（ICRH）这三种主要的辅助加热方法。作为刚接触聚变等离子体物理的学生，我对这些加热方法还不是很熟悉，所以得仔细想一想，逐步分析它们各自的优缺点。
-首先，我应该从每种方法的基本原理开始。中性束注入，我记得是利用中性粒子束直接注入等离子体。这些中性粒子应该是被电离的，或者直接通过碰撞加热等离子体。电子回旋共振加热，这个名字听起来和微波加热有关，可能涉及到电子的回旋共振频率，把微波能量转化为等离子体的能量。离子回旋共振加热，和ECRH类似，但应该是针对离子的回旋频率，这样能直接加热离子。
-接下来，能量耦合机制。中性束注入应该是通过粒子与等离子体的碰撞来传递能量，所以这可能依赖于等离子体的密度，因为碰撞率高的时候才能更有效地传递能量。而ECRH和ICRH则是通过电磁波与等离子体相互作用，利用波的共振来传递能量，所以它们的效率可能与等离子体的频率和波的频率是否匹配有关。
-加热效率方面，我听说NBI的效率可能相对较低，因为中性粒子需要先被电离，才能有效地加热等离子体，而且还有可能在被电离前就失去部分能量。而ECRH和ICRH，特别是ECRH，因为是直接加热电子，可能效率更高，特别是在需要提高电子温度时。不过，这里可能有些混淆，因为不同的加热方法有不同的目标，比如NBI可能更擅长加热离子，而ECRH加热电子，ICRH可能同时影响离子和电子，这可能影响它们的效率。
-对等离子体参数的影响方面，NBI因为主要加热离子，所以可能会增加离子温度，而对电子温度的影响较小。ECRH主要加热电子，所以电子温度会上升，可能对密度分布也有影响，因为温度的变化会影响等离子体的分布。ICRH可能同时加热离子和电子，或者更侧重于加热离子，具体取决于频率的设置，因此可能会影响温度和电流分布，因为加热方式会影响电流驱动。
-技术挑战方面，NBI可能需要复杂的中性束源，而且这些中性束可能在进入等离子体时会与容器壁或者其他结构发生相互作用，导致一些损失。同时，中性束注入器可能容易受到等离子体杂质的影响。ECRH和ICRH可能面临波的传输和反射的问题，如何有效地将波传递到等离子体内部，而不被反射或者吸收在错误的位置，这是一个挑战。此外，高频波可能对设备的要求很高，需要高功率的微波源，同时还要处理波与等离子体相互作用时可能产生的各种非线性效应。
-现在，我需要整理这些想法，看看是否有遗漏或者错误的地方。比如，NBI是否真的效率低，或者在某些情况下效率反而高？而ECRH和ICRH是否在特定频率下更有效？另外，这些方法对等离子体参数的影响可能在不同的运行条件下有所不同，所以可能需要考虑更多的细节。
-总的来说，我应该从物理原理、能量耦合、加热效率、对参数的影响以及技术挑战这几个方面逐一比较这三种方法，确保每个方面都分析到位，并指出它们各自的优缺点和适用场景。
-&lt;/think&gt;
-### 比较中性束注入（NBI）、电子回旋共振加热（ECRH）和离子回旋共振加热（ICRH）的分析
+          <t>### 比较中性束注入（NBI）、电子回旋共振加热（ECRH）和离子回旋共振加热（ICRH）的分析
 #### 1. 物理原理
 - **中性束注入（NBI）**：利用中性粒子束直接注入等离子体，粒子与等离子体中的离子发生碰撞，将其动能转化为热能，从而加热等离子体。
 - **电子回旋共振加热（ECRH）**：通过微波与等离子体中的电子发生回旋共振，将微波能量传递给电子，加热等离子体。
@@ -7547,7 +6645,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -7573,20 +6671,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于ITER计划中使用的1 MeV中性束注入系统的关键技术特点和挑战，以及如何通过实验监测NBI的性能，特别是沉积剖面。我对这个问题了解不多，所以需要一步一步来思考。
-首先，我需要理解什么是中性束注入系统。中性束注入（NBI）是一种用于加热等离子体和驱动电流的技术，常用于托卡马克装置如ITER。中性束的优势在于它不会受到磁场的影响，可以直接注入等离子体，进行有效的加热。
-接下来，关键技术特点可能包括负离子源的产生、中性化过程、束线传输、功率沉积控制等。挑战可能涉及高功率束流的产生和传输，束流的稳定性，以及如何精确控制功率沉积的位置和分布。
-然后，关于实验监测NBI的性能，特别是沉积剖面。沉积剖面指的是中性束在等离子体中沉积的能量分布。要监测这个，可能需要使用各种诊断工具，比如 Langmuir 探针、闪烁器、干涉仪等，来测量等离子体参数的变化，从而推断出能量沉积的位置和分布。
-现在，我需要详细分析每个部分。首先是负离子源的产生。负离子源需要产生高密度、高能量的负离子束，这在技术和工程上具有挑战性。负离子的产生通常通过电弧放电或者射频驱动的方法，但需要处理离子的提取和加速过程，同时保持高效率和稳定性。
-中性化过程是将负离子束转化为中性原子束。常用的方法是通过气体中性化或通过偏转磁场分离和中性化。中性化效率对整个系统的性能至关重要，因为未中性化的离子可能会被磁场偏转，无法有效注入等离子体，甚至可能损坏装置的结构。
-束线传输涉及将中性束传输到托卡马克的注入端口。这需要考虑束流的几何形状、传输过程中的散射、真空条件以及束线的磁性设计等因素。长距离传输可能导致束流的损失和扩散，影响能量沉积的均匀性。
-功率沉积控制需要精确控制中性束在等离子体中的能量沉积位置和分布。这可能涉及束流注入角度的调整、束流能量的调节以及束流注入的位置控制。有效的功率沉积控制对于维持等离子体的稳定性和实现高约束模式至关重要。
-在实验监测方面，可以通过多种诊断手段来监测NBI的性能。例如，使用Langmuir探针测量等离子体的电子温度和密度，利用干涉仪和散射仪测量等离子体的密度分布，以及使用中性束光谱学来分析注入束流的中性化效率和能谱。
-在 ITER 计划中，NBI系统还需要与其他加热和电流驱动系统（如射频波加热）协调工作，以实现高效的等离子体加热和电流驱动。此外，系统的可靠性和稳定性对于长期运行和实验的持续性至关重要。
-可能的挑战包括负离子源的效率和寿命，束线传输中的损失和散射，功率沉积的精确控制，以及诊断系统的准确性和实时性。这些挑战需要通过技术创新、材料选择、精确的控制系统以及全面的诊断方案来克服。
-总的来说，1 MeV中性束注入系统在ITER计划中的应用涉及多个复杂的技术环节，每个环节都面临独特的挑战。通过先进的设计、高质量的工程实现以及全面的实验监测，可以确保NBI系统的性能达到预期，为ITER的等离子体实验提供有效的加热和驱动。
-&lt;/think&gt;
-### 1. 中性束注入系统的技术特点
+          <t>### 1. 中性束注入系统的技术特点
 #### 1.1 负离子源的产生
 - **技术特点**：负离子源负责生成高密度、高能量的负离子束，通常采用电弧放电或射频驱动技术。
 - **挑战**：确保高效稳定的负离子产生，同时处理离子提取和加速过程中的损失。
@@ -7613,7 +6698,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -7639,18 +6724,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好吧，我现在要解决的问题是关于电子回旋电流驱动（ECCD）在控制新经典撕裂模（NTM）中的应用。这个问题分为两部分，第一部分是讨论ECCD的控制原理，第二部分是估算稳定NTM所需的ECCD驱动电流ICD的大小。此外，还需要讨论如何通过调整发射镜角度精确控制ECCD的功率沉积位置。
-首先，我需要回忆一下什么是NTM。NTM是新经典撕裂模，它是一种由于等离子体中的磁流面破坏而产生的不稳定性。这种不稳定性会导致磁岛的形成，影响聚变反应的效率和装置的稳定性。ECCD作为一种电流驱动方法，通常用于等离子体加热和电流生成，但在这里被用来控制NTM。
-接下来，我需要理解ECCD的基本原理。ECCD是利用高频波（通常是电子回旋频率附近的微波）与等离子体中的电子相互作用，通过电子的回旋运动来驱动电流。当微波被电子吸收后，电子获得动量，导致电流的产生。这种电流可以用来稳定或控制NTM。
-现在，针对第一部分，ECCD如何控制NTM。根据已有的知识，ECCD可以通过在特定位置沉积电流来改变等离子体中的电流分布，从而影响磁流面的稳定性。如果ECCD驱动的电流能够在NTM产生的区域附近产生足够的电流，就能抑制磁岛的增长，甚至稳定NTM。
-对于第二部分，估算ICD的大小。已知磁岛宽度为W，位于半径r处，安全因子为q。我需要找到一个简化模型，可能涉及到电流与磁岛宽度和安全因子的关系。或许可以使用某种扰动分析，将ECCD产生的电流作为扰动，分析其对磁岛的影响。假设电流扰动ΔI与磁岛宽度W成比例，可能需要引入安全因子q的影响，因为它反映了磁流面的缠绕情况。
-然后，考虑如何调整发射镜角度来精确控制ECCD的功率沉积位置。发射镜角度决定了微波波束的方向，从而影响其在等离子体中的沉积位置。通过调整角度，可以改变波束与等离子体磁场的相互作用，进而调整沉积功率的区域。这需要对ECCD系统的指向控制有一定的了解，可能涉及到如何利用波束的方向性来定位到特定的半径r。
-在估算ICD的过程中，可能需要假设一些参数，比如等离子体的电子密度、温度，以及微波的频率和功率。这些参数会影响ECCD的效率，从而影响所需的电流大小。同时，还需要考虑磁岛的演化过程，判断在什么时刻施加ECCD驱动电流才能最有效地抑制NTM。
-最后，我需要将这些分析组织起来，按照用户给定的答题规范，分步骤进行说明。从核心结论开始，逐步深入到背景、原理推导、定量估算，以及工程意义等方面。确保在每一步中都清晰明了，逻辑严谨，同时注意单位的规范使用和方程的正确表达。
-在这个过程中，可能会遇到一些不确定的地方，比如具体的模型选择，或者某些参数的具体数值。这时候需要假设合理的数值或者指出这些参数的典型范围，以支持估算。此外，还需要考虑控制发射镜角度的具体方法，可能需要涉及到光学系统的设计和控制机制，这在聚变装置的工程设计中是非常重要的。
-总的来说，我需要系统地梳理ECCD在NTM控制中的应用，从理论到实际估算，再到工程实现，确保每个部分都详细而准确。这不仅需要扎实的物理知识，还需要对聚变装置的工程设计有一定的了解，以提供切实可行的解决方案。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 电子回旋电流驱动（ECCD）通过在新经典撕裂模（NTM）的磁岛区域沉积特定方向的电流，可以有效抑制磁岛的生长。所需驱动电流 ICD 的大小与磁岛宽度 W 和安全因子 q 成正比，具体为 $ICD \approx \frac{B_0 W}{\mu_0 r} \cdot \frac{1}{q}$。调整发射镜角度可以精确控制ECCD的功率沉积位置，使其与磁岛区域对齐。
 ---
 ### 2. 背景与概念  
@@ -7686,7 +6760,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -7712,19 +6786,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好吧，我现在得仔细想想如何解释离子回旋共振加热（ICRH）中的两种加热机制：少数离子加热和模式转换加热。然后还要分析ICRH天线设计及其与等离子体耦合的主要物理和工程问题。
-首先，ICRH的基本原理是什么呢？我知道它是利用离子回旋频率附近的射频波加热等离子体。那少数离子加热机制是怎样的？应该是当等离子体中有比主要离子浓度低的少数离子时，射频波激发这些离子的回旋共振，导致它们被有效加热。这种机制尤其适用于托卡马克装置，因为那里主要离子通常是氘或氚，而少数离子比如氢，可以被单独加热，提供额外的热量，或者用于特定的等离子体控制。
-那少数离子加热机制的关键是什么？应该涉及到波与离子的相互作用，以及如何选择频率和波的特性，使得只有特定的离子被加热，而其他离子不被影响。可能还需要考虑等离子体的密度、温度、磁场强度等因素，因为这些参数会影响离子的回旋频率和波的传播特性。
-接下来，模式转换加热机制。这个机制我记得是利用波在不同模式之间的转换，比如从快波到慢波，这样在特定的层内发生共振，从而将能量传递给等离子体。这可能涉及到波在等离子体中的传播特性，比如波数、频率以及等离子体参数的空间分布。模式转换可能发生在不同的区域，如等离子体内部或边缘，从而实现对不同区域的加热。
-然后，天线设计和等离子体耦合的问题。这可能包括天线的几何设计、材料选择、冷却系统等工程问题。同时，物理问题可能包括波的传播效率、匹配问题、等离子体对天线的影响，比如鞘层效应、杂质产生等。
-杂质产生是一个关键问题，因为杂质会影响等离子体的性能，降低能量约束。ICRH天线可能会由于高功率射频波的发射，导致材料的溅射，产生杂质。因此，如何选择低溅射、耐高温的材料是天线设计的重要考虑因素。
-鞘层效应可能是指在天线表面附近，由于高频电场的作用，电子被加速到材料表面，导致材料损伤或失效。这会直接影响天线的寿命和性能，因此必须采取措施来减少鞘层效应，比如优化天线的设计，或者在天线表面涂覆保护层。
-此外，等离子体与天线的耦合效率也是一个关键因素。波是否能够有效地被等离子体吸收，而不是被反射或散射，这取决于天线的设计和等离子体的状态。需要考虑如何优化天线的频率、阻抗匹配等，以提高耦合效率。
-在工程实现上，天线需要承受高功率、高温、高辐射的环境。这要求材料具有高强度、耐腐蚀、耐辐射等特性。同时，冷却系统的设计也非常重要，以防止天线过热。
-最后，还要考虑诊断和控制系统。如何监测天线的状态，比如温度、功率输出等，以及如何根据等离子体的变化调整天线的参数，以维持高效的加热。这些都需要复杂的控制系统和诊断设备。
-总结一下，我需要从少数离子加热机制和模式转换加热机制的基本原理出发，解释它们的工作原理和应用。然后分析ICRH天线设计中的物理和工程挑战，如杂质产生、鞘层效应、材料选择、冷却系统、波的传播效率等。并提出可能的解决方案或注意事项，以优化天线性能和等离子体加热效果。
-&lt;/think&gt;
-离子回旋共振加热（ICRH）中的少数离子加热和模式转换加热机制以及天线设计中的问题如下所述：
+          <t>离子回旋共振加热（ICRH）中的少数离子加热和模式转换加热机制以及天线设计中的问题如下所述：
 ---
 ### 离子回旋共振加热中的少数离子加热机制
 1. **核心结论**  
@@ -7783,7 +6845,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -7809,15 +6871,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于低杂波电流驱动（LHCD）的物理原理以及它在托卡马克等离子体中的应用。首先，我需要明确LHCD的基本概念。低杂波是指频率较低的射频波，通常在等离子体的低频段，比如MHz量级。这些波被用来在等离子体中驱动电流，这对于维持托卡马克的稳态运行非常重要。
-接下来，我得理解LHCD的物理机制。它应该涉及到射频波与等离子体中的粒子相互作用。其中，朗缪尔波可能是一个关键因素。我需要回忆一下波粒相互作用的相关理论，特别是当波的频率接近等离子体的频率时会发生什么。可能涉及波的吸收、波的散射以及电流的产生。
-然后，问题提到了LHCD在等离子体边缘区域或较低温度下具有较高的电流驱动效率。这可能是因为在较低温度下，等离子体的电子温度较低，导致等离子体频率降低，而LHCD使用的波的频率正好适合这种情况，从而提高了波的吸收效率。或者，可能是因为在边缘区域，等离子体的密度较低，波更容易穿透，从而更有效地驱动电流。
-接下来，我需要讨论LHCD在托卡马克稳态运行和电流剖面控制中的作用和局限性。在稳态运行中，持续的电流驱动是必要的，因为托卡马克需要维持环向磁场来约束等离子体。LHCD可以提供这样的持续电流，而不需要外部线圈，从而减少外部输入的能量和复杂性。
-在电流剖面控制方面，LHCD可以帮助控制q剖面，也就是磁流函数的梯度，这对于避免不稳定性，如锯齿模不稳定性，非常重要。通过调节LHCD的波束方向和频率，可以影响电流的分布，从而调整q剖面。这有助于维持稳定的等离子体状态，减少运行中的波动和不稳定性。
-不过，LHCD也有一些局限性。例如，它对等离子体参数的变化比较敏感，如温度、密度和磁场的分布。如果这些参数变化太大，LHCD的效率可能会显著下降，甚至无法有效地驱动电流。此外，波的吸收和驱动电流的过程涉及到复杂的非线性效应，这使得精确控制电流分布变得困难。还有，波束的方向和频率选择需要精确控制，否则可能会导致波的反射或散射，降低效率。
-总的来说，LHCD在托卡马克等离子体的稳态运行和电流控制中起到了关键作用，但在实际应用中需要考虑其对等离子体参数的敏感性和复杂性，以确保其有效性和稳定性。
-&lt;/think&gt;
-**核心结论**  
+          <t>**核心结论**  
 低杂波电流驱动（LHCD）通过射频波与等离子体中带电粒子的相互作用，在托卡马克中驱动电流，尤其在边缘区域或低温等离子体中效率较高；它在托卡马克稳态运行和电流剖面控制中具有重要作用，但存在对等离子体参数敏感性等局限性。
 ### 背景与概念
 - **低杂波电流驱动（LHCD）**：利用频率在等离子体低频段（MHz量级）的射频波，通过与等离子体中带电粒子的相互作用，驱动环向电流。
@@ -7867,7 +6921,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -7893,13 +6947,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在得回答关于阿尔芬波加热的问题。首先，我得理解用户的需求。用户可能对聚变等离子体物理有一定了解，但可能不太熟悉阿尔芬波加热的具体细节。他们可能是一个学生或者研究人员，想要深入了解阿尔芬波加热的基本概念、快慢波的差异，以及在聚变装置中的应用。
-接下来，我需要回顾阿尔芬波加热的基本概念。阿尔芬波是一种在磁化等离子体中传播的横波，其传播机制依赖于洛伦兹力和等离子体的惯性。它们携带能量和动量，能够在等离子体中传播和沉积，这使得它们成为加热和驱动等离子体的一种潜在手段。
-然后，用户问快阿尔芬波和慢阿尔芬波的传播和吸收特性有何不同。快波和慢波的区别主要在于频率和传播速度。快波通常在高频率下传播，速度接近阿尔芬速度，而慢波速度较慢，可能涉及更低的频率。吸收特性方面，快波可能在密度梯度较大的区域被吸收，而慢波可能在更广泛的区域内吸收，包括磁剪切区域。动理学效应会影响吸收机制，快波可能更依赖于电子的响应，而慢波可能涉及到离子的运动。
-最后，阿尔芬波加热在未来的聚变装置中有何潜在优势？我想到的主要优势包括能够深度加热等离子体核心，而不仅仅是边缘；可以减少对材料壁的热负荷，这有助于延长设备寿命；阿尔芬波可以携带动量，帮助驱动等离子体的旋转，这对维持稳定性和抑制湍流有利；由于其高频特性，可能能够避免某些波与粒子共振，减少能量损耗。
-现在，我需要把这些思考整理成一个结构化的回答，按照用户给定的答题规范来组织内容，确保每个部分都涵盖关键点，并且清晰易懂。同时，要注意使用正确的物理术语和单位，必要时给出方程和示例，确保回答的严谨性和实用性。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 阿尔芬波加热是一种利用磁流体力学波（阿尔芬波）在等离子体中传播并沉积能量的加热方法。快阿尔芬波和慢阿尔芬波在传播速度、频率范围和吸收机制上存在显著差异，这决定了它们在等离子体加热中的不同应用。未来聚变装置中，阿尔芬波加热可能为实现高效、均匀的核心加热和动量注入提供潜在优势。
 ---
 ### 背景与概念  
@@ -7943,7 +6991,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -7969,18 +7017,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于电子伯恩斯坦波（EBW）加热的问题，以及它在某些特定等离子体条件下相对于传统电子回旋共振加热（ECRH）的优势。作为一个刚开始学习聚变等离子体物理的学生，我需要先了解什么是EBW和ECRH。
-首先，电子回旋共振加热（ECRH）是一种常见的加热方法，它利用高频电磁波在等离子体中与电子发生回旋共振，将能量传递给电子，进而加热等离子体。而电子伯恩斯坦波（EBW）加热听起来像是另一种利用电磁波的加热方法，可能涉及到不同的物理机制。
-我想，EBW可能涉及到电子回旋波的一种高阶模式，或者是在某种特定条件下传播的波。具体来说，EBW可能是一种在等离子体中可以有效传播到更远距离的波，或者在某些条件下比ECRH更高效。
-接下来，我需要回忆或查找相关资料，了解EBW的基本原理。EBW可能涉及到波在等离子体中的传播特性，比如频率、波长、传播方向等因素。此外，EBW可能涉及到与电子的相互作用，比如通过波粒相互作用将能量传递给电子。
-在考虑特定等离子体条件时，比如高密度和过密等离子体，ECRH可能面临一些挑战。高密度等离子体可能意味着等离子体中的电子浓度很高，这可能会影响电磁波的传播特性，如波的吸收、反射或折射。在ECRH中，如果等离子体的密度超过一定阈值，可能会导致波无法有效传播到目标区域，从而降低加热效率。
-而EBW在这种情况下可能有优势，因为它的频率可能在电子回旋频率的高阶次，或者它能够在更高密度的等离子体中有效传播。EBW可能能够克服ECRH在高密度条件下传播受限的问题，从而在过密等离子体中提供更有效的加热。
-此外，EBW可能具有更好的选择性加热能力，例如可以选择性地加热特定区域的电子，从而提高能量的利用率。这可能使得EBW在某些特定应用中更具优势。
-我还应该考虑EBW和ECRH在装置设计和操作上的区别。比如，EBW可能需要不同的天线或波导系统，或者需要特定的频率调谐，以确保波能够有效地传播并被等离子体吸收。
-另外，我还需要考虑实验和工程上的意义。比如，EBW加热可能在未来的聚变装置中提供一种新的加热方式，从而提高装置的效率和性能。此外，EBW加热可能在实验诊断中提供新的手段，帮助研究等离子体的性质和行为。
-最后，我应该总结EBW加热相对于ECRH的优势，特别是在高密度、过密等离子体条件下，EBW可能能够更有效地传播和加热等离子体，从而为聚变装置的设计和运行提供新的可能性。
-&lt;/think&gt;
-### 电子伯恩斯坦波（EBW）加热的原理及优势
+          <t>### 电子伯恩斯坦波（EBW）加热的原理及优势
 #### 原理
 电子伯恩斯坦波（EBW）加热是一种新兴的等离子体加热方法，其基本原理涉及利用高频电磁波与等离子体中的电子发生回旋共振。与传统的电子回旋共振加热（ECRH）相比，EBW加热利用的是电子回旋波的高阶模式，能够在等离子体中传播得更远，并且在特定条件下更高效地传递能量给电子。
 具体来说，EBW加热利用了电子的回旋运动特性，通过设计特定的波频率和传播方向，使电磁波能够有效地与等离子体中的电子发生相互作用。这种相互作用导致电子吸收电磁波的能量，从而加热等离子体。
@@ -8001,7 +7038,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -8027,17 +7064,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>好吧，我现在要详细分析一下DEMO等未来聚变电站对等离子体加热与电流驱动系统的要求，特别是效率、可靠性、可维护性以及与氚增殖包层的兼容性这几个方面。虽然我对聚变物理不是特别熟悉，但我会尽力根据已有的知识和资料进行分析。
-首先，效率方面。效率在这里指的是“wall-plug efficiency”，也就是从电网输入的能量到等离子体中实际用来产生聚变能量的比例。我记得ITER项目的目标是大约5%的效率，而DEMO的目标应该更高，可能在10%到20%之间。这可能是因为DEMO的设计更优化，能量损失更少。我需要确认一下，效率高的确意味着等离子体加热和电流驱动系统需要更高效地运行，可能在功率转换和减少热损失方面有改进。
-可靠性方面，聚变电站需要长时间稳定运行，不能频繁停机。加热和电流驱动系统如果不可靠，可能会导致等离子体不稳定性，甚至损坏设备。因此，系统需要冗余设计，可能有备用电源或者模块化结构，以便在某个部分故障时，其他部分可以继续工作。此外，设备需要能够承受高功率负载和长期运行的环境，比如高温和高辐射。
-可维护性也是一个关键因素。考虑到聚变装置的规模，维护工作必须高效且安全。加热系统可能需要模块化设计，这样在出现故障时，可以方便地更换或维修部件，而不会导致整个系统停运。另外，维护人员的安全也是考虑因素之一，系统设计应该尽量减少维护时的辐射暴露和其他危险。
-与氚增殖包层的兼容性方面，氚的自持生产是实现聚变电站商业化运营的重要条件。加热系统可能会影响包层的氚产生效率，比如中子通量和能量分布。因此，加热系统的布局和功率分布需要与包层设计协调，确保中子能够有效地撞击锂材料，生成氚。同时，加热系统产生的热负荷和电磁干扰也可能对包层造成影响，所以需要在设计时进行优化，以避免这些负面影响。
-接下来，我思考一下各个加热和驱动技术的选择。比如，离子回旋波加热、中性束注入、电子回旋波加热等，哪种更适合DEMO的需求。需要考虑它们的效率、可靠性和与包层的兼容性。离子回旋波可能在某些频率上有更好的吸收，而中性束注入则提供高能量的粒子，可能有助于维持等离子体的稳定性。
-不过，我不太确定这些技术在实际应用中的具体表现，特别是在大规模聚变电站中的表现。需要查阅相关资料，看看哪些技术已经被验证过，哪些还在研究阶段，以及它们在效率和可靠性方面的表现如何。
-在工程意义方面，高效系统意味着更低的运行成本和更高的能源产出。高可靠性则意味着更少的停机时间和更高的可用性，这对商业化运营至关重要。良好的可维护性则可以降低维护成本和时间，提高整体效率。与氚增殖包层的兼容性确保了氚的自持生产，这对聚变电站的可持续性至关重要。
-总结一下，DEMO等聚变电站对加热与驱动系统的要求非常严格，需要在效率、可靠性、可维护性和兼容性等多个方面进行权衡和优化。选择合适的加热技术，设计冗余和模块化的系统，以及与包层的协同设计，是实现这些目标的关键。
-&lt;/think&gt;
-对于DEMO等未来聚变电站，对等离子体加热与电流驱动系统的要求可以从以下几个方面进行分析：
+          <t>对于DEMO等未来聚变电站，对等离子体加热与电流驱动系统的要求可以从以下几个方面进行分析：
 ### 1. 效率（Wall-Plug Efficiency）
 - **目标**：DEMO的目标效率预计在10%到20%之间，高于ITER的5%。
 - **原因**：更优化的设计和更少的能量损失，特别是在功率转换和热管理方面。
@@ -8056,7 +7083,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -8082,18 +7109,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，今天遇到一个关于聚变等离子体加热和电流驱动方法协同效应的讨论问题，感觉有点挑战性，但也很有趣。我需要详细思考一下，才能给出一个全面的答案。
-首先，我得回忆一下NBI、ECRH和ICRH的基本原理和各自的特点。NBI是中性束注入，它通过注入高能中性粒子到等离子体中，这些粒子电离后会加热等离子体。ECRH是电子回旋共振加热，主要通过高频电磁波直接加热电子，效率高，但可能对离子影响较小。ICRH是离子回旋共振加热，同样使用电磁波，但频率与离子回旋频率相匹配，主要加热离子。
-接下来，问题是这些方法如何协同工作，优化温度、密度和电流剖面。我得思考每个方法的优势和局限，以及它们如何互补。比如，NBI在加热离子方面效果很好，但可能对电子的加热不够，而且会产生较大的径向动量输入，可能影响等离子体的稳定性和分布。ECRH则在加热电子方面很有效，但可能需要较高的密度才能有效，否则波的吸收效率会降低。ICRH在加热离子方面也不错，同时还能驱动电流，这在实现自持电流方面有优势。
-然后，我得考虑协同效应的具体表现。比如，NBI和ICRH都可以加热离子，但它们的加热区域可能不同，NBI在边缘加热较多，而ICRH在核心区域更有效。所以，组合使用可以实现更均匀的离子加热，避免热点。此外，ECRH可以补充电子的加热，特别是在边缘区域，帮助平衡离子和电子的温度，避免过热。同时，ICRH还能驱动电流，帮助维持等离子体的平衡，减少对其他电流驱动方法的依赖。
-再想想，这些方法如何影响等离子体的密度分布。NBI注入高能粒子，可能会在中心区域产生较高的密度，而边缘区域可能因为ECRH的加热导致密度较低。这可能有助于实现高密度的核心区域，同时避免过高的边缘密度，减少不稳定性，比如边缘局部模式（ELMs）的发生。
-电流驱动方面，ICRH和ECRH都能驱动电流，但ICRH主要在核心区域，而ECRH可能在更广泛的区域驱动。通过结合使用，可以实现更均匀的电流分布，减少电流斑点和磁岛的形成，提高等离子体的稳定性。NBI虽然本身不驱动电流，但其径向动量输入可能影响等离子体的流动，间接影响电流分布。
-接下来，我得考虑如何定量估算这些协同效应。比如，NBI加热离子的效果如何，ECRH加热电子的效果如何，ICRH在驱动电流方面的贡献有多大。可能需要引入一些典型参数，比如注入功率、频率、密度梯度等，来计算每个方法的贡献，并综合起来。
-在工程或实验意义方面，这种协同效应可以帮助优化聚变装置的设计和运行。例如，在ITER这样的装置中，合理搭配这些加热和电流驱动方法，可以实现更稳定的等离子体，减少运行中的不稳定性，提高聚变反应的效率。同时，也减少了对单一方法的过度依赖，提高了系统的灵活性和可靠性。
-最后，我得思考这些方法的比较与拓展。比如，除了这三种方法，还有其他加热和电流驱动方法，比如RF加热、微波加热等，它们各有优缺点。在不同的装置和运行条件下，可能需要选择最适合的组合。此外，未来的聚变装置可能需要更高效的加热和电流驱动方法，比如更高频率的波加热，或者更优化的束注入技术。
-总的来说，协同效应的关键在于综合利用各种方法的优势，弥补各自的不足，实现对等离子体温度、密度和电流剖面的综合优化控制。这需要深入理解每种方法的物理机制，合理分配功率，以及在实际实验中不断调整和优化参数。
-&lt;/think&gt;
-### 协同效应：通过NBI、ECRH和ICRH的组合实现等离子体优化控制
+          <t>### 协同效应：通过NBI、ECRH和ICRH的组合实现等离子体优化控制
 #### 1. **核心结论**
 通过合理组合NBI、ECRH和ICRH，可以实现对等离子体温度、密度和电流剖面的综合优化控制，提高聚变装置的稳定性和效率。
 ---
@@ -8142,7 +7158,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -8168,17 +7184,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在得分析高功率波加热系统中的关键技术部件在长脉冲、强辐射聚变环境下的材料和工程挑战。首先，我需要明确这些系统包括哪些部分，比如ECRH和ICRH，它们的大功率源、传输线、真空窗、发射天线这些部件。然后，我得考虑这些部件在长脉冲运行和强辐射环境下面临的问题。
-首先是大功率源，比如电子回旋加热器用的微波源，可能是像 gyrotrons 这样的设备。在长脉冲运行下，它们会遇到高热负载和耐久性问题。因为它们需要长时间高强度工作，材料可能会因为热量而受损，影响寿命。同时，强辐射可能对材料的性能有影响，比如材料的辐射硬化或者其他辐射损伤。
-传输线系统负责将微波从源传输到等离子体。在长脉冲下，传输线会面临高功率密度和电磁应力，可能导致材料疲劳或损坏。此外，传输线中的真空必须维持，以避免微波在大气中传播时的损耗和潜在的故障，所以真空维持也是挑战之一。
-真空窗是连接不同真空环境的关键部分。在高功率波传输时，真空窗可能承受很大的电磁应力和热应力，容易破裂。此外，强辐射可能会导致材料的寿命缩短，真空窗的材料需要有很高的耐辐射性和强度。
-发射天线负责将微波耦合到等离子体中，长时间高功率运行会导致天线材料承受极高的热负载和电磁应力。等离子体可能产生的反向功率也会对天线造成损害。此外，天线的几何形状可能需要频繁调整，材料的热膨胀和强度需要考虑，以避免结构变形或失效。
-从材料方面来看，耐高温、耐辐射、低热膨胀系数是关键要求。陶瓷材料可能适合，但它们可能比较脆，容易断裂。金属材料可能有更好的强度，但热膨胀系数较高，容易变形。复合材料可能结合两者的优点，但成本可能较高，制造工艺复杂。
-工程设计方面，冷却系统必须高效，能够及时带走大量热量，避免材料过热。结构设计需要考虑材料的热膨胀和机械强度，确保部件在长时间运行下的稳定性和可靠性。屏蔽和防护措施也很重要，以减少辐射对材料的损伤，并保证系统的安全运行。
-比较现有材料，陶瓷材料在耐高温和耐辐射方面表现优异，但脆性问题可能影响其应用。金属材料虽然强度高，但热膨胀系数大，可能在长期使用中变形。复合材料在性能上可能更均衡，但制造难度大，成本高。在实际应用中，可能需要根据具体情况进行选择，比如根据部件的工作环境、热负载和辐射强度等因素，综合考虑材料的性能和成本。
-最后，我需要总结这些部件在材料和工程设计上面临的主要挑战，并指出未来研究的方向，比如开发新的耐高温、抗辐射材料，优化冷却系统设计，提高部件的耐久性和可靠性。此外，实验验证和数值模拟也是重要的手段，帮助更好地理解和解决这些问题。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 高功率波加热系统的关键部件在长脉冲、强辐射环境下面临严峻的材料和工程挑战，包括高温负载、辐射损伤、机械应力、真空维持等问题，需采用耐高温、高强韧、抗辐射材料，并结合高效冷却和优化设计。
 ---
 ### 2. 背景与概念  
@@ -8310,7 +7316,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -8336,25 +7342,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，我现在要详细描述等离子体与壁相互作用（PMI）中的主要物理过程，包括物理溅射、化学溅射、热升华、反射、吸附、再沉积和氢同位素滞留。还要说明这些过程如何影响等离子体性能和PFC寿命。好，我先逐一理清楚每个过程的定义和物理机制。
-首先，物理溅射。这是指高能粒子（比如等离子体中的离子）撞击壁材料，导致壁材料的原子被溅射出去。这个过程涉及动量的传递，当入射离子的能量足够大时，就会导致靶原子的溅出。这个过程可能会导致壁材料的侵蚀，进而影响PFC的寿命。
-接下来是化学溅射。这可能与等离子体中的气体成分有关。当等离子体中的轻元素（比如氢、氦）注入到壁材料中，可能会在材料表面形成挥发性化合物，从而导致溅射。这种过程可能比物理溅射更复杂，因为它涉及到化学反应，可能会影响等离子体的组成。
-热升华则是壁材料在高热负荷下直接从固态变为气态的过程。这通常发生在材料的熔点附近，当热流密度很高时，材料会直接蒸发，而不经过液态。这个过程会导致材料损失，影响PFC的结构完整性。
-然后是反射过程。当等离子体中的粒子撞击壁时，部分粒子会被壁反射回去。这个过程取决于粒子的能量、入射角度以及壁材料的性质。反射率高的材料可能会保持更多的粒子在等离子体中，有助于维持等离子体的稳定性，但也可能增加对壁的热负载。
-吸附和脱附是指壁材料表面捕获等离子体中的粒子，然后在某些条件下释放这些粒子。例如，氢同位素可能被吸附在壁表面，在温度升高时再脱附回到等离子体。这个过程会影响等离子体的组成，可能对等离子体的性能产生显著影响。
-再沉积是溅射出来的粒子在等离子体中被重新沉积到其他表面的过程。这可能会形成新的涂层，影响等离子体的性能和壁材料的性质。例如，再沉积的杂质可能进入等离子体，导致等离子体性能的恶化。
-氢同位素滞留是指氢、氘、氚等同位素在壁材料中的捕获和储存。这可能通过吸附、渗透或化学结合等方式进行。滞留的氢同位素在等离子体运行中可能重新释放，这不仅影响等离子体的性能，还对安全产生影响，特别是在涉及氚的情况下。
-接下来，我需要分析这些过程如何影响等离子体性能和PFC寿命。物理溅射和化学溅射导致壁材料的损失，这会缩短PFC的寿命。同时，溅射出来的杂质进入等离子体，会增加杂质含量，降低等离子体的约束能力和能量 confinement 时间，从而影响聚变反应的效率。热升华同样导致材料损失，影响PFC的寿命，同时可能释放更多的杂质到等离子体中。
-反射过程影响等离子体的粒子分布和热负载分布。高反射率的材料可以减少粒子的损失，保持等离子体的高密度，但同时也可能增加壁的热负载，因为更多的粒子被反射回等离子体，而高能粒子的反射可能集中在某些区域，导致局部过热。
-吸附和脱附影响等离子体的氢同位素浓度。如果壁材料能够有效地捕获氢同位素，可能会降低等离子体中的氢浓度，影响聚变反应的燃料供应。而当温度升高时，氢同位素的脱附会增加等离子体中的氢浓度，这可能有助于维持聚变反应，但也可能导致更多的杂质释放，影响等离子体的稳定性。
-再沉积可能会在PFC表面形成一层杂质涂层，这可能改变PFC的性能，比如改变其热传导特性或电磁特性，从而影响等离子体的稳定性。此外，再沉积的杂质进入等离子体可能会降低等离子体的性能，如导致辐射损失增加。
-氢同位素滞留不仅影响等离子体中的燃料浓度，还可能对材料的氚库存管理产生影响。在核聚变堆中，氚是一种稀有的资源，因此滞留和释放的控制对燃料循环效率至关重要。此外，滞留在材料中的氚在高温下释放，可能影响等离子体的稳定性和安全性。
-综合来看，这些PMI过程相互关联，共同影响着等离子体的性能和PFC的寿命。为了优化聚变装置的性能，需要综合考虑这些过程，采取适当的壁材料和等离子体控制策略，以减少材料损失，控制杂质浓度，提高等离子体的稳定性和聚变效率。
-接下来，我需要考虑如何在实际中控制这些过程。例如，选择适当的壁材料，如低Z材料，可以减少溅射和杂质释放。改进等离子体的边界控制，如优化偏滤器设计，可以减少对壁的高热流密度的冲击，降低热升华和溅射的发生。此外，通过主动控制等离子体中的气体成分，可以调整吸附和脱附的平衡，从而调控氢同位素的浓度。
-在实验诊断方面，了解这些PMI过程的发生机制和影响因素是关键。例如，使用粒子诊断手段可以监测溅射和再沉积的过程，而中子诊断可以评估氢同位素的滞留情况。这些诊断数据有助于优化等离子体和壁材料的相互作用，延长PFC的寿命，提高聚变装置的整体性能。
-总的来说，等离子体与壁相互作用是一个复杂的过程，涉及多种物理机制。理解这些机制及其相互作用，对于设计和运行高效、长寿命的聚变装置至关重要。通过综合运用材料科学、等离子体物理和工程设计，可以有效控制这些相互作用，推动核聚变能的应用。
-&lt;/think&gt;
-等离子体与壁相互作用（PMI）是核聚变装置中的关键过程，涉及多种复杂的物理机制。以下详细描述这些主要过程及其对等离子体性能和PFC寿命的影响：
+          <t>等离子体与壁相互作用（PMI）是核聚变装置中的关键过程，涉及多种复杂的物理机制。以下详细描述这些主要过程及其对等离子体性能和PFC寿命的影响：
 ### 1. 物理溅射
 **定义与机制**：高能离子（如氢离子）撞击壁材料，导致靶原子被溅射出去。这主要由动量传递引发，当入射离子的能量超过一定阈值时，靶原子被弹出。
 **影响**：导致壁材料损失，缩短PFC寿命。溅射出的杂质进入等离子体，降低约束能力，影响聚变反应效率。
@@ -8390,7 +7378,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -8416,13 +7404,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好，我需要回答关于托卡马克偏滤器的主要功能以及如何估算热负荷的问题。首先，偏滤器的功能主要有三个：排出杂质、排出热负荷和提供等离子体边界。这些功能对于维持聚变反应的稳定非常重要。
-接下来，估算热负荷。题目给出总加热功率Pheat=100MW，其中50%通过偏滤器排出，也就是50MW。这个热量分布在总湿润面积Awetted=4m²上。计算平均稳态热负荷q_avg，就是总功率除以面积，单位为W/m²。
-所以，q_avg = 50,000,000 W / 4 m² = 12,500,000 W/m²，也就是12.5 MW/m²。
-现在讨论实际峰值热负荷可能远高于这个平均值的原因。偏滤器在等离子体边缘区域，可能会有局部的高热流密度。比如，等离子体的湍流或磁结构可能导致某些区域集中吸收更多的热量。此外，等离子体和偏滤器壁之间的相互作用可能产生热点，造成局部温度升高。这些因素都会导致峰值热负荷比平均值高很多，可能达到或超过100 MW/m²。
-总结一下，虽然平均热负荷是12.5 MW/m²，但实际峰值可能会高得多，需要在设计偏滤器时考虑这些因素，以确保材料能够承受高温，避免损坏。
-&lt;/think&gt;
-### 托卡马克偏滤器的主要功能
+          <t>### 托卡马克偏滤器的主要功能
 1. **核心结论**：托卡马克偏滤器的主要功能是排出等离子体中产生的杂质、排出热负荷以及提供等离子体与壁之间的缓冲区域。
 2. **背景与概念**：在托卡马克装置中，等离子体被限制在强磁场中，但在等离子体的边缘区域，离子和电子可能与装置壁发生相互作用。这些相互作用会产生杂质和热负荷，如果不加以控制，将导致等离子体性能下降和设备损坏。偏滤器的作用就是将这些杂质和热负荷引导并排出，同时减少等离子体与壁的直接接触。
 3. **原理与推导 / 机理分析**：偏滤器通过在等离子体边缘区域设置特定的结构，如靶板和导流部件，引导等离子体中的粒子流向特定区域。这些结构利用磁场的引导作用，将杂质和高能粒子引导到偏滤器的靶板上，从而减少它们对等离子体核心的影响。热负荷则通过靶板传导并排出。
@@ -8442,7 +7424,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -8468,16 +7450,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>嗯，今天遇到了一个关于聚变装置材料选择的问题，得仔细思考一下。问题是要比较钨（W）、铍（Be）和碳（C）基材料作为第一壁或偏滤器材料的优缺点，还要分析ITER为什么最初选择铍作为第一壁材料，后来在更新基线中改为钨。
-首先，我得回忆一下这三种材料的基本性能。钨是高熔点的金属，铍的熔点也挺高的，而碳的话，像石墨，熔点也很高。但它们作为第一壁材料，面临的挑战可能各不相同。
-钨的优点应该包括高熔点，所以能承受更高的热负荷，这对于聚变装置来说很重要，因为等离子体会产生很高的热量。此外，钨的溅射率可能比碳低，减少杂质进入等离子体，这对维持等离子体的稳定有好处。
-铍的话，我记得它作为第一壁材料时，能够反射中子，这样可以减少中子的损失，这对于聚变反应来说是好的。但铍的缺点可能在于辐照损伤和机械性能下降，这可能影响材料的寿命和可靠性。另外，铍可能会和水反应，带来安全问题。
-碳基材料，比如石墨，优点是成本低，加工容易，而且对中子的慢化效果好，这可能有助于中子能谱的管理。不过，碳的一个大问题是容易溅射，尤其是在高热流和粒子流下，这会导致碳杂质进入等离子体，影响聚变反应。另外，碳材料容易受到辐射损伤，结构可能被破坏，这也是一个大问题。
-然后，为什么ITER最初选择铍，后来改为钨呢？可能的原因有几个。首先，从技术成熟度来看，钨可能在材料处理和制造工艺上更成熟，特别是考虑到钨的溅射率低，可以减少等离子体污染，这对ITER的长期运行和性能提升有帮助。其次，铍虽然有反射中子的优点，但它辐照后的性能下降比较明显，这可能影响到装置的可靠性和寿命。另外，钨的高熔点允许更高的热负荷，这对于未来可能的高功率运行是必要的。而铍在高温下可能会变形，影响其结构稳定性。
-还有一个因素是维护和更换的成本。钨可能在维护方面更可靠，因为它的寿命可能更长，而铍如果容易损坏，可能需要更频繁的更换，增加成本和复杂性。
-所以，总的来说，ITER选择钨可能是综合考虑了材料的溅射特性、辐照性能、热传导能力和技术成熟度，认为钨在长期运行中表现更稳定，更适合未来更严苛的运行条件。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 钨（W）被选为ITER第一壁材料的主要考虑因素包括其低溅射率、高熔点、优异的热传导性能以及在高热流条件下的稳定性，这些特性优于铍（Be）和碳（C）基材料。
 ---
 ### 背景与概念  
@@ -8548,7 +7521,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -8574,16 +7547,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好吧，我现在得解释一下“脱靶”运行模式的物理机制，以及它对降低偏滤器靶板热负荷和粒子通量的意义。然后，还要分析实现和维持稳态脱靶运行面临的挑战。作为一个刚开始学习聚变等离子体物理的学生，这对我来说有点挑战，不过我会慢慢理清楚。
-首先，我需要明确什么是“脱靶”运行模式。根据之前的课程，我知道偏滤器（divertor）是用来排出核聚变反应中产生的高能粒子和杂质的重要部件。正常情况下，等离子体沿着磁力线流动，撞击到偏滤器的靶板上，这就导致了靶板的高热负荷。而脱靶运行模式应该就是让这些粒子偏离直接撞击靶板，从而降低热负荷和粒子通量。
-那脱靶是怎么实现的呢？我记得托卡马克装置中的偏滤器通常通过磁场配置来引导等离子体的流动。在高密度或高辐射条件下，可能在偏滤器区域形成一个辐射冷却的层，导致等离子体密度突然增加，这种密度的梯度会改变磁力线的流动路径，使得大部分粒子在到达靶板之前就被捕获或引导到其他区域，这就是所谓的脱靶现象。
-接下来，我需要理解这一机制对降低热负荷和粒子通量的意义。首先，脱靶运行可以通过辐射层消耗等离子体的能量，减少直接撞击靶板的能量，从而降低热负荷。其次，辐射层还能捕获更多的粒子，减少到达靶板的粒子数量，进而降低粒子通量。
-现在，我需要深入探讨脱靶运行的具体物理过程。通常，偏滤器区域的等离子体在高温高密度下会发生强烈的辐射冷却，特别是当氢、氦等轻元素被电离时，会产生大量的辐射。这些辐射会带走大量的热能，导致等离子体温度下降，密度增加。在这样的情况下，磁力线可能因为密度梯度而发生弯曲，形成一个闭合的环路，使得大部分粒子在到达靶板前就被困在辐射层内。
-接下来，关于如何实现和维持稳态脱靶运行。首先，需要精确控制等离子体的参数，如密度、温度和杂质含量，以触发并维持辐射层的形成。这可能涉及到调节注入的气体种类和速率，以及优化磁场的配置。其次，由于脱靶运行通常在较高的密度下发生，必须平衡高密度带来的好处与可能的负面影响，比如对等离子体稳定性的影响。
-维护稳态脱靶运行面临的主要挑战之一是等离子体参数的稳定性。一旦偏滤器区域的密度波动过大，可能导致辐射层的不稳定性，进而影响整个运行状态。此外，脱靶运行可能会导致其他区域的热负荷增加，因此需要综合考虑整个装置的热分布情况。另外，高密度运行可能增加等离子体中的杂质浓度，影响核聚变反应的效率，这也是需要克服的问题。
-总结一下，脱靶运行通过在偏滤器区域形成辐射层，改变磁力线路径，减少靶板的热负荷和粒子通量。然而，要实现稳态运行，需要克服参数控制、热分布和杂质管理等多方面的挑战。
-&lt;/think&gt;
-**脱靶运行模式的解释**
+          <t>**脱靶运行模式的解释**
 1. **脱靶运行模式的物理机制**
    脱靶运行模式是一种在核聚变装置中使用的偏滤器运行方式，其核心在于通过改变等离子体的流动路径，降低偏滤器靶板的热负荷和粒子通量。在托卡马克装置中，偏滤器通过磁场引导等离子体中的高能粒子和杂质排出。在正常运行中，这些粒子直接撞击靶板，导致高热负荷。
    脱靶运行模式通过在偏滤器区域形成辐射冷却层来实现。当等离子体密度较高且辐射强烈时，偏滤器区域的等离子体温度降低，密度增加，形成一个密度梯度。这个梯度改变了磁力线的路径，使得大部分粒子在到达靶板之前被捕获或引导到其他区域，从而减少直接撞击靶板的粒子数量。
@@ -8604,7 +7568,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -8630,16 +7594,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我现在需要讨论聚变堆中PFC材料的腐蚀、迁移和再沉积问题，以及这些过程如何导致混合材料层的形成和氚的共沉积，还要考虑如何用原位诊断监测PFC表面状态的演化。
-首先，我应该理解PFC是什么，PFC指的是第一壁和偏滤器组件，这些是托卡马克等聚变装置中直接与高温等离子体接触的部件。材料的选择对聚变反应的成功至关重要，因为它们需要承受极端的热负荷和粒子流。
-腐蚀是指材料与周围环境（这里是高温等离子体）发生反应，导致材料性能下降。在聚变装置中，等离子体中的离子和中性粒子可能会轰击PFC材料，导致材料被侵蚀。迁移是指被侵蚀的材料原子从一个区域移动到另一个区域，可能是因为高能粒子的冲击或者温度梯度。再沉积则是指这些迁移的材料在其他地方积累，可能改变表面的结构和性能。
-混合材料层的形成是由于不同材料的原子在迁移过程中混合，最终在某个地方沉积下来，形成一个由多种材料组成的层。氚的共沉积可能是因为氚这种轻元素在迁移过程中与其他材料结合，特别是在PFC表面形成层状结构时，氚可能被包含其中，导致氚的损失和可能的释放问题。
-关于原位诊断，我需要考虑哪些技术可以在装置运行中监测PFC的状态。例如，光谱诊断可以分析被侵蚀的材料种类和浓度，X射线反射可以检测表面形貌的变化，质谱仪可以监测释放的气体，特别是氚的存在。此外，中子成像可能有助于观察深层的结构变化。
-在工程意义方面，了解这些过程有助于改进材料的选择和设计，防止材料的过度侵蚀和混合层的形成，从而提高聚变装置的可靠性和效率。对于氚的管理，防止氚的流失和控制其释放对聚变能的实际应用至关重要。
-我觉得可能需要更详细地探讨每个过程的机理，比如腐蚀的具体机制，迁移的动力学，以及再沉积的具体条件。同时，原位诊断技术的选择需要考虑其在高辐射环境下的可行性，以及是否能够提供实时的数据。
-总之，我需要系统地分析PFC材料的腐蚀、迁移和再沉积过程，解释它们如何导致混合材料层和氚的共沉积，并提出有效的监测方法来评估这些变化，以便优化聚变装置的性能和氚的管理。
-&lt;/think&gt;
-### PFC材料的腐蚀、迁移和再沉积问题分析
+          <t>### PFC材料的腐蚀、迁移和再沉积问题分析
 #### 1. 核心结论
 PFC材料的腐蚀、迁移和再沉积导致混合材料层的形成，并促进氚的共沉积。这些过程可以通过多种原位诊断技术进行监测，以优化装置运行和氚管理。
 #### 2. 背景与概念
@@ -8670,7 +7625,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -8696,22 +7651,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>好，我来看看用户的问题。他想知道高Z杂质，比如钨，进入等离子体芯部会带来哪些不利影响，还有偏滤器在屏蔽这些杂质和排出聚变灰（氦）方面的作用，以及讨论杂质输运的物理机制。
-首先，我需要明确高Z杂质是什么。高Z指的是原子序数高的元素，像钨（Z=74）这样的材料常用于托卡马克的偏滤器，因为它们耐高温。但一旦这些杂质进入等离子体，尤其是芯部，就会带来问题。
-那么，高Z杂质会对等离子体产生哪些影响呢？我想可能有几个方面。首先是辐射损失增加。高Z杂质的原子结构复杂，具有更多的电子跃迁能级，这些能级在高温等离子体中容易被激发，释放大量的辐射。辐射损失会导致等离子体的热量被带走，影响温度的维持，进而影响聚变反应效率。
-其次，高Z杂质可能会改变等离子体的离子组成。在托卡马克中，主要的聚变材料是氘和氚。如果进入高Z杂质，改变了离子的质量和电荷，可能会改变等离子体的动量分布，影响到等离子体的稳定性，比如会引起流的紊乱，甚至导致不稳定性。
-第三，高Z杂质可能会与等离子体中的其他离子发生核反应。钨的原子核比氘和氚大得多，当它们被加速到聚变温度时，可能会与氢同位素发生核反应，产生中子或其他产物。这可能会影响聚变反应的主流程，并导致不必要的中子发射，增加辐射风险。
-接下来是偏滤器的作用。偏滤器位于托卡马克的底部，主要设计用于捕获等离子体边缘的高能粒子流，特别是被电场加速的离子流。它通过提供一个强大的磁场梯度，使等离子体粒子在进入偏滤器区域时被减速，从而捕获并排出这些粒子。这样，偏滤器可以有效减少杂质进入等离子体芯部，同时排出聚变反应产生的氦灰。
-偏滤器在屏蔽杂质方面的作用主要体现在物理屏障和粒子捕获上。物理屏障是指通过磁场结构阻止杂质扩散到等离子体芯部。粒子捕获则是利用偏滤器的磁镜效应，捕获并排出这些高能粒子，防止它们积累。
-在排除氦灰方面，偏滤器利用离子的回旋运动来实现。氦灰的离子因回旋半径较大，会逐渐被驱赶到偏滤器区域，然后通过偏滤器的结构被排出。这种方法能有效地清除氦灰，维持等离子体的清洁。
-关于杂质输运的物理机制，主要有热传导、对流和扩散三种机制。热传导指的是温度梯度驱动的热流，导致杂质随温度梯度扩散。对流则是指因磁场或等离子体流动导致的大尺度传输，如埃诺兹流等。扩散则是指微观上的布朗运动导致的杂质扩散。
-热传导可能在等离子体边缘更为明显，因为温度梯度较大。而对流可能在磁流体力学不稳定性时起作用，如高Z杂质的浓度梯度引发对流。扩散则在微观尺度上起作用，但可能在整体输运中贡献较少。
-总的来说，高Z杂质进入等离子体芯部会带来辐射损失、离子组成变化和核反应风险等问题。偏滤器通过物理屏障和粒子捕获，有效地减少杂质进入芯部，同时排出氦灰。杂质输运主要通过热传导、对流和扩散进行，这些机制各有特点，需综合考虑以优化等离子体的清洁度和稳定性。
-接下来，我需要根据这些思考内容，按照用户的要求，组织成结构化的回答，包含核心结论、背景与概念、原理与推导、工程或实验意义、比较与拓展以及要点总结。同时，注意使用清晰的小标题和项目符号，方便阅读。
-在撰写过程中，要注意使用国际通用的术语和符号，比如用LaTeX编写方程，并在首次出现物理量时注明单位。例如，辐射损失可以用辐射率公式来描述，涉及到黑体辐射或者其他辐射机制。
-最后，确保回答严谨、客观，不包含未经验证的猜测，必要时明确假设或指出需要更多信息的地方。
-&lt;/think&gt;
-### 高Z杂质（如钨）进入等离子体芯部的不利影响
+          <t>### 高Z杂质（如钨）进入等离子体芯部的不利影响
 #### 核心结论
 高Z杂质（如钨）进入等离子体芯部会导致辐射损失增加、离子组成改变以及可能的核反应风险。
 #### 背景与概念
@@ -8758,7 +7698,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -8784,25 +7724,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好，我现在要回答关于液态金属作为偏滤器PFCs的潜在优势和挑战的问题。首先，我需要理解问题所涉及的背景和关键概念。液态金属，比如锂和锡，被考虑用于核聚变装置中的偏滤器，这涉及到等离子体与材料的相互作用，以及各种物理和工程上的挑战。
-核心结论是液态金属在高热负荷和氚提取方面有优势，但面临MHD效应、蒸发、兼容性和氚提取等问题。接下来，我需要详细展开每个部分。
-**背景与概念：**偏滤器是聚变装置的关键部件，负责处理等离子体边界区域的高热流。液态金属因良好的热传导性、氚提取能力和低溅射损失而被关注。
-**潜在优势：**
-1. **高热导率和流动性：**液态金属可以有效带走热量，减少材料损坏。
-2. **氚提取：**锂与氘反应生成氚，这对聚变燃料循环至关重要。
-3. **低溅射损失：**液态表面减少杂质引入，维持等离子体清洁。
-4. **自我修复：**液态金属能愈合表面损伤，延长寿命。
-**主要挑战：**
-1. **MHD效应：**液态金属导电，产生复杂流动，可能影响热分布。
-2. **蒸发问题：**高温下蒸发，导致材料损失和杂质引入。
-3. **兼容性：**液态金属可能与结构材料发生反应或腐蚀。
-4. **氚提取与控制：**提取效率与安全控制难题。
-**工程或实验意义：**液态金属在 ITER 和未来聚变堆中可能有广泛应用，但需解决MHD和蒸发问题，开发兼容材料，优化氚提取系统。
-**比较与拓展：**与固态和涂层PFCs相比，液态金属在热管理、氚提取方面更优，但在材料蒸发和兼容性上有挑战。适合高热负荷和氚自持系统，但需要实验验证和工程验证。
-总结：液态金属在偏滤器中有潜力，但需克服MHD、蒸发和材料兼容性等问题，才能实现实际应用。
-在回答过程中，我需要确保每个部分都清晰明了，使用规范术语，并且涵盖所有关键点。如果有遗漏或不确定的地方，比如具体蒸发率或MHD效应的详细模型，我应该指出需要进一步的信息或研究。同时，保持客观严谨，不加入未经验证的猜测。
-&lt;/think&gt;
-### 液态金属作为PFCs的潜在优势和挑战
+          <t>### 液态金属作为PFCs的潜在优势和挑战
 #### 核心结论
 液态金属（如锂、锡）作为偏滤器（PFCs）材料具有高热导率、氚提取能力和低溅射损失等优势，但面临磁流体力学（MHD）效应、蒸发、与结构材料的兼容性以及氚提取效率等主要挑战。
 #### 背景与概念
@@ -8835,7 +7757,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -8861,16 +7783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，好的，这个问题是关于DEMO反应堆的偏滤器设计，特别是与ITER相比可能需要哪些革新。首先，我得回忆一下偏滤器在聚变装置中的作用。偏滤器主要负责排出聚变反应产生的氦-3等杂质，同时承受来自等离子体的高热负荷和中子辐照。
-DEMO作为ITER的后继，目标是实现商业化的聚变能生产，所以它在参数上比ITER更高，比如更高的功率输出和更长的运行时间。这意味着DEMO的偏滤器会面临更严峻的环境。首先，热负荷会更高。ITER的偏滤器可能需要处理每平方米几千瓦的热流，而DEMO可能需要处理更高的数值，甚至可能超过10 MW/m²。这样的高热流会导致材料更容易被烧蚀，所以必须寻找更高热导率和更高熔点的材料。
-其次，中子辐照的影响。DEMO会运行更长时间，且中子通量更高，所以材料的抗辐照性能必须更好。材料在辐照下会发生肿胀、强度下降等问题，所以需要开发新的抗辐照材料，或者改进现有材料的性能。例如，钨基材料可能是一个选择，但需要解决它们在高辐照条件下的稳定性问题。
-材料的选择也需要考虑氚的繁殖。DEMO可能需要自给自足的氚供应，所以偏滤器材料可能需要同时作为氚增殖剂。这可能涉及到材料的选择，比如使用含有锂的材料，但同时又要满足高热负荷和辐照的条件，这可能会增加设计的复杂性。
-在结构设计上，可能需要更复杂的冷却系统，比如采用更高效的冷却回路或者增加冷却剂的流量。同时，可能需要设计更耐高温的结构，比如使用碳纤维增强的复合材料，或者引入主动冷却技术，如脉冲冷却或旋转靶板，以分散热负荷。
-另一个方面是材料的可制造性和维护性。DEMO需要长时间运行，因此材料必须具有良好的加工性能和可维护性，可能需要采用模块化设计，便于更换受损部件。此外，材料的长期稳定性也是一个关键因素，可能需要通过模拟实验来验证材料在长期辐照和热负荷下的性能。
-最后，需要考虑偏滤器设计与整体反应堆的兼容性。例如，偏滤器的设计可能会影响等离子体的稳定性，因此需要在设计中进行优化，确保偏滤器不会干扰等离子体的控制，同时又能有效地排出杂质。
-综上所述，DEMO的偏滤器设计需要在材料性能、结构设计、冷却系统、氚繁殖和维护性等多个方面进行创新和优化，以应对比ITER更为严酷的运行环境。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 DEMO偏滤器需要在材料耐受性、结构设计及功能集成方面实现重大突破，以应对更高的热负荷和中子辐照。
 ### 2. 背景与概念  
 偏滤器是托卡马克装置中负责排出氦-3等杂质并处理高热流的关键部件，直接暴露于高能粒子流和中子辐照。与ITER相比，DEMO需要更高的聚变功率输出和更长的运行时间，导致偏滤器将承受更大的热负荷（$q &gt; 10 \, \text{MW/m}^2$）和更高的中子辐照（$n &gt; 10^{20} \, \text{n/cm}^2/\text{s}$）。
@@ -8898,7 +7811,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -8924,19 +7837,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好的，我现在要解释PFCs上的瞬态热事件，比如ELMs和破裂，如何导致材料的熔化、蒸发和开裂，以及如何设计PFCs以提高其对这些瞬态事件的耐受性。
-首先，我得回忆一下PFCs是什么。PFCs指的是第一壁和偏滤器，它们是聚变装置中直接接触等离子体的部件，承担着吸热和保护其他结构的重要作用。
-接下来，瞬态热事件，比如ELMs（边缘局部模）和破裂，会导致极高的热流和能量沉积在PFCs上。这些事件发生得非常快，时间尺度在毫秒级别，而且热流密度可以达到很高，甚至超过10 MW/m²，远远超过材料的耐受极限。
-那么，为什么高热流会引起材料熔化、蒸发和开裂呢？热量会导致材料温度急剧上升。当温度超过材料的熔点时，材料就开始熔化。如果热流继续增加，材料甚至会蒸发，这会导致材料损失和部件损坏。此外，温度梯度的变化会引起热应力，当热应力超过材料的强度极限时，材料就会开裂。
-接下来，我需要考虑如何设计PFCs来提高它们对这些瞬态事件的耐受性。有几个方面可以考虑：材料选择、结构设计、冷却系统以及表面改性。
-在材料选择上，应该选用熔点高、导热性好、高温强度强的材料。比如钨、钽、钼等高熔点材料，因为它们在高温下更稳定，不容易熔化或蒸发。此外，材料的热导率高，可以帮助更快地将热量传递到冷却系统，降低局部温度。
-结构设计方面，可以考虑多层结构，比如在主要结构材料外面附加一层高熔点的保护层。这样，在瞬态热事件发生时，保护层可以吸收大部分的热量，避免主要结构受损。另外，优化结构以提高散热效率，比如增加表面积，或者设计成蜂窝状结构，有助于更有效地散热。
-冷却系统的设计也很关键。高效的冷却系统能迅速带走热量，降低材料温度。可以使用高比热容和高导热系数的冷却剂，比如液态金属（如锂）或氦气。另外，提高冷却剂的流速和流量，可以增强散热能力。脉冲冷却技术可能在瞬态事件发生时快速增加冷却能力，帮助及时降温。
-表面改性方面，可以考虑在PFCs表面涂覆高熔点、低溅射的涂层。这些涂层可以作为第一层来吸收热量，减少主材料的损伤。另外，自愈合涂层在受损后能够自行修复，提供持续的保护。
-最后，数值模拟和实验验证是设计过程中的重要步骤。通过模拟，可以预测不同设计在瞬态热事件中的表现，帮助优化设计参数。实验测试则可以在真实条件下验证设计的耐受性和可靠性。
-综上所述，设计PFCs时需要综合考虑材料选择、结构优化、冷却系统以及表面改性等多个方面，以提高其对瞬态热事件的耐受性，延长使用寿命，保障聚变装置的安全运行。
-&lt;/think&gt;
-### 解释PFCs上的瞬态热事件（如ELMs、破裂）如何导致材料的熔化、蒸发和开裂。如何设计PFCs以提高其对这些瞬态事件的耐受性？
+          <t>### 解释PFCs上的瞬态热事件（如ELMs、破裂）如何导致材料的熔化、蒸发和开裂。如何设计PFCs以提高其对这些瞬态事件的耐受性？
 #### **核心结论**
 PFCs（第一壁和偏滤器）在瞬态热事件（如ELMs和破裂）中可能因极端热负荷导致材料熔化、蒸发和开裂。通过优化材料选择、结构设计和冷却系统可提高其耐受性。
 ---
@@ -8997,7 +7898,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -9023,15 +7924,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，这个问题看起来挺复杂的。我需要先理解PFCs产生的灰尘对聚变装置的安全运行有什么潜在风险，比如爆炸、氚扩散和冷却剂通道堵塞。然后，还要讨论如何监测和控制装置内的灰尘水平。
-首先，PFCs是什么？托卡马克中的PFCs全称是第一壁和偏滤器组件，它们直接面对高温等离子体。在等离子体运行过程中，这些部件会受到高能粒子的轰击，导致材料溅射，形成微小的颗粒，也就是所谓的“灰尘”。
-那么，这些灰尘会对聚变装置造成哪些风险呢？首先是爆炸。如果聚变装置中存在高浓度的可燃气体，比如氢气，加上高温或等离子体引发的点火源，就可能导致爆炸，严重威胁装置安全。其次是氚扩散。聚变装置中会使用氚作为燃料，如果灰尘中含有氚，可能在装置内扩散，影响氚的回收和利用效率，同时增加氚的损失，对环境和安全构成威胁。最后是冷却剂通道的堵塞。聚变装置通常需要大量的冷却剂来带走热量，如果灰尘积累在冷却剂通道中，可能会导致流道不畅，降低冷却效率，进而影响装置的稳定运行，甚至导致局部过热和设备损坏。
-接下来，如何监测和控制装置内的灰尘水平呢？监测方面，可以考虑几种方法。首先是光学诊断，比如激光散射技术，通过检测激光束在颗粒物中的散射情况，来评估颗粒的浓度和尺寸分布。其次是沉积测量，可以在关键区域设置收集器，定期测量沉积物的重量或厚度，间接反映颗粒的产生量。还可以利用中子或γ射线探测技术，通过颗粒对射线的衰减来监测其浓度和分布。
-控制方面，可能需要采取多种策略。首先是优化等离子体运行参数，比如降低离子体的温度或密度，减少溅射的发生。其次是改善PFCs的材料特性，比如选择溅射率更低的材料，或者采用多层结构，减缓材料损伤和颗粒产生。另外，安装高效的除尘装置，比如静电除尘器或过滤器，可以在颗粒扩散到关键区域之前将其捕获。
-此外，还需要考虑这些措施的实施成本和技术可行性。例如，静电除尘器可能需要额外的电力供应，而过滤器则需要定期更换和维护，这些都是需要权衡的因素。
-在总结时，我需要确保所有的关键点都被涵盖，并且结论清晰。同时，要注意语言的准确性和专业性，避免使用过于模糊或不确定的表述。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 聚变装置中的PFCs产生的灰尘可能引发爆炸、氚扩散和冷却剂通道堵塞，需通过光学诊断、沉积测量和中子探测等手段监测，并采取优化等离子体参数、改善材料特性及除尘装置等措施控制。
 ---
 ### 背景与概念
@@ -9134,7 +8027,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -9160,16 +8053,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，这个问题挺有意思的。首先，我得弄清楚14 MeV的D-T聚变中子在材料中引发的主要物理过程。我记得中子和材料的相互作用通常包括弹性散射、非弹性散射，还有辐照损伤和嬗变反应。然后，还提到和裂变堆中子辐照效应的区别，这部分可能需要对比两者的特点。
-首先，中子进入材料后，会和原子核发生相互作用。弹性散射就是中子打到原子核，然后改变方向和能量，这个过程可能会导致原子被击出，形成位移级联。而高能量的中子，比如14 MeV，可能会引发非弹性散射，导致原子核振动或者声子产生，这部分可能涉及到晶格的损伤。
-接着，位移级联是指一个中子打到一个原子，导致那个原子飞出去，然后再打到其他原子，形成连锁反应。这个过程会产生大量的缺陷，比如空位和间隙原子，这些缺陷会在材料中迁移和聚集，导致材料性能下降，比如脆化或者肿胀。
-然后是嬗变反应，尤其是生成He和H。当中子撞击材料中的原子核时，可能会引起核反应，比如(n,α)或者(n,p)反应。比如，在铁中，中子可能会导致生成α粒子（氦核），而随着这些α粒子的积累，材料中就会产生氦气泡，这会进一步引起材料肿胀和断裂。
-现在，和裂变堆的中子辐照效应有什么不同呢。裂变堆中的中子能量通常比较低，而且能量分布更广，可能包括热中子和快中子。而聚变堆的中子能量非常高，集中在14 MeV左右，这样的高能中子穿透力更强，损伤效应更剧烈。此外，聚变堆中的中子产额更大，所以辐照剂量更高，材料的损伤速度更快。
-另外，聚变堆中子引发的嬗变反应可能更倾向于生成轻元素，如He和H，而裂变堆中可能有更多复杂的核素生成，包括更多的裂变产物和嬗变产物。这可能对材料的选择和设计有重要影响，比如在聚变堆中，可能需要选择对氦生成不敏感的材料，或者采取措施来缓解氦气泡的影响。
-还有，聚变中子的高能量可能引发更多的非弹性散射，导致晶格振动和声子的产生，而裂变堆中的中子能量较低，这种效应可能不那么显著。此外，聚变堆中的中子辐照可能会导致更多的辐射硬化和辐射脆化，因为缺陷的产生和聚集更快。
-总结一下，主要的区别在于中子的能量、产额以及引发的物理过程不同。聚变堆中的高能中子会导致更剧烈的位移损伤和特定的嬗变产物，如He和H，而裂变堆的中子则能量较低，引发的损伤和嬗变产物可能有所不同。这些差异对材料的选择和辐照效应的缓解措施有着重要的影响。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 14 MeV D-T聚变中子与材料相互作用的主要物理过程包括原子位移级联和嬗变反应（特别是生成He和H），与裂变堆中子辐照相比，聚变堆中子能量更高、产额更大，导致更严重的辐照损伤和不同的嬗变产物。
 ---
 ### 背景与概念  
@@ -9226,7 +8110,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -9252,15 +8136,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好的，我现在要回答关于辐照引起的材料肿胀和辐照蠕变的问题。首先，我得明确这两个现象是什么，它们的微观机制是什么，以及它们如何影响聚变堆部件的尺寸稳定性和结构完整性。
-首先，辐照肿胀。我记得在核材料中，当材料受到高能粒子的辐照时，会产生缺陷，比如空位和间隙原子。这些缺陷可能会聚集，形成气泡或者空洞。特别是在像不锈钢这样的材料中，这种现象比较明显。因为聚变堆中的中子能量比较高，可能会导致材料中的某些原子发生移位，从而产生这些缺陷。
-接下来是辐照蠕变。蠕变通常是指材料在高温下的缓慢变形，而在辐照条件下，这个过程会被加速。我认为辐照蠕变的机制可能与位错的运动有关。位错在辐照过程中可能会被钉扎或者解钉扎，从而影响材料的蠕变行为。此外，辐照还会导致材料中的空位和间隙原子的扩散，这可能进一步促进材料的蠕变。
-然后，我需要思考这些现象如何影响聚变堆部件的尺寸稳定性和结构完整性。材料肿胀会导致部件尺寸变化，可能会导致部件之间的间隙变化，影响设备的正常运行。严重的肿胀还可能导致部件表面损伤，影响其性能。而辐照蠕变则会导致部件的形状改变，可能引起应力重新分布，长期下来可能导致部件的结构失效，影响整体的安全性。
-我还得考虑这些现象发生的物理机制，可能涉及原子级别的迁移和缺陷的形成。比如，中子辐照会导致原子移位，产生点缺陷，这些缺陷会聚集形成气泡，从而导致材料肿胀。而辐照蠕变则可能与点缺陷的扩散和位错的运动有关，导致材料的塑性变形。
-在结论部分，我需要总结这些微观机制，并说明它们对聚变堆部件的影响。同时，可能还需要提到如何通过材料选择或设计来减轻这些问题，比如使用抗辐照材料或者优化部件的设计，以提高其尺寸稳定性和结构完整性。
-现在，我需要将这些思考整理成一个结构化的回答，按照用户提供的规范，一步步详细阐述。确保每个部分都有清晰的解释，并且有相关的物理机制和方程支持。同时，要注意使用规范的单位和符号，以及引用相关文献中的结果，以支持结论。
-&lt;/think&gt;
-### 辐照引起的材料肿胀（Swelling）和辐照蠕变（Irradiation Creep）的微观机制及对聚变堆部件的影响
+          <t>### 辐照引起的材料肿胀（Swelling）和辐照蠕变（Irradiation Creep）的微观机制及对聚变堆部件的影响
 #### 核心结论
 辐照引起的材料肿胀和辐照蠕变是由于高能粒子辐照导致的点缺陷生成与聚集，以及位错运动的钉扎-解钉扎机制，这些现象显著影响聚变堆部件的尺寸稳定性和结构完整性。
 #### 背景与概念
@@ -9316,7 +8192,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -9342,22 +8218,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好吧，我现在得仔细思考一下这个问题：氢同位素，特别是氦，在金属材料中引起的脆化效应，也就是氦脆。为什么氦脆在高温下更显著？这对聚变堆结构材料的工作温度上限有什么影响呢？
-首先，我需要弄清楚氦脆的基本概念。我知道，当金属材料暴露在含有氦的环境中，尤其是核反应堆中，材料会吸收氦。这会导致材料的性能下降，特别是在高温下，材料变得更脆，容易断裂。
-接下来，我要理解为什么高温会加剧氦脆效应。我想这可能与氦在金属中的扩散特性有关。金属在高温下，原子的热运动增强，氦原子可能更容易在材料中扩散。另外，高温可能导致氦原子聚集在特定的位置，比如晶界，从而削弱材料的结构。
-然后，我需要考虑氦脆对聚变堆结构材料的影响。聚变堆通常工作在高温环境，所以如果材料在高温下容易发生氦脆，那么结构材料的使用寿命可能会受到影响。这可能限制了聚变堆的工作温度上限，以避免材料过早失效。
-或许，我应该查一下氦在金属中的扩散机制以及温度对这一过程的影响。扩散系数通常与温度呈指数关系，所以高温下扩散加快，氦更容易聚集。此外，氦的聚集可能会形成气泡，这些气泡在材料受力时会导致应力集中，从而引发裂纹。
-还有一个因素是辐照效应。在聚变堆中，材料不仅受到氦的注入，还受到高能粒子的辐照，这可能会加剧材料的损伤。高温下，辐照效应和氦脆的综合作用可能导致材料性能更快下降。
-我还需要了解一下结构材料的选择。聚变堆常用的一些材料，比如钢或合金，它们在高温下的氦脆特性如何？是否有研究或数据表明，这些材料在特定温度范围内更容易发生氦脆？
-此外，可能有一些缓解氦脆的方法，比如选择抗氦脆的材料，或者通过合金设计来改善材料的性能。但这些都需要在高温条件下进行测试和验证，以确保材料的可靠性。
-总结一下，我的思考过程是：
-1. 氦脆的基本概念和原因。
-2. 高温下氦扩散加快，导致聚集和气泡形成，削弱材料结构。
-3. 辐照效应在高温下的综合影响。
-4. 对聚变堆工作温度上限的限制，以及可能的缓解措施。
-现在，我需要将这些思考整理成一个连贯的答案，确保每个部分都清晰解释，并且用科学依据支持结论。
-&lt;/think&gt;
-### 氦脆效应及其对聚变堆材料工作温度的影响
+          <t>### 氦脆效应及其对聚变堆材料工作温度的影响
 #### 1. 氦脆的基本概念
 氦脆是金属材料在氢同位素（特别是氦）环境中发生的一种损伤现象。当材料吸收氦时，氦原子会在材料内部扩散并聚集，导致材料的塑性和韧性下降，变得更为脆性。这种现象在高温下尤为显著，严重时可导致材料断裂。
 #### 2. 高温下氦脆加剧的原因
@@ -9384,7 +8245,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -9410,14 +8271,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于低活化材料（LAMs）的问题。首先，我得理解什么是LAMs。根据之前的知识，LAMs是在聚变反应堆中使用的一种特殊材料，目的是减少材料在反应中被活化的程度。活化指的是材料在核反应中被中子轰击后变成放射性同位素的现象，这会对废物处理和人员安全造成问题。
-那么，为什么聚变能开发中要强调使用LAMs呢？可能的原因包括：降低运行成本，减少放射性废物的产生，提高安全性，以及便于设备的维护和退役处理。这些都是聚变能走向实际应用的重要因素。
-接下来，具体到RAFM，即低活化铁素体/马氏体钢。成分设计原则可能包括选择特定的合金元素，避免那些容易被活化的元素，或者添加有助于中子俘获和减少活化产物的元素。例如，可能使用含量较低的铬，或者添加钽、钒等元素来减少活化。
-在分析主要活化元素限制时，我需要找出RAFM中哪些元素容易被活化，以及如何限制它们的含量。例如，钨可能会被活化成放射性同位素，因此需要控制其含量。此外，像钼这样的元素也可能对活化产生影响，所以需要对其浓度进行限制。
-我还需要查阅相关资料，确认RAFM的具体成分和限制标准，以确保回答的准确性。例如，RAFM可能含有约9-11%的铬，添加钽和钒以减少活化，同时控制钨和钼的含量在较低水平。
-最后，要总结使用LAMs的重要性，特别是在聚变能开发中的应用前景和挑战，如材料性能与活化之间的平衡，以及未来的研究方向。
-&lt;/think&gt;
-**低活化材料（LAMs）及其在聚变能中的应用**
+          <t>**低活化材料（LAMs）及其在聚变能中的应用**
 **1. 核心结论**  
 低活化材料（LAMs）是用于聚变反应堆的特殊材料，旨在减少材料在中子辐照下形成的放射性同位素，从而降低废物处理难度和安全风险。
 **2. 背景与概念**  
@@ -9442,7 +8296,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -9468,15 +8322,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好，我现在需要详细比较几种主要的聚变堆候选结构材料：RAFM钢、ODS钢、钒基合金和碳化硅复合材料。首先，我得明确每种材料的背景和性能特点。
-首先，RAFM钢，全称是 Reduced Activation Ferritic/Martensitic steel，这种材料以铁为主要成分，添加少量铬等合金元素。它的主要优点是辐照性能好，特别是活化产物少，这在核废料处理上很重要。力学性能方面，在高温下表现稳定，强度和韧性都不错。工作温度适中，大概在400到650摄氏度之间，适用于常规冷却系统。与水作为冷却剂兼容性不错，但与液态金属如锂可能有问题。制造工艺上成熟，成本相对较低。
-接下来是ODS钢，Oxide Dispersion Strengthened，这种材料通过弥散氧化物颗粒来强化，通常含有Y2O3等纳米级颗粒。它的辐照性能也很优异，高温下力学性能更好，可能比RAFM钢更耐辐照损伤。工作温度可能稍微高一些，500到700摄氏度。与冷却剂兼容性类似于RAFM钢，但ODS钢的制备工艺更复杂，需要粉末冶金，成本高，可能存在大规模制造的挑战。
-然后是钒基合金，以钒为主要成分，加入其他元素如钛、锆。这种材料在高温下非常稳定，辐照性能很好，尤其是低活化。力学性能在更高温度下更出色，工作温度可能达到600到800摄氏度以上。与液态金属冷却剂如锂相容性好，适合用于更高温或液态冷却的系统。制造工艺方面，钒的加工相对困难，成本高，需要进一步的工艺开发。
-最后是碳化硅（SiC/SiC）复合材料，由碳化硅纤维和基体组成。它的优点是耐高温，可能达到1000摄氏度以上，辐照性能优异，尤其是低活化。与氦气等高温冷却剂兼容性很好，非常适合超高温应用。力学性能在高温下保持良好，但材料脆性问题需要关注。制造工艺复杂，成本高，大规模制造困难，可靠性也需要进一步验证。
-比较下来，RAFM钢和ODS钢都是成熟的选择，RAFM在制造工艺和成本上有优势，而ODS在高温性能上更好。钒基合金适合更高温或使用液态金属冷却的系统，而碳化硅复合材料则是极端高温环境下的理想选择，但制造工艺和成本是主要挑战。
-需要考虑的具体应用场景，比如冷却剂类型、工作温度、辐照条件和制造可行性等，来选择最合适的材料。未来研究方向可能包括材料改性、制造工艺的改进以及长期辐照性能的评估。
-&lt;/think&gt;
-### 各类聚变堆候选结构材料的比较分析
+          <t>### 各类聚变堆候选结构材料的比较分析
 #### 1. RAFM钢（Reduced Activation Ferritic/Martensitic Steel）
 **辐照性能**：
 - 优点：低活化材料，辐照损伤较小，适合长期使用。
@@ -9533,7 +8379,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -9559,17 +8405,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>好吧，我现在要回答一个关于聚变材料研发的问题。问题是当前缺乏聚变中子源对材料研发和认证带来的挑战，以及如何利用现有的辐照设施来模拟聚变中能环境，这些模拟方法的局限性是什么。
-首先，我需要理解什么是聚变中子源以及为什么它对材料研发很重要。聚变中子源指的是在核聚变过程中产生的大量中子，这些中子能量相对较高，对材料的辐照损伤是一个重要的研究领域。材料在聚变环境下的性能变化，比如肿胀、强度下降、结构变化等，都是研发中的关键问题。如果没有聚变中子源，研究人员就无法直接测试材料在实际聚变环境中的表现，这显然限制了材料的发展。
-接下来，我需要思考现有的辐照设施有哪些，以及它们如何模拟聚变中子环境。现有的设施包括裂变堆、离子束装置、散裂中子源等。裂变堆已经广泛用于材料辐照测试，因为它们能够提供稳定的中子流，但中子能谱可能与聚变中子不同，裂变堆中的中子主要是热中子，能量较低。而聚变中子多为14 MeV的高能中子，这可能导致材料损伤的差异。
-离子束装置可以用离子代替中子来模拟辐照损伤。这种方法可以精确控制离子的种类和能量，同时非破坏性诊断容易。但离子辐照和中子辐照的损伤机制不同，中子更易引发材料内部的结构变化，而离子辐照可能导致表面溅射等现象。因此，这种方法可能无法完全模拟聚变中子环境。
-散裂中子源是一种由高能质子束轰击靶材产生的中子源。这些中子具有较宽的能量范围，可能更接近聚变中子的能谱，但产额和通量可能无法达到聚变装置的水平，限制了其在材料辐照测试中的应用。
-现在，我需要分析这些模拟方法的局限性。首先是中子能谱的不同，导致辐照损伤机制的差异。聚变中子主要是高能中子，而裂变堆中的中子能量较低，可能无法准确模拟实际聚变环境对材料的影响。其次是中子通量的问题，现有设施可能无法达到聚变装置中的中子通量，从而无法测试材料在极高辐照剂量下的长期性能。此外，辐照环境的综合模拟也是一个挑战，比如温度、应力等条件是否能与实际聚变装置一致。
-然后，我需要考虑这些局限性对材料研发带来的挑战。材料在实际聚变装置中的辐照损伤可能无法通过现有设施完全模拟，导致实验结果与实际应用存在偏差。这可能影响材料的认证和选择，增加研发的风险和不确定性。
-此外，我还应该思考是否有其他方法或改进措施可以部分解决这些问题。例如，结合多种辐照设施的数据，或者开发新的诊断技术来更准确地模拟和评估材料性能。但这可能需要更多的研究和技术投入。
-最后，我需要总结一下，说明现有的辐照设施在模拟聚变中子环境方面有其局限性，主要集中在中子能谱、通量和综合环境的模拟上。为了应对这些挑战，可能需要进一步研究和开发更先进的辐照测试装置，或者优化现有的设施以更接近实际聚变条件。
-&lt;/think&gt;
-### 当前缺乏聚变中子源对材料研发的挑战
+          <t>### 当前缺乏聚变中子源对材料研发的挑战
 聚变中子源是核聚变反应中产生的一种高能中子流，能量约为14 MeV，对材料的辐照损伤研究至关重要。材料在聚变环境下的性能变化，如肿胀、强度下降和结构改变，直接影响聚变装置的可靠性和寿命。然而，缺乏聚变中子源限制了对材料在真实聚变条件下的直接测试，导致材料研发和认证的困难。
 ### 利用现有辐照设施模拟聚变中子环境
 为了弥补这一缺口，现有辐照设施如裂变堆、离子束装置和散裂中子源被用于模拟聚变中子环境：
@@ -9590,7 +8426,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -9616,14 +8452,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于辐照如何改变材料的韧脆转变温度（DBTT）以及这对聚变堆结构部件的影响。首先，我需要理解什么是DBTT。DBTT，韧脆转变温度，是指材料从韧性状态转变为脆性状态的临界温度。低于这个温度，材料容易发生脆性断裂，而高于这个温度，材料则表现出良好的韧性，不容易断裂。
-那么，辐照对DBTT的影响是怎样的呢？我听说过辐照会导致材料的硬化和脆化。这是因为在材料中引入了大量的缺陷，比如位错、空位和杂质原子。这些缺陷会阻碍位错的运动，从而使得材料变得更硬。同时，辐照还会导致材料中形成更多的晶界沉淀物，这些沉淀物可能会降低材料的韧性，使材料更容易发生脆性断裂。
-接下来，我需要分析辐照导致材料DBTT升高的机理。首先，辐照引入的缺陷会增加材料的强度，但同时也会降低其韧性。这是因为缺陷会使得材料在受到外力时更容易断裂，而不是发生塑性变形。其次，辐照可能会引起材料内部微观结构的变化，例如晶粒细化或者沉淀物的形成，这些变化也会导致材料的韧脆转变温度升高。
-在聚变堆结构部件中，尤其是在启动、停机或偏离正常工况时，这些部件会经历温度的变化。如果DBTT升高，材料在较低温度下就可能变得脆性，导致在启动或停机过程中温度变化较大时，材料更容易发生断裂，从而影响聚变堆的结构完整性。
-为了应对这个问题，工程上可能会采取一些措施。例如，可以选择辐照抗力更强的材料，或者在设计时考虑材料的DBTT变化，确保在各种工况下材料的性能仍然满足要求。此外，还可以通过控制辐照剂量和优化材料微观结构来减缓DBTT的升高。
-总结一下，辐照会导致材料DBTT升高，从而增加材料在较低温度下的脆性断裂风险。在聚变堆结构部件的设计和运行中，需要充分考虑这一点，采取相应的措施来确保结构的完整性。
-&lt;/think&gt;
-### 辐照对材料DBTT的影响及其对聚变堆结构的影响
+          <t>### 辐照对材料DBTT的影响及其对聚变堆结构的影响
 #### 核心结论
 辐照会导致材料的韧脆转变温度（DBTT）升高，从而在低温条件下增加材料的脆性断裂风险，这对聚变堆结构部件的运行安全性和可靠性有重要影响。
 #### 背景与概念
@@ -9664,7 +8493,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -9690,16 +8519,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，这个问题是关于聚变堆包层材料和液态金属之间的腐蚀与相容性问题。首先，我需要理解问题的核心：液态金属如铅锂与结构材料比如RAFM钢之间的相互作用会产生什么问题，以及如何解决这些问题。
-首先，腐蚀和相容性问题。我知道，当两种不同材料接触，尤其是金属和金属，在高温或反应环境下，可能会发生腐蚀、磨损或者化学反应。在聚变堆中，液态金属用于冷却，可能需要承受高温和高能中子辐照，这可能加速腐蚀过程。RAFM钢是一种用于核聚变的结构材料，具有良好的抗辐照性能，但与液态金属接触时，可能因为化学反应或物理侵蚀导致性能下降。
-接下来，我需要分析腐蚀的具体类型。可能有化学腐蚀，比如液态金属与钢中的铁等元素反应生成化合物，导致钢材料腐蚀。还有物理磨损，液态金属在流动过程中可能冲刷和侵蚀材料表面。此外，中子辐照可能导致材料内部结构变化，形成辐照损伤，影响材料性能。
-然后，解决方法。材料选择方面，可以选择与液态金属兼容性更好的材料，如不锈钢或其他合金，但需要考虑性能和成本。涂层技术可能有效，比如在钢表面涂覆一层保护层，隔绝液态金属与基体的直接接触。液态金属化学控制可能涉及添加缓蚀剂，减少腐蚀反应，或者采用过滤系统，去除可能引起腐蚀的杂质。
-我需要查找相关资料，了解RAFM钢与铅锂在实际应用中的表现。是否已经有类似的研究或应用案例？例如，铅锂冷却剂在核反应堆中的使用情况，材料腐蚀的情况，以及采取的措施。
-还有，考虑高温环境下材料的物理和化学性质变化。高温下，材料的强度、延展性、导热性等都会变化，可能影响腐蚀过程。液态金属的流动特性，比如粘度、对流情况，也会影响侵蚀速度。
-另外，实验方法也很重要。可能需要进行实验室腐蚀测试，模拟聚变堆的高温、高辐照环境，评估不同材料和涂层的性能。同时，理论模型可以预测腐蚀速率和机制，辅助实验设计和材料选择。
-最后，综合这些分析，形成一个系统性的解决方案，包括材料优化、涂层设计、冷却剂管理等多方面的措施，以确保聚变堆包层系统的长期稳定运行。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 液态金属与结构材料之间的腐蚀和相容性问题主要源于化学反应、物理侵蚀和辐照损伤，可通过材料选择、涂层技术和化学控制来缓解。
 ### 背景与概念  
 在聚变堆的液态金属包层概念中，液态金属（如铅锂合金）作为冷却剂和中子倍增剂，与结构材料（如RAFM钢）直接接触。这种接触可能导致以下问题：  
@@ -9748,7 +8568,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -9774,13 +8594,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>嗯，我现在要仔细想想聚变部件制造中的增材制造技术的应用。首先，增材制造，也就是3D打印，是一种逐层叠加材料的技术，对吧？那在聚变装置中，有很多复杂的部件，比如托卡马克的线圈或者内部结构，这些形状可能很难用传统方法制造。增材制造会不会在这方面有优势呢？比如能制造出更复杂的结构，提高部件的效率或者性能。
-那材料方面，聚变装置需要高温、高辐射环境，所以材料必须非常耐高温和耐辐照。增材制造可能会改变材料的微观结构，比如晶粒结构或者缺陷分布，这可能影响材料的性能，比如强度、韧性和抗辐照能力。所以需要研究这些变化，看是否能提高材料的性能或者出现什么问题。
-另外，增材制造的挑战是什么呢？首先是材料的选择，聚变所需的材料种类有限，可能与增材制造的兼容性不高，导致制造困难或者成本增加。还有制造过程中材料的性能变化，比如热应力导致的变形或裂纹，这些都需要控制。此外，如何保证制造出的部件满足严格的尺寸和形状要求，也是一个挑战，可能需要更精确的控制技术或后处理工艺。
-还有，材料微观结构的变化可能对性能有帮助，比如调整晶粒结构提高强度，或者引入梯度材料改善热性能。但这些改变也可能会带来负面影响，比如降低韧性或者增加缺陷，这些都需要深入研究和评估。
-总的来说，增材制造在聚变部件制造中有很大的潜力，特别是在复杂结构和多材料部件方面，但同时也面临材料兼容性、性能变化和制造控制等挑战。需要进一步研究和开发，以克服这些难题，实现高效、可靠的聚变装置制造。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 先进制造技术如增材制造（3D打印）在聚变部件，特别是复杂几何和多材料部件的制造中具有显著潜力，但面临材料性能和微观结构控制的挑战。
 ### 背景与概念
 聚变装置中的关键部件，如磁约束装置的线圈、支撑结构和内壁，通常具有复杂几何形状或需要多材料集成。传统制造方法在处理这些复杂结构时面临高成本、长周期和材料浪费等问题。增材制造技术通过逐层叠加材料，能够直接从数字模型制造出复杂结构，减少制造时间并优化材料使用。
@@ -9808,7 +8622,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -9834,32 +8648,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>嗯，我现在需要回答关于聚变堆中除了结构材料之外，还需要哪些关键的功能材料，以及这些材料各自面临哪些独特的材料科学挑战。我对这个问题的理解还不够深入，所以我得一步步来，先理清楚问题，然后逐一分析。
-首先，问题提到的结构材料我大概知道，比如 ITER 使用的奥氏体不锈钢或者其他低活化钢，这些主要承受结构和机械负荷，但问题聚焦在功能材料，例如诊断窗口的耐辐照光学材料、绝缘用的陶瓷材料、热沉用的铜合金等等。
-那我得先列出这些功能材料，然后分别讨论它们的作用和面临的挑战。可能需要查阅一些资料来确认每种材料的具体情况，但作为初步思考，我可以基于已有的知识来推断。
-让我先列出可能的关键功能材料：
-1. 耐辐照光学材料：用于诊断窗口，比如红外或可见光窗口，用于监测等离子体。
-2. 绝缘材料：用于托卡马克的磁体系统，如陶瓷绝缘材料。
-3. 热沉材料：用于吸收并导出等离子体产生的热量，如铜合金或铜复合材料。
-4. 润滑与密封材料：可能用于机械设备或者真空系统中的密封。
-5. 生种与中子倍增材料：用于启动和维持聚变反应，比如铍或锂陶瓷。
-6. 热屏蔽材料：用于减少热辐射，降低外围设备的热负载。
-7. 耐腐蚀材料：用于接触等离子体或高能粒子流的部分。
-接下来，我需要针对每种材料，思考它们各自的作用和面临的材料科学挑战。
-1. **耐辐照光学材料**：这类材料需要在高辐照环境下保持透明，不被辐射损坏。挑战可能包括辐射引起的材料损伤，如颜色变化、结构破坏等，导致光学性能下降。材料需要有高辐射容忍度，可能需要研究辐照后的材料结构稳定性。
-2. **绝缘材料**：在高温和高辐照环境中，材料需要保持电绝缘性能。挑战可能包括辐照导致的材料降解，电导率增加，影响磁体的稳定性。材料可能需要具备高耐热性和抗辐照能力，可能需要开发新型陶瓷或复合材料。
-3. **热沉材料**：需要高效导热，同时承受高热负荷和高辐照。挑战可能包括材料在极端热负荷下的性能稳定性，可能产生热疲劳或损坏。材料可能需要高导热率、良好的热循环性能和耐辐照能力。
-4. **润滑与密封材料**：在极端环境下，材料需要保持良好的润滑性能和密封效果，防止漏气或杂质进入。挑战可能包括高温、高辐照对材料性能的影响，可能需要开发新型润滑剂和密封材料。
-5. **生种与中子倍增材料**：这些材料用于中子倍增，如铍或锂陶瓷。挑战可能包括辐照导致的材料活化、肿胀，以及中子倍增效率的维持。材料可能需要高纯度，低活化，并且在高辐照下保持结构完整性。
-6. **热屏蔽材料**：需要有效阻挡热辐射，同时可能需要具备一定的透气性或结构设计。挑战可能包括材料在高温和辐照下的性能，可能需要研究材料的热传导和辐射性能。
-7. **耐腐蚀材料**：在等离子体环境中，材料可能接触到高能粒子流，导致材料腐蚀。挑战可能包括材料在高能粒子流下的耐腐蚀性，可能需要表面处理或开发耐腐蚀合金。
-现在，我可能遗漏了某些功能材料，或者某些材料的作用和挑战需要更详细地分析。例如，热屏蔽材料可能不仅仅是阻挡热辐射，还可能涉及复杂的热管理设计。此外，生种材料如铍或锂的使用需要考虑它们在聚变反应中的角色，以及如何在高辐照环境下保持其功能。
-我还需要考虑这些材料在实际应用中的其他因素，如成本、加工难度、可获得性等。例如，铍是一种高效的中子倍增材料，但它也是有毒的，处理起来比较困难，这可能限制它的使用。
-另一个需要考虑的点是材料的综合性能，比如在高温、高辐照和机械应力下的综合表现。这可能涉及到多物理场耦合的问题，需要材料科学的多方面研究。
-此外，材料的老化和寿命也是关键问题。在聚变堆的长期运行中，材料会逐渐退化，这会影响聚变堆的可靠性和寿命。因此，开发能够长期稳定工作的材料是非常重要的。
-总结一下，每种功能材料都有其特定的作用和面临的材料科学挑战，需要针对这些挑战进行深入的研究和开发，以满足聚变堆苛刻的运行环境需求。
-&lt;/think&gt;
-### 聚变堆关键功能材料及其挑战
+          <t>### 聚变堆关键功能材料及其挑战
 聚变堆的运行环境极其苛刻，涉及高温、高辐照和复杂的物理化学过程。除了结构材料外，还需要多种功能材料来维持其正常运行。以下列出这些功能材料及其面临的挑战：
 #### 1. 耐辐照光学材料
 - **作用**：用于诊断窗口，允许监测等离子体。
@@ -9944,7 +8733,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -9970,14 +8759,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>嗯，今天遇到了一个关于聚变堆中氚自持的问题，我得好好理一理。首先，问题提到D-T聚变堆，氚自持的必要性，还有氚增殖的基本核反应原理，包括n+⁶Li和n+⁷Li反应。然后是氚增殖比（TBR）的定义，以及为什么实际堆的TBR必须大于1。
-首先，我得理解氚自持的重要性。D-T反应是目前最有希望实现聚变的途径，但氚在自然界中的丰度极低。如果不自持，就得大量外部供应，这在经济和资源上是不可行的。所以，氚自持是聚变堆可持续运行的关键。
-接下来，氚增殖的基本反应是用中子轰击锂。主要有两种锂同位素：⁶Li和⁷Li。对于⁶Li，中子俘获后会生成氚和一个α粒子。反应式大概是n + ⁶Li → T + α。而对于⁷Li，反应产物是三个中子和两个氚？不对，应该是n + ⁷Li → T + n + 4He？或者我记错了。或者更准确地说，⁶Li和n反应生成T和³He，而⁷Li和n反应生成T和n和α？或者可能需要更详细的核反应分析。
-然后，TBR是氚增殖比，定义为生产氚的总量与消耗量的比值。也就是生产的氚除以消耗的氚。如果TBR等于1，理论上氚可以维持，但实际情况中，由于中子损失、反应效率等因素，必须TBR大于1才能维持自持。比如，假设系统有中子损失，那么需要产生更多的氚来弥补这些损失。
-为什么实际堆的TBR必须显著大于1？可能的原因包括中子泄漏、未参与反应的中子、材料的吸收等因素。此外，反应堆的设计和运行中会有各种损耗，比如中子在结构材料中的吸收，或者在慢化剂中的损失，这些都会导致需要产生更多的氚来补偿，因此TBR必须大于1，通常目标是1.05到2之间。
-总结一下，D-T聚变堆需要氚自持，否则外部供应成本高且资源有限。氚增殖通过中子与锂反应生成，TBR必须大于1以补偿各种损失，确保自持运行。
-&lt;/think&gt;
-**核心结论**：  
+          <t>**核心结论**：  
 在D-T聚变堆中，氚自持是实现可持续运行的关键，因为氚在自然界中极为稀缺且昂贵。氚增殖通过中子与锂（⁶Li和⁷Li）反应生成，而氚增殖比（TBR）必须显著大于1以补偿中子损失和系统损耗。
 ### 背景与概念  
 D-T聚变反应是目前最有希望实现聚变能的途径之一，但其燃料氚在自然界中极为稀少，且生产成本高昂。因此，实现氚自持（即聚变堆自身生产所需氚）对聚变堆的经济性和可持续性至关重要。
@@ -10030,7 +8812,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -10056,18 +8838,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>好的，我现在要比较固态增殖剂包层和液态金属增殖剂包层在几个方面的优缺点。首先，我需要了解这两种包层的基本结构和工作原理。
-固态增殖剂包层比如HCPB和WCCB，主要使用固态的锂陶瓷作为增殖材料。而液态金属包层如DCLL和WCLL，使用流动的液态金属，通常是锂或锂合金，作为增殖剂。这两种设计各有不同的特点和挑战。
-首先，氚增殖性能方面。固态包层的增殖材料是固态，可能会影响氚的释放速度，而液态金属流动性好，可能有助于更快的氚增殖。不过，固态材料的结构稳定性可能更好，但需要考虑到温度分布对增殖效率的影响。
-在氚提取方式上，固态包层可能需要更复杂的工艺来提取氚，因为氚必须从固体中释放出来。而液态金属包层由于材料的流动性，氚可能更容易溶解并被带走，提取过程可能更直接。
-热工水力特性方面，液态金属包层由于使用液体，自然循环能力可能更好，热传导性能也更优，能够更有效地管理热量，减少热点的形成。而固态包层可能需要更复杂的冷却系统来控制温度，避免局部过热。
-材料兼容性方面，液态金属如锂在高温下可能与结构材料发生化学反应或腐蚀，需要选择合适的材料来防止这些问题。而固态包层的结构材料可能更容易与周围的材料兼容，但长期运行中的热应力和辐照损伤也需要考虑。
-安全性方面，液态金属包层可能存在泄漏风险，特别是在高功率运行时，液态金属的流动可能导致泄漏或泄漏后的影响。而固态包层的泄漏风险较低，但由于结构复杂，事故下可能面临材料失效的风险。
-工程复杂度方面，液态金属包层需要设计和维护流动系统的复杂性，包括泵、阀门等设备，增加了系统的复杂性和维护难度。而固态包层的结构虽然简单，但制造和安装可能需要更高的精确度，尤其是在大型聚变装置中。
-综上所述，液态金属包层在氚增殖效率、热管理方面具有优势，但面临材料兼容性和安全性挑战，工程复杂度较高。固态包层则在结构稳定性和氚提取复杂性方面有其优势，但可能在热管理和增殖效率上略逊一筹。
-在选择包层设计时，需要权衡这些优缺点，并考虑具体的应用场景和系统要求。液态金属包层可能更适合需要高效热管理和氚增殖的环境，而固态包层则可能更适合对结构稳定性和材料兼容性要求较高的情况。
-&lt;/think&gt;
-### **核心结论**  
+          <t>### **核心结论**  
 固态和液态金属增殖剂包层在氚增殖性能、氚提取方式、热工水力特性、材料兼容性、安全性和工程复杂度等方面各有优劣，液态金属包层在氚增殖效率和热管理上更具优势，而固态包层在材料稳定性和氚提取控制上更具优势。
 ---
 ### **背景与概念**  
@@ -10146,7 +8917,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -10172,17 +8943,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好，我现在需要描述ITER实验包层模块（TBM）的目标和主要内容，还要说明ITER将测试哪些类型的TBM概念，以及从TBM实验中期望获得哪些关键数据和经验，以支持DEMO包层的设计。
-首先，核心结论应该是ITER的TBM计划主要是为了测试和验证未来聚变堆包层的关键技术和性能，目标是为DEMO包层的设计提供支持。
-背景与概念部分，应该解释什么是TBM，以及它的作用和在聚变堆中的重要性。TBM是用来测试氚增殖、热管理、材料性能等的模块，对于实现可持续聚变能源至关重要。
-接下来是目标与主要内容。目标是测试氚增殖、热管理和材料性能。主要内容包括设计和测试不同TBM概念，监测性能和材料响应，优化设计和工艺。这里要详细说明每个方面，比如氚增殖需要验证含氦锂材料，热管理需要测试冷却系统，材料性能包括高热负荷和中子辐照的影响。
-然后是测试的TBM类型。可能包括固体氦锂型、液态锂型、混合型和模块化型。每种类型都有其优缺点，比如固体型结构简单，但换热效率低；液态型换热效率高，但流动控制复杂。需要列出每种类型并解释。
-关键数据和经验部分，需要分几类：氚增殖性能、热管理性能、材料性能、工程制造与维护经验、系统集成与兼容性数据。每类数据具体说明，比如氚产量、产率，热流密度、冷却效率，材料的氚保留和肿胀率等。此外，制造工艺和维护经验也很重要，以及与ITER系统的兼容性。
-最后，工程或实验意义部分，要说明这些数据如何帮助DEMO设计，比如优化材料选择、冷却系统，验证制造工艺，确保系统兼容性和可维护性，降低成本和风险。
-总结要点时，要重申TBM的目标和在DEMO设计中的作用。
-整个思考过程中，我需要确保每个部分都清晰明了，结构合理，使用专业术语但又不失易懂。同时，要确认涵盖所有关键点，没有遗漏重要信息。
-&lt;/think&gt;
-### ITER实验包层模块（TBM）计划的目标和主要内容
+          <t>### ITER实验包层模块（TBM）计划的目标和主要内容
 #### 核心结论  
 ITER的实验包层模块（TBM）计划旨在测试和验证未来聚变堆包层的关键技术和性能，以支持DEMO包层的设计和优化。
 #### 背景与概念  
@@ -10251,7 +9012,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -10277,14 +9038,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>嗯，今天用户让我讨论中子倍增剂，特别是铍在氚增殖包层中的作用和必要性，同时还要分析铍作为倍增剂的材料和安全问题，并探讨是否有替代材料。好，我需要先回顾一下聚变堆包层的基本知识。
-首先，聚变堆的包层有两个主要功能：增殖氚和降低中子能。氚是聚变反应的重要燃料之一，而包层中的倍增剂负责将快中子减速，释放出热能并生成氚。铍作为倍增剂，因为它具有很高的中子散射截面，能够有效地将快中子减速。
-接下来，我需要详细分析铍的作用。铍能与中子发生弹性散射，有效地将快中子的能量降低到热中子能级。同时，铍与中子反应会产生氚，这在氚增殖中非常重要。不过，铍的缺点也很明显，比如高活性，接触空气会自燃，还有很强的毒性，处理起来相当困难。此外，在聚变堆的运行环境中，铍会受到强烈的辐照，可能会发生辐照肿胀，影响其结构性能。
-然后，考虑材料和安全问题。铍的高活性和毒性意味着在材料制备、加工和处理过程中必须采取严格的防护措施，这增加了成本和复杂性。辐照肿胀则会导致材料性能下降，可能影响整个包层的运行寿命和安全性。
-接下来，用户可能想知道是否有替代材料。替代材料需要具备与铍相当的中子散射能力和增殖性能，同时克服铍的材料和安全问题。潜在的替代材料包括碳材料、碳化硅和某些陶瓷材料。例如，碳和碳化硅在高温下性能稳定，辐照损伤较小，但中子散射截面可能不如铍。此外，研发新的复合材料或合金也可能是一个方向，但需要进一步研究。
-最后，我需要总结铍作为倍增剂的必要性，但指出其材料和安全问题，同时推荐替代材料的探索。整体来看，虽然铍在氚增殖中不可或缺，但寻找替代材料是未来聚变堆发展的关键方向。
-&lt;/think&gt;
-### 核心结论  
+          <t>### 核心结论  
 铍（Be）作为中子倍增剂在氚增殖包层中具有重要作用，但其材料和安全问题（如辐照肿胀、高毒性和放射性）限制了其应用。替代方案包括碳材料、碳化硅（SiC）和其他复合材料，但每种方案都有其优缺点。
 ---
 ### 背景与概念  
@@ -10338,7 +9092,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -10364,14 +9118,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>嗯，我需要详细描述HCPB包层的氚提取系统，包括原理和工艺流程，还要分析主要的技术挑战。首先，HCPB包层使用的是高铬铸造马氏体钢，里面填充了锂陶瓷。氚的产生是通过核反应，然后需要通过某种方法提取出来。
-我记得HCPB包层中的氚提取通常有两种方法：第一种是通过热解，利用温度变化使氚释放出来；第二种是用化学方法，比如与氟化钙反应。这两种方法都有各自的优缺点。热解法可能更直接，但需要考虑温度控制和能量消耗。化学方法可能效率更高，但处理化学试剂可能更复杂。
-接下来，工艺流程大概是这样的：首先，高温气冷反应堆中的氦气把热量带走，同时将氚携带出来。然后，气体经过冷却系统，降温后进入化学处理单元，或者直接进行热解处理。处理后的氚被收集起来，进行纯化和储存。
-技术挑战方面，主要的可能包括氚的渗透问题，材料在高温下的稳定性，提取效率以及化学处理的复杂性。比如，材料的微观结构可能影响氚的扩散，高温可能导致材料蠕变，影响包层的寿命。此外，如何高效提取氚而不引入杂质，也是一个难题。
-我还需要考虑这些挑战的解决途径。比如，优化材料结构以减少氚的流失，采用耐高温材料，或者改进提取工艺以提高效率。另外，实验和模拟研究也是必不可少的，以便更好地理解过程和优化设计。
-总结一下，HCPB包层的氚提取系统涉及复杂的物理和化学过程，需要在设计和操作上解决多方面的技术难题，以确保系统的高效运行和长期稳定性。
-&lt;/think&gt;
-### 1. **核心结论**
+          <t>### 1. **核心结论**
 HCPB（High-Chromium铸造马氏体钢包层）的氚提取系统通过热解法从锂陶瓷中提取氚，工艺流程包括温度控制、气流输送和化学反应。主要技术挑战是氚的渗透控制和提取效率的优化。
 ### 2. **背景与概念**
 HCPB包层是一种固态增殖剂包层概念，用于核聚变反应堆中。它由高铬铸造马氏体钢制成，内部填充有锂陶瓷。在核聚变过程中，锂与中子反应生成氚。氚需要被高效提取以供核聚变燃料循环使用。主要涉及的物理过程包括核反应、材料渗透、化学提取等。
@@ -10397,7 +9144,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -10423,17 +9170,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答关于液态金属增殖剂包层中的氚提取技术的问题，特别是针对PbLi DCLL的设计。首先，我需要理解什么是液态金属增殖剂包层，以及氚提取在这个设计中的重要性。
-PbLi DCLL应该是指液态铅锂合金作为增殖剂的双层冷却剂液态金属包层。这种设计用于聚变反应堆，比如托卡马克，用来增殖氚。因为氚在聚变反应中作为燃料，但自然界中氚很少，所以需要在反应堆中增殖。
-氚提取是一个关键问题，因为液态金属中的氚浓度可能很低，提取效率低会导致氚供应不足，影响反应堆的运行。问题提到了几种方法，比如真空渗透和气体吹扫。我需要分析这些方法的原理，效率，以及工程实现中的困难。
-真空渗透法的基本原理是利用氚在液态金属中的溶解度随压力变化而变化。在真空或低气压环境下，液态金属中的氚会析出，然后被收集。这种方法可能在实验室条件下有效，但在工程应用中，维持真空可能很困难，特别是在高温和高辐射的环境下。
-气体吹扫法则是通过吹入惰性气体，比如氦气，将氚从液态金属中吹扫出来。氦气不会与氚发生反应，可以有效携带氚出来。这种方法可能在工程上更容易实现，因为气体容易控制，但需要考虑气体的选择和吹扫速度，以确保高效的氚提取。
-接下来，我需要考虑氚在液态金属中的渗透和滞留问题。液态金属表面张力大，可能阻碍氚的析出。此外，辐射可能影响液态金属的流动性，导致氚滞留。解决这些问题可能需要优化表面处理，或者使用振动等手段促进氚的释放。
-工程实现的难点可能包括设备的耐辐射性，高温下的材料稳定性，以及氚提取系统的效率。液态金属在高温下可能侵蚀材料，选择合适的材料至关重要。同时，氚的浓度监测和控制也是一个挑战，可能需要先进的诊断技术。
-比较不同提取方法，真空渗透可能在低压力下效率较高，但工程实现困难；气体吹扫可能更易于控制，但需要考虑气体循环和成本。可能需要结合两种方法或开发新的技术来提高效率和可靠性。
-最后，我需要总结这些方法的优缺点，并给出建议，比如综合使用表面处理和吹扫技术，以提高氚提取效率，同时解决工程实现中的材料和控制问题。
-&lt;/think&gt;
-### 氚提取技术在PbLi DCLL液态金属包层中的应用
+          <t>### 氚提取技术在PbLi DCLL液态金属包层中的应用
 #### 1. 核心结论
 在PbLi DCLL包层中，气体吹扫结合真空渗透是可行的氚提取方法，但需解决液态金属高表面张力和辐射诱导滞留问题，工程上需优化表面处理和选择耐辐照材料。
 #### 2. 背景与概念
@@ -10464,7 +9201,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -10490,17 +9227,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好吧，我现在要详细思考一下聚变堆氚工厂的主要组成部分及其功能，以及相关的关键技术和安全挑战。首先，我对聚变堆氚工厂的理解还不太深入，所以需要一步步梳理每个部分的功能和相关技术。
-首先，燃料清理系统。这个系统主要是去除杂质，因为聚变反应需要高纯度的氚。可能使用的方法有蒸馏、吸附或者过滤。蒸馏可能利用不同物质的沸点差异来分离，而吸附可能用某种材料吸收杂质。这个系统需要高效且能够处理大量气体或液体，同时要保证不会让杂质进入后续系统。
-接下来是同位素分离系统。同位素分离是关键，因为氘和氚的同位素需要高纯度提取。可能的方法有激光分离、化学交换或者离心法。激光分离利用同位素的原子光谱差异，化学交换可能通过特定的化学反应来分离，离心法则利用离心力使不同质量的同位素分层。这个过程需要高效且精确，以提高回收率和产量。
-然后是氚储存系统。储存需要安全且稳定，可能用金属合金（如镧系合金）或玻璃微珠来储存。金属合金能够吸收氚形成金属氚化物，而玻璃微珠可能通过物理封装。这个系统需要在高温或特定条件下运行，确保氚不会泄漏，同时方便后续的提取和运输。
-氚输运系统负责在各子系统间输送氚。这可能涉及到管道设计、阀门控制和泵送技术。输送过程中要防止泄漏，确保系统的密闭性，同时要应对氚在输运中的物理化学变化。
-氚衡算系统用于精确计量和追踪氚的使用情况，确保系统的经济性和安全性。可能需要传感器、流量计和数据处理系统来实时监控氚的流动和储存情况，防止浪费和泄漏。
-在关键技术和安全挑战方面，纯度和效率是关键问题。高纯度的氚对聚变反应效率影响很大，同时分离和清理系统需要高效运作。其次是氚的特性，如放射性和易扩散性，增加了安全处理的难度。安全问题包括泄漏、设备故障和放射性物质的管理。环境影响也是一个问题，氚的处理可能产生放射性废物，需要妥善处理。设备可靠性也很重要，系统需要在高温、高压和强辐射环境下长期稳定运行。
-在比较与拓展部分，各种分离技术各有优缺点，激光分离高效但设备复杂，化学交换法适合液体但可能污染，离心法稳定但效率较低。储存方法中金属合金适合动态存储，玻璃微珠适合长期封存。未来技术可能集中在提高分离效率、材料研发和氚的循环利用上。
-综上所述，聚变堆氚工厂是一个复杂系统，每个部分都需要高效、安全且可靠的解决方案。需要多学科的协作和持续的技术创新来应对这些挑战，确保聚变能的可持续发展。
-&lt;/think&gt;
-### 聚变堆氚工厂的主要组成部分及其功能
+          <t>### 聚变堆氚工厂的主要组成部分及其功能
 1. **燃料清理系统**
    - **功能**：去除混合物中的杂质，确保输入同位素分离系统的物质高纯度。
    - **技术方法**：蒸馏、吸附、过滤等。
@@ -10547,7 +9274,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -10573,18 +9300,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在要分析影响聚变堆整体氚清单的主要因素，还要解释为什么最小化氚清单对聚变堆的安全性和经济性至关重要。首先，我得弄清楚什么是氚清单，它包括哪些部分。氚清单指的是聚变堆中氚的总量，也就是在整个系统中氚的分布情况。
-然后，问题提到要包括包层滞留、PFC滞留、燃料循环系统滞留等因素。包层应该指的是聚变堆的包层结构，可能用于捕获中子，生产氚。PFC可能是指第一壁，也就是聚变堆的内壁，用于保护结构材料并作为燃料循环的一部分。燃料循环系统滞留则是指在燃料回收和再利用过程中，氚在系统中的积累。
-接下来，我得想想每个部分对氚清单的影响。包层滞留可能是因为在包层材料中，氚被俘获或者缓慢释放，导致在包层中的氚量增加。PFC滞留可能是因为氚在第一壁材料中被吸附或者扩散，导致氚在第一壁中的滞留。燃料循环系统滞留则涉及到氚在燃料循环中的各个环节，比如储存、回收、净化等过程中的滞留。
-然后，为什么最小化氚清单对安全性和经济性至关重要呢？从安全性来说，氚是一种放射性物质，具有潜在的危险性。如果氚清单过大，系统中储存的氚越多，一旦发生泄漏或者事故，释放的氚量就越大，对环境和人员的潜在危害也越大。此外，氚的半衰期较长，所以长期储存和管理也需要考虑。
-从经济性来看，氚是一种稀有的资源，生产成本高。如果氚清单过大，意味着需要投入更多的氚来维持聚变反应，增加了运行成本。此外，还需要额外的设施来处理和回收氚，进一步增加了建设和运营的成本。
-接下来，我得具体分析每个影响因素。首先是包层滞留。包层材料可能包括锂陶瓷，用于捕获中子产生氚。在这种情况下，氚可能被包层材料吸收，或者在生产过程中被释放出来。如果释放不完全，就会导致包层中滞留的氚增加。
-其次是PFC滞留。PFC材料可能包括铍或者碳，这些材料在高温下可能会与氚发生反应，或者通过物理吸附和化学结合来捕获氚。这种滞留会导致氚在PFC中的积累，增加氚清单。
-最后是燃料循环系统滞留。燃料循环系统包括氚的回收、提纯和再利用。在这个过程中，可能会因为设备效率、工艺损失等原因导致氚在系统中的滞留。例如，回收效率不高，就会导致更多的氚被滞留在系统中，无法重新投入聚变反应。
-为了最小化氚清单，可能需要优化包层材料的性能，提高氚的释放效率；选择合适的PFC材料，减少氚的吸附和滞留；改进燃料循环系统的设计，提高回收效率，减少损失。这些措施可以有效降低系统中氚的总量，从而提高安全性和经济性。
-总结一下，影响氚清单的主要因素包括包层滞留、PFC滞留和燃料循环系统滞留。最小化氚清单对于减少潜在的放射性危害和降低运行成本具有重要意义。因此，在设计和运行聚变堆时，必须仔细考虑这些因素，并采取相应的优化措施。
-&lt;/think&gt;
-### 影响聚变堆整体氚清单的主要因素
+          <t>### 影响聚变堆整体氚清单的主要因素
 1. **核心结论**  
 聚变堆的整体氚清单主要由包层滞留、PFC滞留和燃料循环系统滞留构成，这些因素共同决定了系统中氚的总量及其分布。
 2. **背景与概念**  
@@ -10610,7 +9326,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -10636,21 +9352,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好，我现在要讨论实现DEMO氚自持所面临的综合性挑战。首先，我需要明确什么是氚自持。氚自持意味着聚变反应产生的氚足够维持自身的消耗，TBR（氚增殖比）要大于1.1甚至更高。这对我来说是一个新的概念，我需要先了解一下相关的背景。
-DEMO是一个紧凑型的聚变示范堆，它的目标是展示聚变能的可行性。实现氚自持是DEMO的重要目标之一，因为它关系到聚变反应的可持续性。那么，实现氚自持需要考虑哪些因素呢？根据问题描述，需要考虑包层覆盖率、中子泄漏、结构材料吸收、增殖剂富集度、以及氚提取和处理过程中的损失等因素。
-首先，包层覆盖率。包层是指围绕聚变等离子体的结构，通常包括 blanket（包层）和 divertor（偏滤器）。包层的覆盖率高意味着更多的中子可以被包层捕获，从而促进氚的增殖。覆盖率低的话，中子泄漏到包层之外，导致增殖效率降低。因此，包层的设计需要高效地覆盖聚变装置，尽可能减少中子泄漏。
-接下来是中子泄漏的问题。在聚变反应中，氘和氚聚变生成氦和中子。这些中子需要被包层中的锂化合物吸收，生成氚。如果中子泄漏过多，就会降低氚的增殖效率。中子泄漏受聚变装置的几何形状、材料种类以及包层设计的影响。如何减少中子泄漏，提高中子被捕获的概率是需要考虑的关键点。
-然后是结构材料的吸收。聚变装置的结构材料，如包层材料和磁体材料，可能会吸收部分中子，影响氚的增殖。这些材料的中子吸收截面会影响增殖效率。因此，选择中子吸收较少的材料对于提高氚自持能力非常重要。
-增殖剂的富集度也是一个关键因素。增殖剂是指用于吸收中子并生成氚的物质，通常使用锂。锂的同位素中，Li-6的中子吸收截面较高，适合用于氚增殖。如果增殖剂的富集度高，即Li-6的含量较高，可以提高中子吸收效率，从而增加氚的产量。
-最后是氚提取和处理过程中的损失。在氚的增殖过程中，氚需要从包层材料中提取出来，并通过复杂的处理系统进行纯化和循环使用。在这个过程中，可能会有氚的损失，影响整体的增殖效率。因此，设计高效的氚提取和处理系统，减少损失，是实现氚自持的重要环节。
-综合以上因素，要实现DEMO的氚自持，需要在包层设计、中子管理、材料选择、增殖剂富集以及氚处理系统等多个方面进行优化和协调。每一方面都有其技术挑战，需要深入研究和创新解决方案。
-例如，包层设计需要高效覆盖，同时考虑到结构材料的热负载和机械强度。中子管理则需要通过优化几何结构和材料分布，减少泄漏，提高吸收效率。材料选择方面，可能需要开发新的低中子吸收材料，以提高增殖效率。增殖剂的富集需要高纯度的Li-6，这在生产上可能面临挑战。氚处理系统需要高效可靠，确保氚的循环使用，减少损失。
-此外，这些因素之间存在相互影响，可能需要综合考虑和权衡。例如，提高包层覆盖率可能会增加结构材料的负担，需要在性能和材料选择之间找到平衡点。优化中子管理可能需要调整包层的几何结构，进而影响整个装置的设计。
-实现DEMO的氚自持还需要考虑经济性和可持续性。高成本的材料或复杂的处理系统可能会影响聚变能的经济性，因此需要在技术和经济之间寻找平衡点。
-最后，实验验证和模拟也是实现氚自持的重要手段。通过模拟可以预测不同设计方案的性能，指导实验和设计优化。同时，实验结果可以验证理论模型，提供反馈，进一步优化设计方案。
-总之，实现DEMO的氚自持是一个复杂而多方面的挑战，需要综合考虑包层设计、中子管理、材料选择、增殖剂富集以及氚处理系统等多个因素。通过深入研究和创新，有望克服这些挑战，实现聚变能的可持续发展。
-&lt;/think&gt;
-### 实现DEMO氚自持的综合性挑战分析
+          <t>### 实现DEMO氚自持的综合性挑战分析
 #### 1. 核心结论
 实现DEMO氚自持（TBR &gt; 1.1或更高）需要在包层覆盖率、中子泄漏、结构材料吸收、增殖剂富集度以及氚提取处理效率等多个关键领域进行协同优化。
 ---
@@ -10700,7 +9402,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -10726,18 +9428,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>好的，我现在要回答关于氚在聚变电厂内的安全约束和管理策略的问题。氚是一种放射性物质，所以它的管理非常重要，涉及到多重屏障、滞留物去除、事故缓解措施，以及如何确保氚的释放远低于法规限值。
-首先，我需要理解氚的性质。氚是氢的同位素，具有放射性，半衰期约为12.3年，主要通过β衰变转化为氦-3。它的放射性意味着如果被人体摄入，可能会造成内照射风险，特别是对氚水，因为它可以迅速被吸收并分布在全身。
-接下来，我需要考虑聚变电厂中的氚管理。氚通常用作燃料，与氘一起在聚变反应中生成氦和中子。聚变电厂的设计必须确保氚不会泄漏到环境中，同时在事故情况下也能有效控制氚的释放。
-多重屏障是关键。首先，反应堆的真空室或燃料舱需要是一个坚固的屏障，防止氚泄漏。然后，冷却系统和回路的设计也要能够捕捉和回收泄漏的氚。此外，厂房设计需要有二次和三次屏障，确保即使在泄漏的情况下，氚也不会扩散到环境中。
-滞留物去除也是一个重要环节。聚变反应中会产生一些滞留产物，包括氚和其他物质。处理这些滞留物时，必须使用专门的设备来分离和回收氚，避免其进入废物处理系统或排放到环境中。
-事故缓解措施方面，聚变电厂需要有多种监测系统，实时检测氚的浓度，一旦超过安全阈值，立即触发应急程序。应急系统可能包括自动停机、启动吸收装置等。此外，事故分析和缓解策略也是必要的，确保在各种可能的事故情况下，氚的释放都能被控制在法规限值以下。
-法规限值方面，通常氚的释放受到严格控制。例如，可能设定为每年每单位反应堆的氚释放量不超过一定数量级。聚变电厂的设计必须确保氚的年释放量远低于这些限值，通常在微居里或毫居里级别。
-此外，工程和实验的意义也需要考虑。多重屏障的设计需要考虑材料的耐辐射性和耐腐蚀性，以确保长期稳定运行。滞留物处理设备的效率直接影响到氚的回收率和系统安全。事故缓解措施的设计需要基于全面的风险评估，确保在各种工况下都能有效应对。
-比较与拓展方面，可能需要考虑不同的氚管理策略，比如不同的屏障设计或滞留物处理技术。每种方法都有其优缺点，选择时需要根据具体的设计要求、成本效益分析等因素综合考虑。
-最后，要点总结：多重屏障是核心，监测系统确保及时发现泄漏，事故缓解措施减少氚释放，法规限值严格控制。结合工程设计和实验验证，才能确保氚的安全管理，符合安全法规要求。
-&lt;/think&gt;
-### 1. **核心结论**
+          <t>### 1. **核心结论**
 氚在聚变电厂内的安全管理通过多重屏障、滞留物去除和事故缓解策略实现，确保氚释放远低于法规限值（通常为 μCi 到 mCi 级别）。
 ---
 ### 2. **背景与概念**
@@ -10835,7 +9526,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -10861,16 +9552,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>好，我现在要分析NbTi和Nb₃Sn这两种低温超导材料在聚变磁体中的应用。首先，用户的问题是让比较它们的性能特点，包括临界电流密度、临界磁场、应变敏感性，还有制造成本。然后要解释为什么ITER的环向场和中心螺线管用的是Nb₃Sn导体。
-首先，我需要明确这两种材料的基本性能。临界电流密度Jc和临界磁场Bc是关键参数。我记得NbTi的临界磁场大概在15特斯拉左右，而Nb₃Sn的临界磁场要高得多，大约在20特斯拉以上。这说明在更高磁场的应用中，Nb₃Sn更有优势。
-接着是临界电流密度。NbTi的Jc大约在1000到3000 A/mm²，而Nb₃Sn的Jc更高，达到5000到10000 A/mm²。更高的电流密度意味着在相同截面积下，Nb₃Sn可以承载更大的电流，这对磁体的设计和效率很重要。
-然后是应变敏感性。NbTi在这方面表现较好，应变敏感性较低，这意味着在制造过程中，材料不容易因为机械应力而性能下降。而Nb₃Sn对机械应变比较敏感，所以在制造过程中需要更加小心，避免材料变形导致性能受损。
-制造成本方面，Nb₃Sn的制造过程比NbTi复杂，需要高温高压的反应条件，生产周期也较长，导致成本显著高于NbTi。而NbTi的制造工艺相对简单，成本较低。
-接下来，为什么ITER会选择Nb₃Sn作为环向场和中心螺线管的导体？ITER需要产生非常强的磁场，来约束等离子体。环向场线圈需要在较高的磁场环境中运行，而中心螺线管则需要产生高脉冲的磁场。这些应用都需要更高的临界磁场和电流密度，这样才能确保磁体在极端条件下稳定运行。虽然Nb₃Sn的成本更高，但考虑到ITER的需求和性能要求，这是必要的选择。
-此外，Nb₃Sn虽然在应变敏感性上有缺点，但在ITER的设计中，会采取措施来减少机械应力的影响，比如优化制造工艺和结构设计，从而克服这一问题。尽管成本高昂，但ITER项目需要高性能的磁体，无法妥协这一点。
-总的来说，Nb₃Sn在性能上更适合ITER的需求，尽管成本更高，但为了项目的成功，这是值得的。
-&lt;/think&gt;
-### 1. 核心结论  
+          <t>### 1. 核心结论  
 Nb₃Sn低温超导材料在临界电流密度、临界磁场和应变敏感性方面优于NbTi，尽管制造成本更高，但其性能优势使其成为ITER高磁场磁体的优选材料。
 ---
 ### 2. 背景与概念  
@@ -10912,7 +9594,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -10938,14 +9620,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>嗯，我现在要解释CICC的设计原理，以及它在大型聚变磁体中的优势，还有面临的挑战。首先，我得弄清楚CICC是什么，它和传统导体有什么不同。记得CICC是 Cable-in-Conduit 换热器，用于超导磁体。它由多根超导电缆组成，外面包裹着结构材料，里面有流动的冷却剂，比如液氮或氦。
-CICC的设计优势应该包括高载流能力，因为它由多根电缆组成，载流能力相加。还有结构上的稳定性，因为有外壳支撑，避免弯折。机械强度方面，外壳的结构材料能提供足够的强度和刚性，适合在高应力环境中使用。
-然后，CICC在大型聚变装置中的应用，比如ITER和JT60SA，它们都是用CICC作为超导磁体导体，这应该是基于CICC的这些优势，比如高载流、结构稳定和机械强度。但同时，设计CICC时也会遇到一些挑战，特别是在热工水力和电磁力学方面。
-热工水力方面，冷却剂的流动需要有效带走热量，同时还要有足够的压力来克服流动阻力。这可能涉及到冷却剂的流速、压力设计以及可能的流体不稳定性，比如两相流的问题。还有接头设计，确保冷却剂在各个部分之间顺畅流动。
-电磁力学方面，超导电缆在强磁场中会产生电磁力，特别是边缘效应可能会导致局部应力集中，这可能影响导体的结构完整性。此外，当磁体运行时，会产生磁致振动，这对导体的振动和疲劳寿命也是个考验。屏蔽问题可能涉及减少电磁干扰和涡流损耗，从而影响冷却效率。
-总结一下，CICC在设计时需要综合考虑载流能力、冷却效率、结构强度和电磁效应，才能在大型聚变装置中可靠运行。接下来我要把这些思路整理成结构化的回答，分成几个部分，每个部分都要详细说明，并给出一些具体的例子或计算。
-&lt;/think&gt;
-### 核心结论
+          <t>### 核心结论
 CICC（Cable-in-Conduit）导体通过多根超导电缆并联、结构材料支撑和冷却剂流动设计，具备高载流能力、结构稳定性和机械强度，适合用于大型聚变装置如ITER和JT60SA，尽管面临冷却剂流动优化和电磁力分布的挑战。
 ---
 ### 背景与概念
@@ -10989,7 +9664,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -11015,14 +9690,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>好的，现在我要回答关于高温超导材料在聚变磁体应用中的潜力，以及CFS公司的突破性进展。首先，我需要明确高温超导（HTS）和低温超导（LTS）的区别，然后分析HTS的优势。
-高温超导材料，如REBCO，运行温度高于LTS，通常在液氮温度（约77K）左右，而LTS需要液氦（约4K）。更高的运行温度意味着冷却成本降低，这对大型聚变装置来说非常重要。
-接下来，我应该讨论HTS的优势，如更高的磁场能力、更紧凑的设计和可能的更低维护成本。此外，HTS材料在交流损耗方面表现更好，这对于需要频繁变化磁场的聚变装置很有帮助。
-然后，我需要了解CFS公司在HTS磁体研发中的突破。我可能需要查找他们的具体进展，比如更高的磁体性能、更长的导体长度、改进的制造工艺等。例如，他们可能在磁体的磁场强度、尺寸稳定性或成本方面有显著提高。
-在分析这些信息时，我要确保比较HTS和LTS的具体优势，以及CFS公司如何利用HTS的优势来提升聚变磁体的设计和性能。同时，我应该考虑工程应用中的实际问题，如冷却系统设计、材料的可制造性和可靠性。
-最后，我需要总结HTS在聚变磁体中的潜力以及CFS公司的贡献，强调这些进展如何推动聚变能源的发展，以及未来可能的进一步研究方向。
-&lt;/think&gt;
-### 高温超导（HTS）材料在聚变磁体应用中的潜力
+          <t>### 高温超导（HTS）材料在聚变磁体应用中的潜力
 #### 1. **核心结论**
 高温超导材料（HTS），如REBCO（稀土钡铜氧化物），在聚变磁体应用中具有巨大潜力，相比低温超导（LTS）材料，HTS材料具备更高的运行温度、更强的磁场能力和更紧凑的设计优势，显著降低聚变装置的建设和运行成本。
 #### 2. **背景与概念**
@@ -11062,7 +9730,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -11088,13 +9756,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>好的，我现在要回答关于ITER大型低温系统的问题。首先，问题提到了几个主要部分：氦制冷机、液氮预冷系统、低温分配系统和过冷氦循环。我需要分别描述它们的组成和功能。
-氦制冷机是关键，它能产生极低温，大概1.5K。我得说明它的工作原理，可能用到磁悬浮轴承压缩机，这样效率更高，振动也小。然后是液氮预冷系统，温度在70K左右，用于预冷，降低氦制冷机的负荷。低温分配系统负责把冷量分配到各个设备，比如超导磁体和诊断系统，可能需要复杂的管道和控制阀门。过冷氦循环用于维持设备在低温下稳定，防止温度波动，可能需要过冷回路和热交换器。
-接下来，温度水平和制冷功率。氦制冷机要到1.5K，液氮系统70K，过冷氦循环可能低到0.5K。制冷功率的话，ITER的总制冷功率大约是20MW，其中大部分用于超导磁体，大概15MW，其他部分用于诊断和其他低温设备。
-运行挑战方面，动态热负荷是大问题， ITER运行时会产生脉冲式热负荷，这对制冷系统的响应速度和稳定性要求很高。还有系统的复杂性，多个子系统相互依赖，需要高度集成和控制。此外，氦制冷机长期可靠运行也是挑战，特别是在高真空和低温环境下，设备容易出问题，维护起来也很困难。
-总结一下，整个低温系统设计复杂，需要高效制冷，精准控制，并且应对动态热负荷和系统可靠性的问题。这可能对ITER的运行安全和稳定性产生重大影响。
-&lt;/think&gt;
-### ITER大型低温系统的主要组成和功能
+          <t>### ITER大型低温系统的主要组成和功能
 #### 1. **氦制冷机**
 - **组成**：由压缩机、膨胀机、热交换器等部件组成。
 - **功能**：将氦气制冷至极低温（约1.5K），为超导磁体提供冷量。
@@ -11129,7 +9791,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -11155,12 +9817,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>好，我需要解释超导磁体的失超现象、其发生机制和潜在危害，以及聚变装置中常用的失超检测技术和保护策略。首先，得理解什么是失超，这涉及到超导体突然失去超导性能，电阻恢复到正常水平的情况。
-接下来，要描述失超的机制，包括正常成分和非正常成分的影响。需要提到引发失超的各种因素，比如局部温度升高、磁通跳跃等。然后，分析失超带来的危害，比如强磁场快速消失、能量释放导致温度上升和应变，这些可能造成磁体损坏或结构破坏。
-关于失超检测技术，应该涵盖磁场、温度、电压等参数的监测方法，以及使用霍尔传感器、RTD和超导转变边缘传感器的具体情况。同时，快速放电和淬火加热器作为保护策略，需要说明它们的原理和作用。例如，快速放电如何缓解储能释放，淬火加热器如何帮助安全退出失超状态。
-最后，要确保整个解释逻辑清晰，各部分内容有条不紊，符合用户的要求。语言要专业但易于理解，结构分明，让读者能够全面掌握相关知识。
-&lt;/think&gt;
-### 超导磁体的失超现象
+          <t>### 超导磁体的失超现象
 #### 1. 核心结论
 超导磁体的失超现象是指超导体突然失去其超导特性，导致电阻迅速恢复到正常态的过程，通常伴随局部能量释放和磁体结构的热应变。
 #### 2. 背景与概念
@@ -11191,7 +9848,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -11217,17 +9874,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>嗯，我现在要回答用户关于大型、高场超导聚变磁体制造和装配过程中面临的主要工程挑战的问题。首先，我得理解问题的各个方面，用户提到了导体接头、绕组精度、绝缘、支撑结构和电磁力处理这几个主要挑战。
-好的，我需要分别深入探讨每个挑战。首先是导体接头。我记得超导磁体通常使用超导材料，比如铌锡或铌钛。在制造过程中，导体需要连接，而接头的电阻和载流能力会影响整个磁体的性能。如果电阻过高，接头会变成热点，导致磁体失超。所以，如何确保接头的低电阻和高载流能力是一个关键问题。
-接下来是绕组精度。托卡马克装置的磁体需要非常精确地围绕等离子体，任何微小的误差都可能影响等离子体的约束效果。因此，绕组的制造和装配必须非常精确，可能需要使用高精度的机器人或自动化设备来完成。此外，绕组的紧凑性和对称性也是需要考虑的因素。
-绝缘和冷却系统也是重要的部分。超导磁体需要在低温环境下运行，通常使用液氦冷却。绝缘材料必须能够耐受极端的温度变化，并且在长期运行中保持其性能。同时，冷却系统的设计必须确保所有部分都能均匀冷却，避免局部过热。
-支撑结构的设计同样关键。超导磁体在运行时会产生巨大的电磁力，这些力可能导致磁体变形或损坏。支撑结构需要能够承受这些力，同时又不影响磁体的性能。可能需要使用高强度的材料，并进行精确的力学分析，以确保结构的稳定性。
-最后是电磁力的处理。大型磁体在通电时会受到极大的电磁力，这些力可能引起振动或应力集中，导致磁体损坏。因此，需要设计有效的结构来分散和吸收这些力，可能包括使用冗余设计和加强结构。
-在分析每个挑战时，我需要考虑现有的技术和解决方案，以及它们的优缺点。例如，在导体接头方面，机械连接和焊接各有优缺点，机械连接可能更简单但载流能力有限，而焊接需要高超的技术但能提供更高的载流能力。绕组精度方面，使用高精度机器人可以提高制造效率，但初始投资较高。
-此外，我还需要考虑工程意义，比如这些挑战对磁体可靠性和聚变装置性能的影响。例如，良好的导体接头和支撑结构可以提高磁体的寿命和稳定性，从而提高整个装置的运行效率。
-最后，我应该总结每个挑战的主要点，提出解决方案，并强调它们对聚变装置设计和运行的重要性。这不仅帮助用户理解问题，还提供了可行的改进方向。
-&lt;/think&gt;
-### 大型、高场超导聚变磁体制造与装配的主要工程挑战
+          <t>### 大型、高场超导聚变磁体制造与装配的主要工程挑战
 #### 1. **核心结论**  
 大型、高场超导聚变磁体（如ITER TF线圈）在制造和装配过程中面临的主要工程挑战包括导体接头的低电阻与高载流能力、绕组的高精度制造与装配、复杂的绝缘系统设计、高强度支撑结构的稳定性以及电磁力的高效处理。
 ---
@@ -11281,7 +9928,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -11307,15 +9954,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>好吧，我现在得解决关于ITER中心螺线管（CS）的问题。首先，中心螺线管在聚变反应堆中扮演什么角色呢？我知道聚变等离子体需要强磁场来约束，而托卡马克装置使用超导线圈来产生这些磁场。中心螺线管可能负责产生初始的磁场，帮助等离子体启动。然后，它还可能维持等离子体中的电流，这样即使没有外部电源，等离子体也能自我维持。
-为什么中心螺线管采用分模块设计呢？可能是因为它非常大，分开制造更容易，或者分块设计有助于冷却和维护。此外，分模块可能允许不同的部分在不同时间工作，提高效率或灵活性。
-接下来，结构和运行面临的挑战是什么呢？考虑到中心螺线管是超导磁体，低温是一个大问题。如何保持超导线在极低温度下工作，同时处理产生的热量？还有，巨大的电磁力可能导致结构变形，如何设计以承受这些力？此外，CS需要与其它磁体如环向场线圈协同工作，控制电流以维持等离子体稳定性，这也带来了控制上的挑战。
-我还应该考虑电流感应的机制，CS如何通过变化的磁场在等离子体中感应电流。这可能涉及到法拉第电磁感应定律，计算感应电动势和产生的电流。此外，CS的分模块设计可能允许更精确地控制各个区域的磁场，但这需要复杂的控制系统。
-在工程意义上，这些设计必须保证极高的可靠性和安全性，因为任何故障可能导致严重后果。材料选择也是关键，超导材料需要在强磁场下保持性能，同时具备足够的机械强度。
-最后，比较ITER和其它类似装置，比如JET或KSTAR，它们的CS设计有何异同，这可能帮助理解为什么ITER选择分模块设计以及面临的独特挑战。
-总结一下，我需要分析CS的关键作用，解释分模块设计的必要性，以及面临的挑战，如低温、电磁力、控制和维护等问题。这需要结合聚变物理、超导技术和工程设计的知识。
-&lt;/think&gt;
-### ITER中心螺线管（CS）的关键作用与设计分析
+          <t>### ITER中心螺线管（CS）的关键作用与设计分析
 #### 1. **核心结论**
  ITER的中心螺线管（CS）通过感应和维持等离子体电流，确保聚变等离子体的稳定约束。其分模块设计有助于解决制造、冷却和维护挑战，并提升磁场控制精度。
 #### 2. **背景与概念**
@@ -11346,7 +9985,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -11372,25 +10011,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>嗯，我现在需要讨论聚变堆中超导磁体辐射屏蔽的重要性，以及中子和伽马射线对超导材料，特别是绝缘材料的损伤效应。同时，还要设计一个有效的屏蔽系统来保护磁体。这个问题对我来说有点挑战，但我可以慢慢理清楚。
-首先，聚变堆中超导磁体为什么需要辐射屏蔽呢？我知道聚变反应会产生大量高能粒子，包括中子和伽马射线。这些粒子会对周围的材料产生辐射损伤，而超导磁体的材料，尤其是绝缘材料，可能对辐射比较敏感。超导材料本身可能会因辐射而导致电阻增加，从而影响其超导性能，进而影响整个聚变堆的运行稳定性。
-那中子和伽马射线具体对超导材料有什么样的损伤效应呢？中子与材料中的原子核相互作用，可能会引起材料的结构变化，比如点缺陷或晶格畸变，这些都会降低材料的机械强度和电性能。对于超导材料，这可能导致临界温度下降，临界电流密度减少，从而影响其超导性能。此外，中子还可能引起材料的激活，产生放射性物质，这对工作人员的安全也是一个威胁。
-伽马射线主要是高能光子，它们会与材料发生光电效应、康普顿效应等，导致材料的电离和激发。这可能引起材料的电导率变化，尤其是绝缘材料，可能因为电离而发生导电，从而导致绝缘失效，这会影响磁体的绝缘性能，甚至引发短路等严重问题。
-接下来，如何设计有效的屏蔽系统呢？首先，我想到需要一个能够有效吸收中子和伽马射线的材料。一般来说，中子屏蔽常用含氢材料，比如聚乙烯，因为氢原子对中子有很好的慢化和吸收作用。而伽马射线的屏蔽通常需要高密度、高原子序数的材料，比如铅、钨等，因为它们对伽马射线的吸收效果好。
-但是，聚变堆的空间有限，屏蔽材料的厚度和重量必须控制在合理的范围内，否则可能影响整个装置的结构设计和稳定性。因此，可能需要一种既能有效屏蔽中子，又能有效屏蔽伽马射线的材料，或者采用分层屏蔽的方式，先用含氢材料吸收中子，再用重金属材料阻挡伽马射线。
-此外，屏蔽系统的设计还需要考虑屏蔽材料的耐辐照性能。因为即使屏蔽了一部分辐射，屏蔽材料本身也会受到辐射的影响，可能会导致材料性能下降，从而影响屏蔽效果。因此，选择耐辐照性能好的材料也是很重要的。
-我还需要考虑屏蔽系统的位置。屏蔽材料应该放置在辐射源和超导磁体之间，尽可能靠近辐射源，以减少辐射对磁体的直接照射。同时，可能需要在多个关键位置设置屏蔽，以确保各个方向的辐射都被有效阻挡。
-另外，屏蔽系统的成本和可制造性也是一个需要考虑的因素。高密度的重金属材料成本较高，制造起来也较困难。因此，可能需要在性能和成本之间找到一个平衡点。
-再者，我需要考虑屏蔽系统对聚变堆整体性能的影响。例如，屏蔽材料的引入是否会影响聚变堆的磁约束性能，或者是否会影响热量的传递和管理。这些都需要在设计屏蔽系统时综合考虑。
-最后，可能还需要进行实验验证和数值模拟，以评估屏蔽系统的效果。例如，可以通过数值模拟计算不同屏蔽材料和结构下的辐射通量，或者通过实验测试屏蔽材料的耐辐照性能和屏蔽效果。
-总结一下，我需要：
-1. 分析中子和伽马射线对超导材料的具体损伤机制。
-2. 确定有效的屏蔽材料和结构。
-3. 考虑聚变堆的空间限制、成本、材料性能等因素。
-4. 设计一个综合考虑这些因素的屏蔽系统，并通过实验和模拟进行验证。
-通过这样的思考过程，我可以逐步明确问题的关键点，从而设计出一个有效的屏蔽系统来保护超导磁体。
-&lt;/think&gt;
-### 聚变堆中超导磁体辐射屏蔽的重要性与设计
+          <t>### 聚变堆中超导磁体辐射屏蔽的重要性与设计
 #### 核心结论
 聚变堆中超导磁体的辐射屏蔽对于保护磁体性能、确保装置稳定运行至关重要。设计有效的屏蔽系统需综合考虑中子和伽马射线的损伤效应，选择适当的屏蔽材料和结构。
 #### 背景与概念
@@ -11427,7 +10048,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -11453,25 +10074,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>好吧，我现在要仔细思考用户提出的问题：“对于未来商业聚变堆，超导磁体系统的成本是关键因素之一。从材料选择、导体设计、制造工艺和系统集成等方面，探讨降低超导磁体成本的可能途径。”这个问题涉及到聚变堆的关键部件——超导磁体系统的成本控制。作为刚接触这个领域的学习者，我需要从多个方面来分析可能的解决方案。
-首先，我得理解超导磁体系统在聚变堆中的作用。聚变堆，如托卡马克，通常需要强磁场来约束等离子体。超导磁体因为其零电阻特性，可以在高电流下运行而不会产生大量热量，这对于维持长时间的聚变反应至关重要。然而，这些磁体的成本很高，可能成为商业聚变堆普及的障碍。
-接下来，按照用户给的答题规范，我需要从材料选择、导体设计、制造工艺和系统集成四个主要方面来探讨降低成本的方法。
-**材料选择方面**：
-超导材料的选择直接影响成本。目前常用的超导材料包括低温超导体（如铌钛合金NbTi，临界温度Tc约为9K）和高温超导体（如钇钡铜氧YBCO，Tc约为93K）。低温超导体已经商业化，但需要在非常低的温度下运行，通常需要使用液氦冷却，这增加了系统的复杂性和成本。高温超导体虽然临界温度高，但目前还处于实验室阶段，尚未大规模商业化，制造成本较高。
-为了降低成本，可能需要寻找新的超导材料，具有更高的临界温度和更好的性能，同时生产工艺简单，成本低廉。此外，还可以探索使用混合超导材料，结合低温和高温超导体的优势，以在降低成本的同时满足性能要求。
-**导体设计方面**：
-超导导体的设计影响其电流承载能力和尺寸，从而影响系统的整体规模和成本。传统的超导导体设计可能需要较大的截面积来承载高电流，这增加了材料的使用和制造成本。优化导体设计，提高单位面积的电流密度，可以减少导体的总截面积，从而降低成本。
-此外，可能需要研究新的导体制备方法，如3D打印超导导体，这可能提高导体的均匀性和减少浪费，降低制造成本。
-**制造工艺方面**：
-超导磁体的制造工艺复杂，涉及多道工序，包括材料制备、导体制备、线圈绕制、低温处理等。每一道工序都可能增加成本。改进制造工艺，提高生产效率，可以有效降低成本。
-例如，采用自动化制造设备，减少人工干预，提高生产速度和一致性。同时，开发新的低温处理技术，缩短处理时间，降低能耗。此外，探索模块化制造，将磁体分解为更小的模块进行制造和组装，可以提高生产的灵活性和效率，从而降低成本。
-**系统集成方面**：
-超导磁体系统的集成涉及多个子系统，包括磁体本身、冷却系统、支撑结构等。优化系统的整体设计，提高各子系统的集成度和协同工作能力，可以减少系统的复杂性和成本。
-例如，设计紧凑型磁体结构，减少空间需求，降低支撑结构的复杂性和成本。同时，优化冷却系统的设计，提高冷却效率，降低运行成本。此外，采用模块化设计，方便系统的维护和升级，延长系统的使用寿命，从而摊薄初始成本。
-**总结**：
-降低成本需要从材料、设计、工艺和集成四个方面综合考虑。材料选择上，寻找性能优异且成本低廉的新材料；导体设计上，优化结构，提高电流承载能力；制造工艺上，采用先进技术和自动化生产；系统集成上，优化整体设计，提高集成度。这些措施可以有效降低超导磁体系统的成本，推动商业聚变堆的普及。
-&lt;/think&gt;
-### 降低未来商业聚变堆超导磁体系统成本的途径
+          <t>### 降低未来商业聚变堆超导磁体系统成本的途径
 #### 1. 材料选择
 - **使用现有低成本超导材料**：目前，铌钛合金（NbTi）和铌三锡（Nb3Sn）是常用的低温超导材料。虽然这些材料需要在极低温度（接近4K）下运行，但它们的制造工艺相对成熟且成本较低。
 - **开发新型高温超导材料**：高温超导材料（如钇钡铜氧YBCO和铁基超导体）具有较高的临界温度，能够减少冷却成本。然而，这些材料在大规模应用中仍面临制造成本高和性能稳定性的问题，需要进一步研发以降低成本。
@@ -11490,7 +10093,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -11516,17 +10119,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>好的，我现在要回答关于仿星器超导磁体设计、制造和应力分析的特殊挑战，以及如何利用先进计算工具和制造技术来应对这些问题。我需要遵循之前的答题规范，分成七个部分来详细说明。
-首先，我需要明确仿星器和托卡马克在磁体系统上的区别。仿星器的磁场线是三维且非闭合的，导致其磁体结构比托卡马克复杂得多。这可能涉及到更多的磁体单元和更复杂的形状，增加了设计难度。
-接下来，考虑磁体设计的特殊挑战。仿星器需要更高的磁场精确度，因为磁场分布直接影响等离子体的稳定性和约束性能。设计时需要精确控制磁场的每一个细节，这比托卡马克的对称设计复杂得多。
-制造方面，仿星器的磁体结构三维化且形状不规则，传统的制造工艺可能无法满足要求。因此，可能需要采用更先进的制造技术，如3D打印或者高精度数控加工，来制造这些复杂结构。此外，材料选择也很关键，超导材料需要在极端条件下保持性能，这可能涉及特殊的材料处理和测试。
-在应力分析方面，仿星器的复杂结构会导致磁体在运行中承受多方向的应力。这些应力可能来自电磁力、机械负载以及冷却系统等因素。传统的应力分析方法可能不够，需要更精确的有限元分析（FEA）来模拟各种应力情况，确保磁体在运行中不会发生形变或损坏。
-然后，考虑如何利用先进计算工具。仿真软件如ANSYS或COMSOL可以进行多物理场耦合分析，同时考虑电磁、热和机械应力。这有助于在设计阶段预测和优化磁体的性能和可靠性。
-制造技术方面，3D打印（增材制造）能够直接制造复杂形状的磁体结构，减少了传统制造中的材料浪费和加工难度。此外，智能制造系统，如CNC和自动化装配线，可以提高制造精度和效率，确保每个磁体单元符合设计要求。
-最后，考虑工程和实验意义。这些设计、制造和分析方法的改进将直接影响仿星器的性能和可靠性。例如，更精确的磁体设计可以提升等离子体的约束能力，而先进的制造技术可以降低生产成本和时间。此外，改进的应力分析可以提高磁体的使用寿命，减少维护需求。
-总结一下，仿星器的磁体系统面临更高的设计、制造和应力分析挑战，但通过先进的计算工具和制造技术，可以有效应对这些问题，推动仿星器技术的发展。
-&lt;/think&gt;
-### 仿星器超导磁体设计、制造和应力分析的挑战与解决方案
+          <t>### 仿星器超导磁体设计、制造和应力分析的挑战与解决方案
 #### 1. 核心结论
 仿星器的复杂三维磁体系统带来设计、制造和应力分析的特殊挑战，需利用先进计算工具和制造技术进行应对。
 #### 2. 背景与概念
